--- a/Kochia/results/Summary.xlsx
+++ b/Kochia/results/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w63x712\Documents\Machine_Learning\HSI_selection2\Kochia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFEBE32-6AEB-4F92-80D5-0117025C440D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB97F38-6124-41DF-AB3A-E9059D1CE2DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="662" firstSheet="10" activeTab="12" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="662" firstSheet="7" activeTab="12" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="150 bands" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <sheet name="Comparison 5x2 25%" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="1243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="1263">
   <si>
     <t>150 bands</t>
   </si>
@@ -2992,18 +2991,6 @@
     <t>Ttest_relResult(statistic=15.738123853128945, pvalue=7.427914499651455e-08)</t>
   </si>
   <si>
-    <t>Ttest_relResult(statistic=5.725926957986797, pvalue=0.0002848145541598211)</t>
-  </si>
-  <si>
-    <t>Ttest_relResult(statistic=4.161420184746783, pvalue=0.002442552117909064)</t>
-  </si>
-  <si>
-    <t>Ttest_relResult(statistic=25.037772958386785, pvalue=1.2421717076133782e-09)</t>
-  </si>
-  <si>
-    <t>Ttest_relResult(statistic=24.08082297794799, pvalue=1.7557532285359197e-09)</t>
-  </si>
-  <si>
     <t>Ttest_relResult(statistic=6.191440311831138, pvalue=0.00016050748069697596)</t>
   </si>
   <si>
@@ -3779,13 +3766,85 @@
   </si>
   <si>
     <t>96.966% (+/- 0.475%)</t>
+  </si>
+  <si>
+    <t>print(stats.ttest_rel(df['GSS'], df['IBRA-PLS']))</t>
+  </si>
+  <si>
+    <t>print(stats.ttest_rel(df['GSS'], df['IBRA-PCA']))</t>
+  </si>
+  <si>
+    <t>Ttest_relResult(statistic=6.087248284468714, pvalue=0.00018204134135099814)</t>
+  </si>
+  <si>
+    <t>Ttest_relResult(statistic=13.02573898755989, pvalue=3.817588446667033e-07)</t>
+  </si>
+  <si>
+    <t>Ttest_relResult(statistic=1.436615256874, pvalue=0.1846640595101753)</t>
+  </si>
+  <si>
+    <t>Ttest_relResult(statistic=6.686082129695385, pvalue=8.99524376486704e-05)</t>
+  </si>
+  <si>
+    <t>Ttest_relResult(statistic=-3.069339661543422, pvalue=0.013368254622539802)</t>
+  </si>
+  <si>
+    <t>Ttest_relResult(statistic=-2.188243571416213, pvalue=0.056411525932426224)</t>
+  </si>
+  <si>
+    <t>Differences</t>
+  </si>
+  <si>
+    <t>Independent</t>
+  </si>
+  <si>
+    <t>Equal variance</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>1-tail</t>
+  </si>
+  <si>
+    <t>2-tail</t>
+  </si>
+  <si>
+    <t>t-value</t>
+  </si>
+  <si>
+    <t>D.F.</t>
+  </si>
+  <si>
+    <t>n-1</t>
+  </si>
+  <si>
+    <t>2n-2</t>
+  </si>
+  <si>
+    <t>Unequal variance</t>
+  </si>
+  <si>
+    <t>Ex:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method 1: GSS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paired </t>
+  </si>
+  <si>
+    <t>Paired / Permuted</t>
+  </si>
+  <si>
+    <t>Method 2: IBRA + PLS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3829,6 +3888,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3838,7 +3924,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3861,12 +3947,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3910,6 +4042,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3928,6 +4071,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4308,23 +4474,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>32616</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>32349</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1543921</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9180</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1501140</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57631</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B188B25A-AE68-4087-AB75-A6B1CBC875F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40388F79-4635-4E86-A1C0-D9AD5BC108BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4332,15 +4498,122 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="7773" t="10783" r="9416" b="5892"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32616" y="2970180"/>
-          <a:ext cx="3026124" cy="2363819"/>
+          <a:off x="16024860" y="3530030"/>
+          <a:ext cx="1394460" cy="1282481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{916E341F-8F95-42CC-9B0A-943E932480C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16230600" y="3116580"/>
+          <a:ext cx="1059180" cy="462581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1574166</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>145052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7941783-2445-4B52-B3C1-9A23B75B1561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16322040" y="5692140"/>
+          <a:ext cx="1558926" cy="1402352"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4352,22 +4625,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>29306</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>13882</xdr:rowOff>
+      <xdr:colOff>13854</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>166255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1559246</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>107461</xdr:rowOff>
+      <xdr:colOff>1527127</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D047C57-DD70-4E8D-9700-1641563992F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A943FCDC-25A9-482D-8CE3-BAC6410DB45C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4375,15 +4648,272 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="7665" t="10929" r="9332" b="5982"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29306" y="5767959"/>
-          <a:ext cx="3044171" cy="2320964"/>
+          <a:off x="13854" y="4308764"/>
+          <a:ext cx="3023418" cy="2285999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1532962</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>88424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003643A8-1114-43FD-8467-31EF9C8DAC58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8583705"/>
+          <a:ext cx="3045756" cy="2262366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B13B82C-4F27-4C1A-AEDA-49084655E375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17457420" y="3299460"/>
+          <a:ext cx="1059180" cy="462581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>98213</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1575878</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>109057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C301F7A-01EA-40F2-90EA-417AA43AFD0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22295273" y="6383336"/>
+          <a:ext cx="1477665" cy="675161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>557059</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>164997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>200860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>18078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A5E79B-AC45-4FB2-A3AE-8E463F71741E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27306946" y="164997"/>
+          <a:ext cx="3902398" cy="2434049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>144926</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>27653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304520</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416B90C5-5D69-4102-ACB8-6E0D9FED5493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23982007" y="212008"/>
+          <a:ext cx="3410384" cy="2609543"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4395,22 +4925,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>20964</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>24424</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1508586</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16495</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43BE92DE-530A-4211-BD69-B5181B3B58BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71AF0923-67FB-4B7A-8B2B-F0D467D60E0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4418,15 +4948,22 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="5891" t="11503" r="9742" b="6483"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8000797" y="5601841"/>
-          <a:ext cx="3043372" cy="2113409"/>
+          <a:off x="7978588" y="8247529"/>
+          <a:ext cx="3109319" cy="2330824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4438,22 +4975,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>5729</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>17189</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1506812</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>768</xdr:rowOff>
+      <xdr:colOff>1508259</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6689D86-C29E-4C87-8A1D-A85957AC1F73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D22FFB3-7EF5-4CCA-8B77-78866D2081D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4461,15 +4998,22 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect l="7488" t="11021" r="9219" b="5856"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7992406" y="2950603"/>
-          <a:ext cx="3053729" cy="2365068"/>
+          <a:off x="7978588" y="4303059"/>
+          <a:ext cx="3065877" cy="2364441"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5414,19 +5958,19 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E8" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="F8" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="G8" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="H8" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
@@ -5665,10 +6209,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="24"/>
       <c r="D19" t="s">
         <v>333</v>
       </c>
@@ -5904,21 +6448,21 @@
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C16" s="17"/>
+      <c r="B16" s="24" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C16" s="24"/>
       <c r="D16" s="8" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -6111,27 +6655,27 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="17" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C32" s="17"/>
+      <c r="B32" s="24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C32" s="24"/>
       <c r="D32" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="E32" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="F32" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="G32" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
@@ -6330,21 +6874,21 @@
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="17" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C48" s="17"/>
+      <c r="B48" s="24" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C48" s="24"/>
       <c r="D48" s="8" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
@@ -6352,7 +6896,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
@@ -6383,16 +6927,16 @@
         <v>272</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
@@ -6400,19 +6944,19 @@
         <v>11</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>1045</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
@@ -6423,16 +6967,16 @@
         <v>92</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
@@ -6443,16 +6987,16 @@
         <v>93</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
@@ -6463,16 +7007,16 @@
         <v>94</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
@@ -6483,16 +7027,16 @@
         <v>95</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
@@ -6503,16 +7047,16 @@
         <v>276</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
@@ -6523,41 +7067,41 @@
         <v>97</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="17" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C63" s="17"/>
+      <c r="B63" s="24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C63" s="24"/>
       <c r="D63" s="8" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -6599,24 +7143,24 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -6646,7 +7190,7 @@
       <c r="A6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="28" t="s">
         <v>338</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -6678,7 +7222,7 @@
       <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="9" t="s">
         <v>347</v>
       </c>
@@ -6708,7 +7252,7 @@
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="28" t="s">
         <v>339</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -6740,7 +7284,7 @@
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
         <v>363</v>
       </c>
@@ -6770,7 +7314,7 @@
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="26" t="s">
         <v>340</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -6802,7 +7346,7 @@
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="10" t="s">
         <v>371</v>
       </c>
@@ -6832,7 +7376,7 @@
       <c r="A12" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="26" t="s">
         <v>341</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -6864,7 +7408,7 @@
       <c r="A13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="9" t="s">
         <v>387</v>
       </c>
@@ -6894,7 +7438,7 @@
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="26" t="s">
         <v>342</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -6926,7 +7470,7 @@
       <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="11" t="s">
         <v>401</v>
       </c>
@@ -6953,7 +7497,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -6964,7 +7508,7 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -7154,10 +7698,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13495555-31D4-4576-9C86-E21C2334E536}">
-  <dimension ref="A2:K50"/>
+  <dimension ref="A2:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="132" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7171,9 +7715,17 @@
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
     <col min="9" max="9" width="20.88671875" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" customWidth="1"/>
+    <col min="13" max="13" width="23.109375" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
+    <col min="15" max="15" width="17.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
+    <col min="18" max="18" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -7181,25 +7733,25 @@
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -7224,12 +7776,24 @@
       <c r="J5" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L5" s="30" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>1259</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>1262</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="28" t="s">
         <v>338</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -7256,12 +7820,22 @@
       <c r="J6" s="10" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M6" s="19">
+        <v>95.742199309013301</v>
+      </c>
+      <c r="N6" s="19">
+        <v>96.5817599621694</v>
+      </c>
+      <c r="O6" s="19">
+        <f>(M6-N6)</f>
+        <v>-0.83956065315609862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="10" t="s">
         <v>960</v>
       </c>
@@ -7286,12 +7860,22 @@
       <c r="J7" s="9" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M7" s="19">
+        <v>96.371609697451007</v>
+      </c>
+      <c r="N7" s="19">
+        <v>96.876739085903097</v>
+      </c>
+      <c r="O7" s="19">
+        <f t="shared" ref="O7:O15" si="0">(M7-N7)</f>
+        <v>-0.50512938845209021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="28" t="s">
         <v>339</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -7318,12 +7902,22 @@
       <c r="J8" s="10" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M8" s="19">
+        <v>96.670660950843796</v>
+      </c>
+      <c r="N8" s="19">
+        <v>97.136956711201705</v>
+      </c>
+      <c r="O8" s="19">
+        <f t="shared" si="0"/>
+        <v>-0.46629576035790876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
         <v>972</v>
       </c>
@@ -7346,14 +7940,24 @@
         <v>682</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1106</v>
+      </c>
+      <c r="M9" s="19">
+        <v>96.613817011265894</v>
+      </c>
+      <c r="N9" s="19">
+        <v>96.242098838626703</v>
+      </c>
+      <c r="O9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.37171817263919138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="26" t="s">
         <v>340</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -7380,12 +7984,22 @@
       <c r="J10" s="9" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M10" s="19">
+        <v>97.249569963185905</v>
+      </c>
+      <c r="N10" s="19">
+        <v>97.344906441106801</v>
+      </c>
+      <c r="O10" s="19">
+        <f t="shared" si="0"/>
+        <v>-9.5336477920895391E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="10" t="s">
         <v>615</v>
       </c>
@@ -7410,12 +8024,22 @@
       <c r="J11" s="10" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M11" s="19">
+        <v>96.409990045308504</v>
+      </c>
+      <c r="N11" s="19">
+        <v>97.351756633893501</v>
+      </c>
+      <c r="O11" s="19">
+        <f t="shared" si="0"/>
+        <v>-0.94176658858499707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="26" t="s">
         <v>341</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -7442,12 +8066,22 @@
       <c r="J12" s="9" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M12" s="19">
+        <v>96.830539162803504</v>
+      </c>
+      <c r="N12" s="19">
+        <v>97.9423517540733</v>
+      </c>
+      <c r="O12" s="19">
+        <f t="shared" si="0"/>
+        <v>-1.1118125912697963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="9" t="s">
         <v>607</v>
       </c>
@@ -7472,12 +8106,22 @@
       <c r="J13" s="9" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M13" s="19">
+        <v>96.690528302853906</v>
+      </c>
+      <c r="N13" s="19">
+        <v>96.444953485322202</v>
+      </c>
+      <c r="O13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24557481753170407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="26" t="s">
         <v>342</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -7504,12 +8148,22 @@
       <c r="J14" s="11" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M14" s="19">
+        <v>95.784656198114007</v>
+      </c>
+      <c r="N14" s="19">
+        <v>96.809902530602599</v>
+      </c>
+      <c r="O14" s="19">
+        <f t="shared" si="0"/>
+        <v>-1.0252463324885923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="11" t="s">
         <v>748</v>
       </c>
@@ -7534,359 +8188,737 @@
       <c r="J15" s="10" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M15" s="19">
+        <v>96.174063442338095</v>
+      </c>
+      <c r="N15" s="19">
+        <v>96.924503057177205</v>
+      </c>
+      <c r="O15" s="19">
+        <f t="shared" si="0"/>
+        <v>-0.75043961483910948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>1111</v>
+      <c r="B16" s="26" t="s">
+        <v>1107</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>1143</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>1144</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>1145</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>1148</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26" t="s">
+        <v>1253</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>1250</v>
+      </c>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26" t="s">
+        <v>1254</v>
+      </c>
+      <c r="R17" s="36"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>1178</v>
+      <c r="B18" s="26" t="s">
+        <v>1174</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1234</v>
+      </c>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="18" t="s">
+        <v>1251</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>1252</v>
+      </c>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="36"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="26" t="s">
+        <v>1260</v>
+      </c>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26">
+        <f>AVERAGE(O6:O15)/(_xlfn.STDEV.S(O6:O15)/SQRT(10))</f>
+        <v>-3.0693396615435296</v>
+      </c>
+      <c r="O19" s="26">
+        <v>6.6800000000000002E-3</v>
+      </c>
+      <c r="P19" s="26">
+        <v>1.336E-2</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R19" s="35"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
         <v>399</v>
       </c>
       <c r="B20" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C20">
         <v>93.42</v>
       </c>
       <c r="F20" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="G20">
         <v>99.81</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="35"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
       <c r="B21" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C21">
         <v>92.99</v>
       </c>
       <c r="F21" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="G21">
         <v>99.67</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="K21" s="20"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="35"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
         <v>400</v>
       </c>
       <c r="B22" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C22">
         <v>98.53</v>
       </c>
       <c r="F22" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="G22">
         <v>99.88</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="26" t="s">
+        <v>1261</v>
+      </c>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26">
+        <v>9.765625E-3</v>
+      </c>
+      <c r="P22" s="26">
+        <v>1.953125E-2</v>
+      </c>
+      <c r="Q22" s="26"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
       <c r="B23" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C23">
         <v>98.49</v>
       </c>
       <c r="F23" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="G23">
         <v>99.88</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L24" s="18" t="s">
+        <v>1248</v>
+      </c>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D25" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="17" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
+      <c r="L25" s="26" t="s">
+        <v>1249</v>
+      </c>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26">
+        <f>(AVERAGE(M6:M15)-AVERAGE(N6:N15))/(SQRT((POWER(_xlfn.STDEV.S(M6:M15),2)+POWER(_xlfn.STDEV.S(N6:N15),2))/2) * SQRT(2/10))</f>
+        <v>-2.3701574213304011</v>
+      </c>
+      <c r="O25" s="26">
+        <v>1.4579999999999999E-2</v>
+      </c>
+      <c r="P25" s="26">
+        <v>2.9149999999999999E-2</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="32"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D27" s="17" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="32"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D28" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="32"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D29" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I29" s="17" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="32"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D30" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I30" s="17" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
+      <c r="K30" s="12"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="32"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D31" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I31" s="17" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
+      <c r="K31" s="12"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="32"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D32" s="17" t="s">
         <v>416</v>
-      </c>
-      <c r="I30" t="s">
-        <v>416</v>
-      </c>
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D32" s="12" t="s">
-        <v>976</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="I32" t="s">
-        <v>988</v>
+      <c r="I32" s="17" t="s">
+        <v>416</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D33" s="12" t="s">
-        <v>977</v>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="33"/>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D33" s="17" t="s">
+        <v>1241</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="I33" t="s">
-        <v>989</v>
-      </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D34" s="12" t="s">
-        <v>978</v>
+      <c r="I33" s="21" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="26" t="s">
+        <v>1257</v>
+      </c>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26">
+        <f>(AVERAGE(M6:M15)-AVERAGE(N6:N15))/(SQRT((POWER(_xlfn.STDEV.S(M6:M15),2)+POWER(_xlfn.STDEV.S(N6:N15),2))/10))</f>
+        <v>-2.3701574213304006</v>
+      </c>
+      <c r="O33" s="26">
+        <f>0.02922/2</f>
+        <v>1.461E-2</v>
+      </c>
+      <c r="P33" s="34">
+        <v>2.9219999999999999E-2</v>
+      </c>
+      <c r="Q33" s="26"/>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D34" s="17" t="s">
+        <v>1242</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="I34" t="s">
-        <v>990</v>
+      <c r="I34" s="17" t="s">
+        <v>1244</v>
       </c>
       <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D35" s="12" t="s">
-        <v>979</v>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="26"/>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D35" s="17" t="s">
+        <v>976</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="I35" t="s">
-        <v>991</v>
+      <c r="I35" s="17" t="s">
+        <v>984</v>
       </c>
       <c r="J35" s="12"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="26"/>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D36" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>985</v>
+      </c>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="26"/>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D37" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>986</v>
+      </c>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="26"/>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D38" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>987</v>
+      </c>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="26"/>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D39" s="17"/>
+      <c r="I39" s="22">
+        <v>0.18379999999999999</v>
+      </c>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="26"/>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>1.8E-3</v>
+      </c>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="26"/>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="26"/>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D47" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I47" s="17" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
+    <row r="48" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D48" s="17"/>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D49" s="17" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D50" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D51" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I51" s="17" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D52" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I52" s="17" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D53" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I53" s="17" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
+    <row r="54" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D54" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I54" s="17" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
+    <row r="55" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D55" s="17" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I55" s="37" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J55" s="38"/>
+      <c r="K55" s="22"/>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D56" s="17" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I56" s="21" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D57" s="17" t="s">
+        <v>976</v>
+      </c>
+      <c r="I57" s="17" t="s">
         <v>980</v>
       </c>
-      <c r="I47" s="12" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D48" t="s">
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D58" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="I58" s="17" t="s">
         <v>981</v>
       </c>
-      <c r="I48" s="12" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D59" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="I59" s="17" t="s">
         <v>982</v>
       </c>
-      <c r="I49" s="12" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D60" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="I60" s="17" t="s">
         <v>983</v>
       </c>
-      <c r="I50" s="12" t="s">
-        <v>987</v>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>5.91E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>2.5999999999999999E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="44">
+    <mergeCell ref="Q33:Q41"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="L33:L41"/>
+    <mergeCell ref="M33:M41"/>
+    <mergeCell ref="N33:N41"/>
+    <mergeCell ref="O33:O41"/>
+    <mergeCell ref="P33:P41"/>
+    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="L25:L32"/>
+    <mergeCell ref="M25:M32"/>
+    <mergeCell ref="N25:N32"/>
+    <mergeCell ref="O25:O32"/>
+    <mergeCell ref="P25:P32"/>
+    <mergeCell ref="Q25:Q32"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="G4:J4"/>
@@ -7899,6 +8931,11 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="L17:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7936,24 +8973,24 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -7983,7 +9020,7 @@
       <c r="A6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="28" t="s">
         <v>338</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -8015,7 +9052,7 @@
       <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="9" t="s">
         <v>632</v>
       </c>
@@ -8045,7 +9082,7 @@
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="28" t="s">
         <v>339</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -8077,7 +9114,7 @@
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
         <v>640</v>
       </c>
@@ -8107,7 +9144,7 @@
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="26" t="s">
         <v>340</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -8139,7 +9176,7 @@
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="10" t="s">
         <v>624</v>
       </c>
@@ -8169,7 +9206,7 @@
       <c r="A12" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="26" t="s">
         <v>341</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -8201,7 +9238,7 @@
       <c r="A13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="9" t="s">
         <v>648</v>
       </c>
@@ -8231,7 +9268,7 @@
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="26" t="s">
         <v>342</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -8263,7 +9300,7 @@
       <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="11" t="s">
         <v>752</v>
       </c>
@@ -8277,140 +9314,140 @@
         <v>755</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>1111</v>
+      <c r="B16" s="26" t="s">
+        <v>1107</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>1178</v>
+      <c r="B18" s="26" t="s">
+        <v>1174</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -8459,47 +9496,47 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="12" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="I29" s="12" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="12" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="I30" s="12" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="12" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="I31" s="12" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="12" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="I32" s="12" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="J32" s="12"/>
     </row>
@@ -8545,34 +9582,34 @@
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="I44" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="I45" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="I46" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="I47" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -8624,24 +9661,24 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -8671,7 +9708,7 @@
       <c r="A6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="28" t="s">
         <v>338</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -8703,7 +9740,7 @@
       <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="9" t="s">
         <v>802</v>
       </c>
@@ -8733,7 +9770,7 @@
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="28" t="s">
         <v>339</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -8765,7 +9802,7 @@
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
         <v>826</v>
       </c>
@@ -8795,7 +9832,7 @@
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="26" t="s">
         <v>340</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -8827,7 +9864,7 @@
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="10" t="s">
         <v>842</v>
       </c>
@@ -8857,7 +9894,7 @@
       <c r="A12" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="26" t="s">
         <v>341</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -8889,7 +9926,7 @@
       <c r="A13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="9" t="s">
         <v>778</v>
       </c>
@@ -8919,7 +9956,7 @@
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="26" t="s">
         <v>342</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -8951,7 +9988,7 @@
       <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="11" t="s">
         <v>756</v>
       </c>
@@ -8965,140 +10002,140 @@
         <v>759</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>1111</v>
+      <c r="B16" s="26" t="s">
+        <v>1107</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>1178</v>
+      <c r="B18" s="26" t="s">
+        <v>1174</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -9147,47 +10184,47 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="12" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="I29" s="12" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="12" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="I30" s="12" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="12" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="I31" s="12" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="12" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="I32" s="12" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="J32" s="12"/>
     </row>
@@ -9233,34 +10270,34 @@
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="I44" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="I45" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="I46" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I47" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
@@ -9312,24 +10349,24 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -9359,7 +10396,7 @@
       <c r="A6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="28" t="s">
         <v>338</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -9391,7 +10428,7 @@
       <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="9" t="s">
         <v>810</v>
       </c>
@@ -9421,7 +10458,7 @@
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="28" t="s">
         <v>339</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -9453,7 +10490,7 @@
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
         <v>834</v>
       </c>
@@ -9483,7 +10520,7 @@
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="26" t="s">
         <v>340</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -9515,7 +10552,7 @@
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="10" t="s">
         <v>850</v>
       </c>
@@ -9545,7 +10582,7 @@
       <c r="A12" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="26" t="s">
         <v>341</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -9577,7 +10614,7 @@
       <c r="A13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="9" t="s">
         <v>786</v>
       </c>
@@ -9607,7 +10644,7 @@
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="26" t="s">
         <v>342</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -9623,23 +10660,23 @@
         <v>577</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="11" t="s">
         <v>872</v>
       </c>
@@ -9653,140 +10690,140 @@
         <v>875</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="26" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>1111</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>1115</v>
-      </c>
       <c r="G16" s="10" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>1178</v>
+      <c r="B18" s="26" t="s">
+        <v>1174</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -9835,47 +10872,47 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="12" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="I29" s="12" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="12" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="I30" s="12" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="12" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="I31" s="12" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="12" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="I32" s="12" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="J32" s="12"/>
     </row>
@@ -9921,34 +10958,34 @@
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="I44" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="I45" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="I46" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="I47" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -10183,10 +11220,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="24"/>
       <c r="D18" t="s">
         <v>212</v>
       </c>
@@ -10422,10 +11459,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="24"/>
       <c r="D18" t="s">
         <v>226</v>
       </c>
@@ -10660,10 +11697,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10887,10 +11924,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="24"/>
       <c r="D18" t="s">
         <v>234</v>
       </c>
@@ -11130,10 +12167,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="24"/>
       <c r="D18" t="s">
         <v>598</v>
       </c>
@@ -11343,10 +12380,10 @@
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="24"/>
       <c r="D36" t="s">
         <v>736</v>
       </c>
@@ -11556,10 +12593,10 @@
       <c r="D53" s="6"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C54" s="18"/>
+      <c r="C54" s="25"/>
       <c r="D54" t="s">
         <v>744</v>
       </c>
@@ -11769,10 +12806,10 @@
       <c r="D71" s="6"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C72" s="17"/>
+      <c r="C72" s="24"/>
       <c r="D72" t="s">
         <v>740</v>
       </c>
@@ -12010,10 +13047,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="24"/>
       <c r="D18" t="s">
         <v>230</v>
       </c>
@@ -12249,10 +13286,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="24"/>
       <c r="D19" t="s">
         <v>219</v>
       </c>
@@ -12488,8 +13525,8 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Kochia/results/Summary.xlsx
+++ b/Kochia/results/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w63x712\Documents\Machine_Learning\HSI_selection2\Kochia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB97F38-6124-41DF-AB3A-E9059D1CE2DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2160F20C-5FE2-42E5-ABFC-9E84DA15DB29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="662" firstSheet="7" activeTab="12" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="662" firstSheet="11" activeTab="15" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="150 bands" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="1280">
   <si>
     <t>150 bands</t>
   </si>
@@ -3838,6 +3838,57 @@
   </si>
   <si>
     <t>Method 2: IBRA + PLS</t>
+  </si>
+  <si>
+    <t>94.078% (+/- 0.461%)</t>
+  </si>
+  <si>
+    <t>94.464% (+/- 0.512%)</t>
+  </si>
+  <si>
+    <t>94.236% (+/- 0.412%)</t>
+  </si>
+  <si>
+    <t>94.338% (+/- 0.446%)</t>
+  </si>
+  <si>
+    <t>92.727% (+/- 0.537%)</t>
+  </si>
+  <si>
+    <t>93.284% (+/- 0.455%)</t>
+  </si>
+  <si>
+    <t>92.962% (+/- 0.563%)</t>
+  </si>
+  <si>
+    <t>93.111% (+/- 0.494%)</t>
+  </si>
+  <si>
+    <t>89.791% (+/- 1.144%)</t>
+  </si>
+  <si>
+    <t>90.692% (+/- 1.368%)</t>
+  </si>
+  <si>
+    <t>89.912% (+/- 0.992%)</t>
+  </si>
+  <si>
+    <t>90.235% (+/- 1.132%)</t>
+  </si>
+  <si>
+    <t>91.438% (+/- 0.909%)</t>
+  </si>
+  <si>
+    <t>92.212% (+/- 1.010%)</t>
+  </si>
+  <si>
+    <t>91.415% (+/- 1.009%)</t>
+  </si>
+  <si>
+    <t>91.761% (+/- 0.965%)</t>
+  </si>
+  <si>
+    <t>SR-SSIM</t>
   </si>
 </sst>
 </file>
@@ -3916,12 +3967,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -3998,7 +4055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4053,6 +4110,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4071,6 +4154,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4083,17 +4172,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4476,14 +4560,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>55310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1501140</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57631</xdr:rowOff>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>53821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4526,14 +4610,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104441</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4576,14 +4660,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1574166</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>145052</xdr:rowOff>
+      <xdr:colOff>1577976</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>143147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4626,13 +4710,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>13854</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>166255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1527127</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>110836</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4676,14 +4760,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1532962</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>88424</xdr:rowOff>
+      <xdr:colOff>1534867</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>92234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4726,14 +4810,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104441</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4776,14 +4860,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>98213</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>165416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1575878</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>109057</xdr:rowOff>
+      <xdr:colOff>1579688</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107152</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4831,9 +4915,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>200860</xdr:colOff>
+      <xdr:colOff>202765</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>18078</xdr:rowOff>
+      <xdr:rowOff>21888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4883,7 +4967,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>304520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>56228</xdr:rowOff>
+      <xdr:rowOff>60038</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4926,13 +5010,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>16495</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:colOff>20305</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4976,14 +5060,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1508259</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:colOff>1504449</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>31713</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5031,14 +5115,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>69273</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>43676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1541309</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:colOff>1545119</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>134736</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5074,13 +5158,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>39924</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>14362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1553308</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:colOff>1545688</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>154008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5117,14 +5201,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>24823</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1519468</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>103910</xdr:rowOff>
+      <xdr:colOff>1508038</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>94385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5160,14 +5244,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>36320</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>26797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1498524</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>88446</xdr:rowOff>
+      <xdr:colOff>1502334</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>92257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5208,14 +5292,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>16149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4324</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>125950</xdr:rowOff>
+      <xdr:colOff>19564</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133570</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5251,14 +5335,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>48127</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1544628</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>120315</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>129840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5294,14 +5378,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>23924</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>5918</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>124047</xdr:rowOff>
+      <xdr:colOff>15443</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>129762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5337,14 +5421,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>17214</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>56439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1522045</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>141610</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>135895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5385,13 +5469,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>48172</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>10615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1525844</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>150812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5428,14 +5512,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>27353</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>30146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1553307</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>138865</xdr:rowOff>
+      <xdr:colOff>1545687</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>135055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5471,13 +5555,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>41088</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>17432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>2578</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5514,14 +5598,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>48824</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>6691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1503305</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>132907</xdr:rowOff>
+      <xdr:colOff>1507115</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>136717</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6209,10 +6293,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="34"/>
       <c r="D19" t="s">
         <v>333</v>
       </c>
@@ -6448,10 +6532,10 @@
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="34" t="s">
         <v>1070</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="8" t="s">
         <v>1075</v>
       </c>
@@ -6661,10 +6745,10 @@
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="34" t="s">
         <v>1092</v>
       </c>
-      <c r="C32" s="24"/>
+      <c r="C32" s="34"/>
       <c r="D32" t="s">
         <v>1088</v>
       </c>
@@ -6874,10 +6958,10 @@
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="34" t="s">
         <v>1070</v>
       </c>
-      <c r="C48" s="24"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="8" t="s">
         <v>1093</v>
       </c>
@@ -7087,10 +7171,10 @@
       <c r="D62" s="6"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="34" t="s">
         <v>1092</v>
       </c>
-      <c r="C63" s="24"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="8" t="s">
         <v>1097</v>
       </c>
@@ -7143,24 +7227,24 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -7190,7 +7274,7 @@
       <c r="A6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="38" t="s">
         <v>338</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -7222,7 +7306,7 @@
       <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="9" t="s">
         <v>347</v>
       </c>
@@ -7252,7 +7336,7 @@
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="38" t="s">
         <v>339</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -7284,7 +7368,7 @@
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="9" t="s">
         <v>363</v>
       </c>
@@ -7314,7 +7398,7 @@
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="36" t="s">
         <v>340</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -7346,7 +7430,7 @@
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="10" t="s">
         <v>371</v>
       </c>
@@ -7376,7 +7460,7 @@
       <c r="A12" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="36" t="s">
         <v>341</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -7408,7 +7492,7 @@
       <c r="A13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="9" t="s">
         <v>387</v>
       </c>
@@ -7438,7 +7522,7 @@
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="36" t="s">
         <v>342</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -7470,7 +7554,7 @@
       <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="26"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="11" t="s">
         <v>401</v>
       </c>
@@ -7497,7 +7581,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -7508,7 +7592,7 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -7698,10 +7782,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13495555-31D4-4576-9C86-E21C2334E536}">
-  <dimension ref="A2:R65"/>
+  <dimension ref="A2:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="132" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7734,24 +7818,24 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -7776,7 +7860,7 @@
       <c r="J5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="25" t="s">
         <v>1258</v>
       </c>
       <c r="M5" s="19" t="s">
@@ -7793,7 +7877,7 @@
       <c r="A6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="38" t="s">
         <v>338</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -7835,7 +7919,7 @@
       <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="10" t="s">
         <v>960</v>
       </c>
@@ -7867,7 +7951,7 @@
         <v>96.876739085903097</v>
       </c>
       <c r="O7" s="19">
-        <f t="shared" ref="O7:O15" si="0">(M7-N7)</f>
+        <f t="shared" ref="O7:O17" si="0">(M7-N7)</f>
         <v>-0.50512938845209021</v>
       </c>
     </row>
@@ -7875,1067 +7959,1104 @@
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>968</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>969</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>970</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>971</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>677</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="M8" s="19">
-        <v>96.670660950843796</v>
-      </c>
-      <c r="N8" s="19">
-        <v>97.136956711201705</v>
-      </c>
-      <c r="O8" s="19">
-        <f t="shared" si="0"/>
-        <v>-0.46629576035790876</v>
-      </c>
+      <c r="B8" s="46" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="9" t="s">
-        <v>972</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>973</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>974</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>975</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>1106</v>
-      </c>
-      <c r="M9" s="19">
-        <v>96.613817011265894</v>
-      </c>
-      <c r="N9" s="19">
-        <v>96.242098838626703</v>
-      </c>
-      <c r="O9" s="19">
-        <f t="shared" si="0"/>
-        <v>0.37171817263919138</v>
-      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>694</v>
+      <c r="B10" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>679</v>
       </c>
       <c r="M10" s="19">
-        <v>97.249569963185905</v>
+        <v>96.670660950843796</v>
       </c>
       <c r="N10" s="19">
-        <v>97.344906441106801</v>
+        <v>97.136956711201705</v>
       </c>
       <c r="O10" s="19">
         <f t="shared" si="0"/>
-        <v>-9.5336477920895391E-2</v>
+        <v>-0.46629576035790876</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>698</v>
+      <c r="B11" s="38"/>
+      <c r="C11" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>1106</v>
       </c>
       <c r="M11" s="19">
-        <v>96.409990045308504</v>
+        <v>96.613817011265894</v>
       </c>
       <c r="N11" s="19">
-        <v>97.351756633893501</v>
+        <v>96.242098838626703</v>
       </c>
       <c r="O11" s="19">
         <f t="shared" si="0"/>
-        <v>-0.94176658858499707</v>
+        <v>0.37171817263919138</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>341</v>
+      <c r="B12" s="36" t="s">
+        <v>340</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>864</v>
+        <v>691</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>865</v>
+        <v>692</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>866</v>
+        <v>693</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>867</v>
+        <v>694</v>
       </c>
       <c r="M12" s="19">
-        <v>96.830539162803504</v>
+        <v>97.249569963185905</v>
       </c>
       <c r="N12" s="19">
-        <v>97.9423517540733</v>
+        <v>97.344906441106801</v>
       </c>
       <c r="O12" s="19">
         <f t="shared" si="0"/>
-        <v>-1.1118125912697963</v>
+        <v>-9.5336477920895391E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>868</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>869</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>870</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>871</v>
+      <c r="B13" s="36"/>
+      <c r="C13" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>698</v>
       </c>
       <c r="M13" s="19">
-        <v>96.690528302853906</v>
+        <v>96.409990045308504</v>
       </c>
       <c r="N13" s="19">
-        <v>96.444953485322202</v>
+        <v>97.351756633893501</v>
       </c>
       <c r="O13" s="19">
         <f t="shared" si="0"/>
-        <v>0.24557481753170407</v>
+        <v>-0.94176658858499707</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>878</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>880</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>881</v>
+      <c r="B14" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>867</v>
       </c>
       <c r="M14" s="19">
-        <v>95.784656198114007</v>
+        <v>96.830539162803504</v>
       </c>
       <c r="N14" s="19">
-        <v>96.809902530602599</v>
+        <v>97.9423517540733</v>
       </c>
       <c r="O14" s="19">
         <f t="shared" si="0"/>
-        <v>-1.0252463324885923</v>
+        <v>-1.1118125912697963</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>749</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>751</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>952</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>953</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>954</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>955</v>
+      <c r="B15" s="36"/>
+      <c r="C15" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>871</v>
       </c>
       <c r="M15" s="19">
-        <v>96.174063442338095</v>
+        <v>96.690528302853906</v>
       </c>
       <c r="N15" s="19">
-        <v>96.924503057177205</v>
+        <v>96.444953485322202</v>
       </c>
       <c r="O15" s="19">
         <f t="shared" si="0"/>
-        <v>-0.75043961483910948</v>
+        <v>0.24557481753170407</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>1135</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>1148</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>1149</v>
+      <c r="B16" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="M16" s="19">
+        <v>95.784656198114007</v>
+      </c>
+      <c r="N16" s="19">
+        <v>96.809902530602599</v>
+      </c>
+      <c r="O16" s="19">
+        <f t="shared" si="0"/>
+        <v>-1.0252463324885923</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="10" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>1141</v>
+      <c r="B17" s="36"/>
+      <c r="C17" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>751</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>1142</v>
+        <v>952</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>1143</v>
+        <v>953</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>1144</v>
+        <v>954</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>1145</v>
-      </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26" t="s">
-        <v>1253</v>
-      </c>
-      <c r="O17" s="26" t="s">
-        <v>1250</v>
-      </c>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26" t="s">
-        <v>1254</v>
-      </c>
-      <c r="R17" s="36"/>
+        <v>955</v>
+      </c>
+      <c r="M17" s="19">
+        <v>96.174063442338095</v>
+      </c>
+      <c r="N17" s="19">
+        <v>96.924503057177205</v>
+      </c>
+      <c r="O17" s="19">
+        <f t="shared" si="0"/>
+        <v>-0.75043961483910948</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>1174</v>
+      <c r="B18" s="36" t="s">
+        <v>1107</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1179</v>
+        <v>1132</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1180</v>
+        <v>1133</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>1181</v>
+        <v>1134</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>1182</v>
+        <v>1135</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>1231</v>
+        <v>1146</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>1232</v>
+        <v>1147</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>1233</v>
+        <v>1148</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>1234</v>
-      </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="18" t="s">
-        <v>1251</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>1252</v>
-      </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="36"/>
+        <v>1149</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36" t="s">
+        <v>1253</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>1250</v>
+      </c>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36" t="s">
+        <v>1254</v>
+      </c>
+      <c r="R19" s="41"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="18" t="s">
+        <v>1251</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>1252</v>
+      </c>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="41"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="10" t="s">
         <v>1175</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>1176</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>1177</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>1178</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G21" s="11" t="s">
         <v>1235</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>1236</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>1237</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>1238</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="26" t="s">
+      <c r="K21" s="20"/>
+      <c r="L21" s="36" t="s">
         <v>1260</v>
       </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26">
-        <f>AVERAGE(O6:O15)/(_xlfn.STDEV.S(O6:O15)/SQRT(10))</f>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36">
+        <f>AVERAGE(O6:O17)/(_xlfn.STDEV.S(O6:O17)/SQRT(10))</f>
         <v>-3.0693396615435296</v>
       </c>
-      <c r="O19" s="26">
+      <c r="O21" s="36">
         <v>6.6800000000000002E-3</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P21" s="36">
         <v>1.336E-2</v>
       </c>
-      <c r="Q19" s="26" t="s">
+      <c r="Q21" s="36" t="s">
         <v>1255</v>
       </c>
-      <c r="R19" s="35"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="R21" s="42"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
         <v>399</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C20">
-        <v>93.42</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G20">
-        <v>99.81</v>
-      </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="35"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C21">
-        <v>92.99</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1137</v>
-      </c>
-      <c r="G21">
-        <v>99.67</v>
-      </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="35"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>400</v>
       </c>
       <c r="B22" t="s">
         <v>1136</v>
       </c>
       <c r="C22">
-        <v>98.53</v>
+        <v>93.42</v>
       </c>
       <c r="F22" t="s">
         <v>1136</v>
       </c>
       <c r="G22">
-        <v>99.88</v>
+        <v>99.81</v>
       </c>
       <c r="K22" s="20"/>
-      <c r="L22" s="26" t="s">
-        <v>1261</v>
-      </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26">
-        <v>9.765625E-3</v>
-      </c>
-      <c r="P22" s="26">
-        <v>1.953125E-2</v>
-      </c>
-      <c r="Q22" s="26"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="42"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="39"/>
       <c r="B23" t="s">
         <v>1137</v>
       </c>
       <c r="C23">
-        <v>98.49</v>
+        <v>92.99</v>
       </c>
       <c r="F23" t="s">
         <v>1137</v>
       </c>
       <c r="G23">
+        <v>99.67</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="42"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C24">
+        <v>98.53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G24">
         <v>99.88</v>
       </c>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L24" s="18" t="s">
+      <c r="K24" s="20"/>
+      <c r="L24" s="36" t="s">
+        <v>1261</v>
+      </c>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36">
+        <v>9.765625E-3</v>
+      </c>
+      <c r="P24" s="36">
+        <v>1.953125E-2</v>
+      </c>
+      <c r="Q24" s="36"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="39"/>
+      <c r="B25" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C25">
+        <v>98.49</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G25">
+        <v>99.88</v>
+      </c>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L26" s="18" t="s">
         <v>1248</v>
       </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D25" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="L25" s="26" t="s">
-        <v>1249</v>
-      </c>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26">
-        <f>(AVERAGE(M6:M15)-AVERAGE(N6:N15))/(SQRT((POWER(_xlfn.STDEV.S(M6:M15),2)+POWER(_xlfn.STDEV.S(N6:N15),2))/2) * SQRT(2/10))</f>
-        <v>-2.3701574213304011</v>
-      </c>
-      <c r="O25" s="26">
-        <v>1.4579999999999999E-2</v>
-      </c>
-      <c r="P25" s="26">
-        <v>2.9149999999999999E-2</v>
-      </c>
-      <c r="Q25" s="31" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="32"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D27" s="17" t="s">
-        <v>1239</v>
+        <v>420</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>1239</v>
-      </c>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="32"/>
+        <v>421</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>1249</v>
+      </c>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36">
+        <f>(AVERAGE(M6:M17)-AVERAGE(N6:N17))/(SQRT((POWER(_xlfn.STDEV.S(M6:M17),2)+POWER(_xlfn.STDEV.S(N6:N17),2))/2) * SQRT(2/10))</f>
+        <v>-2.3701574213304011</v>
+      </c>
+      <c r="O27" s="36">
+        <v>1.4579999999999999E-2</v>
+      </c>
+      <c r="P27" s="36">
+        <v>2.9149999999999999E-2</v>
+      </c>
+      <c r="Q27" s="43" t="s">
+        <v>1256</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D28" s="17" t="s">
-        <v>1240</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>1240</v>
-      </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="32"/>
+      <c r="D28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="44"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D29" s="17" t="s">
-        <v>413</v>
+        <v>1239</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="32"/>
+        <v>1239</v>
+      </c>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="44"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D30" s="17" t="s">
-        <v>414</v>
+        <v>1240</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="32"/>
+        <v>1240</v>
+      </c>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="44"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D31" s="17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="32"/>
+        <v>413</v>
+      </c>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="44"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D32" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+        <v>414</v>
+      </c>
       <c r="I32" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="J32" s="12"/>
+        <v>414</v>
+      </c>
       <c r="K32" s="12"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="33"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="44"/>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D33" s="17" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="I33" s="21" t="s">
-        <v>1243</v>
-      </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="26" t="s">
-        <v>1257</v>
-      </c>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26">
-        <f>(AVERAGE(M6:M15)-AVERAGE(N6:N15))/(SQRT((POWER(_xlfn.STDEV.S(M6:M15),2)+POWER(_xlfn.STDEV.S(N6:N15),2))/10))</f>
-        <v>-2.3701574213304006</v>
-      </c>
-      <c r="O33" s="26">
-        <f>0.02922/2</f>
-        <v>1.461E-2</v>
-      </c>
-      <c r="P33" s="34">
-        <v>2.9219999999999999E-2</v>
-      </c>
-      <c r="Q33" s="26"/>
+        <v>415</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="44"/>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D34" s="17" t="s">
-        <v>1242</v>
+        <v>416</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="I34" s="17" t="s">
-        <v>1244</v>
+        <v>416</v>
       </c>
       <c r="J34" s="12"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="26"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="45"/>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D35" s="17" t="s">
-        <v>976</v>
+        <v>1241</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="I35" s="17" t="s">
-        <v>984</v>
-      </c>
-      <c r="J35" s="12"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="26"/>
+      <c r="I35" s="21" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="36" t="s">
+        <v>1257</v>
+      </c>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36">
+        <f>(AVERAGE(M6:M17)-AVERAGE(N6:N17))/(SQRT((POWER(_xlfn.STDEV.S(M6:M17),2)+POWER(_xlfn.STDEV.S(N6:N17),2))/10))</f>
+        <v>-2.3701574213304006</v>
+      </c>
+      <c r="O35" s="36">
+        <f>0.02922/2</f>
+        <v>1.461E-2</v>
+      </c>
+      <c r="P35" s="40">
+        <v>2.9219999999999999E-2</v>
+      </c>
+      <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D36" s="17" t="s">
-        <v>977</v>
-      </c>
+        <v>1242</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
       <c r="I36" s="17" t="s">
-        <v>985</v>
-      </c>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="26"/>
+        <v>1244</v>
+      </c>
+      <c r="J36" s="12"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D37" s="17" t="s">
-        <v>978</v>
-      </c>
+        <v>976</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
       <c r="I37" s="17" t="s">
-        <v>986</v>
-      </c>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="26"/>
+        <v>984</v>
+      </c>
+      <c r="J37" s="12"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="36"/>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D38" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>985</v>
+      </c>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="36"/>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D39" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>986</v>
+      </c>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="36"/>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D40" s="17" t="s">
         <v>979</v>
       </c>
-      <c r="I38" s="17" t="s">
+      <c r="I40" s="17" t="s">
         <v>987</v>
       </c>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="26"/>
-    </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D39" s="17"/>
-      <c r="I39" s="22">
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="36"/>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D41" s="17"/>
+      <c r="I41" s="22">
         <v>0.18379999999999999</v>
       </c>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="26"/>
-    </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="I40">
-        <v>1.8E-3</v>
-      </c>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="26"/>
-    </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="I41">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="26"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="36"/>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.3">
       <c r="I42">
-        <v>1.9E-3</v>
-      </c>
+        <v>1.8E-3</v>
+      </c>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="36"/>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.3">
       <c r="I43">
-        <v>2.5999999999999999E-3</v>
-      </c>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="36"/>
     </row>
     <row r="44" spans="4:17" x14ac:dyDescent="0.3">
       <c r="I44">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="I46">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="47" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D47" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="48" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D48" s="17"/>
-      <c r="I48" s="17"/>
     </row>
     <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="17" t="s">
-        <v>1239</v>
+        <v>422</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>1239</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D50" s="17" t="s">
-        <v>1240</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>1240</v>
-      </c>
+      <c r="D50" s="17"/>
+      <c r="I50" s="17"/>
     </row>
     <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="17" t="s">
-        <v>413</v>
+        <v>1239</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>413</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="17" t="s">
-        <v>414</v>
+        <v>1240</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>414</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D54" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D55" s="17" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I55" s="37" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J55" s="38"/>
-      <c r="K55" s="22"/>
+        <v>415</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="56" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D56" s="17" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I56" s="21" t="s">
-        <v>1246</v>
-      </c>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
+        <v>416</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="57" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D57" s="17" t="s">
-        <v>976</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>980</v>
-      </c>
+        <v>1241</v>
+      </c>
+      <c r="I57" s="26" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J57" s="27"/>
+      <c r="K57" s="22"/>
     </row>
     <row r="58" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D58" s="17" t="s">
-        <v>977</v>
-      </c>
-      <c r="I58" s="17" t="s">
-        <v>981</v>
-      </c>
+        <v>1242</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
     </row>
     <row r="59" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D59" s="17" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="60" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D60" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D61" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D62" s="17" t="s">
         <v>979</v>
       </c>
-      <c r="I60" s="17" t="s">
+      <c r="I62" s="17" t="s">
         <v>983</v>
-      </c>
-    </row>
-    <row r="61" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="I61">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="I62">
-        <v>5.91E-2</v>
       </c>
     </row>
     <row r="63" spans="4:11" x14ac:dyDescent="0.3">
       <c r="I63">
-        <v>1.6000000000000001E-3</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="64" spans="4:11" x14ac:dyDescent="0.3">
       <c r="I64">
-        <v>1.9E-3</v>
+        <v>5.91E-2</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I65">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I67">
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="Q33:Q41"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="L33:L41"/>
-    <mergeCell ref="M33:M41"/>
-    <mergeCell ref="N33:N41"/>
-    <mergeCell ref="O33:O41"/>
-    <mergeCell ref="P33:P41"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="L25:L32"/>
-    <mergeCell ref="M25:M32"/>
-    <mergeCell ref="N25:N32"/>
-    <mergeCell ref="O25:O32"/>
-    <mergeCell ref="P25:P32"/>
-    <mergeCell ref="Q25:Q32"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="A20:A21"/>
+  <mergeCells count="45">
+    <mergeCell ref="Q35:Q43"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="Q27:Q34"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="P27:P34"/>
+    <mergeCell ref="L35:L43"/>
+    <mergeCell ref="M35:M43"/>
+    <mergeCell ref="N35:N43"/>
+    <mergeCell ref="O35:O43"/>
+    <mergeCell ref="P35:P43"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="L27:L34"/>
+    <mergeCell ref="M27:M34"/>
+    <mergeCell ref="N27:N34"/>
+    <mergeCell ref="O27:O34"/>
+    <mergeCell ref="L19:L20"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8945,10 +9066,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BDEE5B-F941-4815-9630-CCD6C7441D26}">
-  <dimension ref="A2:K47"/>
+  <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8973,24 +9094,24 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -9020,7 +9141,7 @@
       <c r="A6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="38" t="s">
         <v>338</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -9052,7 +9173,7 @@
       <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="9" t="s">
         <v>632</v>
       </c>
@@ -9082,7 +9203,7 @@
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="38" t="s">
         <v>339</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -9114,7 +9235,7 @@
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="9" t="s">
         <v>640</v>
       </c>
@@ -9144,486 +9265,517 @@
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>702</v>
-      </c>
+      <c r="B10" s="46" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>703</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>706</v>
-      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>341</v>
+      <c r="B12" s="36" t="s">
+        <v>340</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>651</v>
+      <c r="B13" s="36"/>
+      <c r="C13" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>919</v>
+      <c r="B14" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>1269</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>753</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>754</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>996</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>997</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>998</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>999</v>
+      <c r="B15" s="36"/>
+      <c r="C15" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>1150</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>1152</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>1153</v>
+      <c r="B16" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="10" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>1154</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>1155</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>1156</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>1157</v>
+      <c r="B17" s="36"/>
+      <c r="C17" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>998</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>1174</v>
+      <c r="B18" s="36" t="s">
+        <v>1107</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1183</v>
+        <v>1128</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1184</v>
+        <v>1129</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>1185</v>
+        <v>1130</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>1186</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>1227</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>1230</v>
+        <v>1131</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="10" t="s">
         <v>1187</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>1188</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>1189</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>1190</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>1223</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>1224</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>1225</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>1226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>420</v>
-      </c>
-      <c r="I22" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="I24" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>414</v>
-      </c>
-      <c r="I25" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I26" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
+        <v>414</v>
+      </c>
+      <c r="I27" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>415</v>
+      </c>
+      <c r="I28" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
         <v>416</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I29" t="s">
         <v>416</v>
       </c>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="12" t="s">
-        <v>988</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="I29" s="12" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J29" s="12"/>
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="12" t="s">
-        <v>989</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="I30" s="12" t="s">
-        <v>1005</v>
-      </c>
-      <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="12" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="I31" s="12" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="12" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="I32" s="12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="I33" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="12" t="s">
+        <v>991</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="I34" s="12" t="s">
         <v>1007</v>
       </c>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
+      <c r="J34" s="12"/>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
         <v>422</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I39" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
         <v>413</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I41" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
         <v>414</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I42" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
         <v>415</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I43" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
         <v>416</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I44" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
+    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
         <v>992</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I46" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
+    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
         <v>993</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I47" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
+    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
         <v>994</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I48" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
+    <row r="49" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
         <v>995</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I49" t="s">
         <v>1003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B18:B19"/>
+  <mergeCells count="11">
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9633,10 +9785,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6FC1C-B31A-4DF0-890F-5DC8C7FF47B9}">
-  <dimension ref="A2:K47"/>
+  <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9661,24 +9813,24 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -9708,7 +9860,7 @@
       <c r="A6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="38" t="s">
         <v>338</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -9740,7 +9892,7 @@
       <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="9" t="s">
         <v>802</v>
       </c>
@@ -9770,7 +9922,7 @@
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="38" t="s">
         <v>339</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -9786,23 +9938,23 @@
         <v>825</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>766</v>
+        <v>1271</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>767</v>
+        <v>1272</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>768</v>
+        <v>1273</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>769</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="9" t="s">
         <v>826</v>
       </c>
@@ -9815,503 +9967,534 @@
       <c r="F9" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>770</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>773</v>
+      <c r="G9" s="24" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>1278</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>838</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>839</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>709</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>710</v>
-      </c>
+      <c r="B10" s="46" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="10" t="s">
-        <v>842</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>762</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>763</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>765</v>
-      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>341</v>
+      <c r="B12" s="36" t="s">
+        <v>340</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>774</v>
+        <v>838</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>775</v>
+        <v>839</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>776</v>
+        <v>840</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>777</v>
+        <v>841</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>718</v>
+      <c r="B13" s="36"/>
+      <c r="C13" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>944</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>945</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>946</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>947</v>
+      <c r="B14" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>774</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>777</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>713</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>1036</v>
+      <c r="B15" s="36"/>
+      <c r="C15" s="29" t="s">
+        <v>778</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>779</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>780</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>781</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>715</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>716</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>717</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>1158</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>1159</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>1160</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>1161</v>
+      <c r="B16" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>944</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>945</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>946</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="10" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>1162</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>1164</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>1165</v>
+      <c r="B17" s="36"/>
+      <c r="C17" s="33" t="s">
+        <v>756</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>757</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>758</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>759</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>1215</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>1216</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>1217</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>1218</v>
+      <c r="B18" s="36" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="30" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="30" t="s">
         <v>1195</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D21" s="30" t="s">
         <v>1196</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E21" s="30" t="s">
         <v>1197</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F21" s="30" t="s">
         <v>1198</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G21" s="30" t="s">
         <v>1219</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H21" s="30" t="s">
         <v>1220</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I21" s="30" t="s">
         <v>1221</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J21" s="30" t="s">
         <v>1222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>420</v>
-      </c>
-      <c r="I22" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="I24" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>414</v>
-      </c>
-      <c r="I25" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I26" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
+        <v>414</v>
+      </c>
+      <c r="I27" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>415</v>
+      </c>
+      <c r="I28" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
         <v>416</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I29" t="s">
         <v>416</v>
       </c>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="12" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="I29" s="12" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J29" s="12"/>
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="12" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="I30" s="12" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="I31" s="12" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="12" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="I32" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="I33" s="12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="12" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="I34" s="12" t="s">
         <v>1024</v>
       </c>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
+      <c r="J34" s="12"/>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
         <v>422</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I39" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
         <v>413</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I41" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
         <v>414</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I42" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
         <v>415</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I43" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
         <v>416</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I44" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
+    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
         <v>1017</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I46" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
+    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
         <v>1018</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I47" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
+    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
         <v>1019</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I48" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
+    <row r="49" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
         <v>1020</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I49" t="s">
         <v>1040</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B18:B19"/>
+  <mergeCells count="11">
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10321,10 +10504,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D607B5D-8DF4-412F-9C0A-05333BA42C0E}">
-  <dimension ref="A2:K47"/>
+  <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10349,24 +10532,24 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -10396,31 +10579,31 @@
       <c r="A6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="30" t="s">
         <v>806</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="30" t="s">
         <v>807</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="30" t="s">
         <v>808</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="30" t="s">
         <v>809</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="30" t="s">
         <v>814</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="30" t="s">
         <v>815</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="30" t="s">
         <v>816</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="30" t="s">
         <v>817</v>
       </c>
     </row>
@@ -10428,29 +10611,29 @@
       <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="31" t="s">
         <v>810</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="31" t="s">
         <v>811</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="31" t="s">
         <v>812</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="31" t="s">
         <v>813</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="31" t="s">
         <v>818</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="31" t="s">
         <v>819</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="31" t="s">
         <v>820</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="31" t="s">
         <v>821</v>
       </c>
     </row>
@@ -10458,31 +10641,31 @@
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="30" t="s">
         <v>830</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="30" t="s">
         <v>831</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="30" t="s">
         <v>832</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="30" t="s">
         <v>833</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="30" t="s">
         <v>766</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="30" t="s">
         <v>767</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="30" t="s">
         <v>768</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="30" t="s">
         <v>769</v>
       </c>
     </row>
@@ -10490,29 +10673,29 @@
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="31" t="s">
         <v>834</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="31" t="s">
         <v>835</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="31" t="s">
         <v>837</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="31" t="s">
         <v>770</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="31" t="s">
         <v>772</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="31" t="s">
         <v>773</v>
       </c>
     </row>
@@ -10520,486 +10703,517 @@
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>854</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>855</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>856</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>857</v>
-      </c>
+      <c r="B10" s="46" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>851</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>859</v>
-      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>341</v>
+      <c r="B12" s="36" t="s">
+        <v>340</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>782</v>
+        <v>846</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>783</v>
+        <v>847</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>784</v>
+        <v>848</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>785</v>
+        <v>849</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>790</v>
+        <v>854</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>791</v>
+        <v>855</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>792</v>
+        <v>856</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>793</v>
+        <v>857</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>787</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>797</v>
+      <c r="B13" s="36"/>
+      <c r="C13" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>1057</v>
+      <c r="B14" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="11" t="s">
-        <v>872</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>1081</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>1082</v>
+      <c r="B15" s="36"/>
+      <c r="C15" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>1111</v>
+      <c r="B16" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>577</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>1166</v>
+        <v>1054</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>1167</v>
+        <v>1055</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>1168</v>
+        <v>1056</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>1169</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="10" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>1172</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>1173</v>
+      <c r="B17" s="36"/>
+      <c r="C17" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>1174</v>
+      <c r="B18" s="36" t="s">
+        <v>1107</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1203</v>
+        <v>1108</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1204</v>
+        <v>1109</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>1205</v>
+        <v>1110</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>1206</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>1211</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>1212</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>1213</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>1214</v>
+        <v>1111</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="10" t="s">
         <v>1199</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>1200</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>1201</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>1202</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>1207</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>1208</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>1209</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>1210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>420</v>
-      </c>
-      <c r="I22" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="I24" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>414</v>
-      </c>
-      <c r="I25" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I26" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
+        <v>414</v>
+      </c>
+      <c r="I27" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>415</v>
+      </c>
+      <c r="I28" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
         <v>416</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I29" t="s">
         <v>416</v>
       </c>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="12" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="I29" s="12" t="s">
-        <v>1071</v>
-      </c>
-      <c r="J29" s="12"/>
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="12" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="I30" s="12" t="s">
-        <v>1072</v>
-      </c>
-      <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="I31" s="12" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="12" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="I32" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="I33" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="I34" s="12" t="s">
         <v>1074</v>
       </c>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
+      <c r="J34" s="12"/>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
         <v>422</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I39" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
         <v>413</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I41" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
         <v>414</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I42" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
         <v>415</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I43" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
         <v>416</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I44" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
+    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
         <v>1025</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I46" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
+    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
         <v>1026</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I47" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
+    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
         <v>1027</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I48" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
+    <row r="49" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
         <v>1028</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I49" t="s">
         <v>1086</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B18:B19"/>
+  <mergeCells count="11">
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11220,10 +11434,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="34"/>
       <c r="D18" t="s">
         <v>212</v>
       </c>
@@ -11459,10 +11673,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="34"/>
       <c r="D18" t="s">
         <v>226</v>
       </c>
@@ -11697,10 +11911,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11924,10 +12138,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="34"/>
       <c r="D18" t="s">
         <v>234</v>
       </c>
@@ -12167,10 +12381,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="34"/>
       <c r="D18" t="s">
         <v>598</v>
       </c>
@@ -12380,10 +12594,10 @@
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="24"/>
+      <c r="C36" s="34"/>
       <c r="D36" t="s">
         <v>736</v>
       </c>
@@ -12593,10 +12807,10 @@
       <c r="D53" s="6"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C54" s="25"/>
+      <c r="C54" s="35"/>
       <c r="D54" t="s">
         <v>744</v>
       </c>
@@ -12806,10 +13020,10 @@
       <c r="D71" s="6"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C72" s="24"/>
+      <c r="C72" s="34"/>
       <c r="D72" t="s">
         <v>740</v>
       </c>
@@ -13047,10 +13261,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="34"/>
       <c r="D18" t="s">
         <v>230</v>
       </c>
@@ -13286,10 +13500,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="34"/>
       <c r="D19" t="s">
         <v>219</v>
       </c>
@@ -13525,8 +13739,8 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Kochia/results/Summary.xlsx
+++ b/Kochia/results/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w63x712\Documents\Machine_Learning\HSI_selection2\Kochia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2160F20C-5FE2-42E5-ABFC-9E84DA15DB29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE5FC68-F6CF-4EA7-95D8-5D5D1898C5C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="662" firstSheet="11" activeTab="15" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
+    <workbookView minimized="1" xWindow="38205" yWindow="1800" windowWidth="2100" windowHeight="585" tabRatio="662" firstSheet="7" activeTab="12" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="150 bands" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="1344">
   <si>
     <t>150 bands</t>
   </si>
@@ -3889,6 +3889,198 @@
   </si>
   <si>
     <t>SR-SSIM</t>
+  </si>
+  <si>
+    <t>86.422% (+/- 1.070%)</t>
+  </si>
+  <si>
+    <t>87.658% (+/- 1.018%)</t>
+  </si>
+  <si>
+    <t>87.314% (+/- 1.061%)</t>
+  </si>
+  <si>
+    <t>87.468% (+/- 1.025%)</t>
+  </si>
+  <si>
+    <t>88.733% (+/- 0.896%)</t>
+  </si>
+  <si>
+    <t>89.551% (+/- 0.808%)</t>
+  </si>
+  <si>
+    <t>89.298% (+/- 0.985%)</t>
+  </si>
+  <si>
+    <t>89.411% (+/- 0.887%)</t>
+  </si>
+  <si>
+    <t>84.576% (+/- 0.888%)</t>
+  </si>
+  <si>
+    <t>86.006% (+/- 0.823%)</t>
+  </si>
+  <si>
+    <t>85.420% (+/- 0.916%)</t>
+  </si>
+  <si>
+    <t>85.690% (+/- 0.835%)</t>
+  </si>
+  <si>
+    <t>86.475% (+/- 1.098%)</t>
+  </si>
+  <si>
+    <t>87.361% (+/- 0.875%)</t>
+  </si>
+  <si>
+    <t>87.266% (+/- 1.225%)</t>
+  </si>
+  <si>
+    <t>87.295% (+/- 1.024%)</t>
+  </si>
+  <si>
+    <t>81.742% (+/- 1.663%)</t>
+  </si>
+  <si>
+    <t>83.305% (+/- 1.341%)</t>
+  </si>
+  <si>
+    <t>82.899% (+/- 1.712%)</t>
+  </si>
+  <si>
+    <t>83.067% (+/- 1.513%)</t>
+  </si>
+  <si>
+    <t>84.408% (+/- 1.218%)</t>
+  </si>
+  <si>
+    <t>85.420% (+/- 1.191%)</t>
+  </si>
+  <si>
+    <t>85.337% (+/- 1.270%)</t>
+  </si>
+  <si>
+    <t>85.353% (+/- 1.209%)</t>
+  </si>
+  <si>
+    <t>78.228% (+/- 1.517%)</t>
+  </si>
+  <si>
+    <t>79.911% (+/- 1.456%)</t>
+  </si>
+  <si>
+    <t>79.282% (+/- 1.732%)</t>
+  </si>
+  <si>
+    <t>79.522% (+/- 1.524%)</t>
+  </si>
+  <si>
+    <t>80.127% (+/- 1.678%)</t>
+  </si>
+  <si>
+    <t>81.389% (+/- 1.952%)</t>
+  </si>
+  <si>
+    <t>80.880% (+/- 1.382%)</t>
+  </si>
+  <si>
+    <t>81.040% (+/- 1.643%)</t>
+  </si>
+  <si>
+    <t>92.280% (+/- 1.418%)</t>
+  </si>
+  <si>
+    <t>93.199% (+/- 1.230%)</t>
+  </si>
+  <si>
+    <t>92.887% (+/- 1.362%)</t>
+  </si>
+  <si>
+    <t>93.030% (+/- 1.292%)</t>
+  </si>
+  <si>
+    <t>93.841% (+/- 0.620%)</t>
+  </si>
+  <si>
+    <t>94.504% (+/- 0.567%)</t>
+  </si>
+  <si>
+    <t>94.265% (+/- 0.635%)</t>
+  </si>
+  <si>
+    <t>94.372% (+/- 0.590%)</t>
+  </si>
+  <si>
+    <t>90.646% (+/- 0.885%)</t>
+  </si>
+  <si>
+    <t>91.647% (+/- 0.817%)</t>
+  </si>
+  <si>
+    <t>91.355% (+/- 0.836%)</t>
+  </si>
+  <si>
+    <t>91.491% (+/- 0.811%)</t>
+  </si>
+  <si>
+    <t>92.136% (+/- 0.908%)</t>
+  </si>
+  <si>
+    <t>92.999% (+/- 0.733%)</t>
+  </si>
+  <si>
+    <t>92.584% (+/- 1.056%)</t>
+  </si>
+  <si>
+    <t>92.774% (+/- 0.888%)</t>
+  </si>
+  <si>
+    <t>88.828% (+/- 1.769%)</t>
+  </si>
+  <si>
+    <t>90.075% (+/- 1.586%)</t>
+  </si>
+  <si>
+    <t>89.634% (+/- 1.762%)</t>
+  </si>
+  <si>
+    <t>89.822% (+/- 1.694%)</t>
+  </si>
+  <si>
+    <t>89.569% (+/- 1.018%)</t>
+  </si>
+  <si>
+    <t>90.512% (+/- 1.091%)</t>
+  </si>
+  <si>
+    <t>90.389% (+/- 0.790%)</t>
+  </si>
+  <si>
+    <t>90.414% (+/- 0.936%)</t>
+  </si>
+  <si>
+    <t>84.253% (+/- 1.212%)</t>
+  </si>
+  <si>
+    <t>86.078% (+/- 1.440%)</t>
+  </si>
+  <si>
+    <t>85.025% (+/- 0.908%)</t>
+  </si>
+  <si>
+    <t>85.424% (+/- 1.038%)</t>
+  </si>
+  <si>
+    <t>84.772% (+/- 1.607%)</t>
+  </si>
+  <si>
+    <t>86.250% (+/- 1.648%)</t>
+  </si>
+  <si>
+    <t>85.393% (+/- 1.310%)</t>
+  </si>
+  <si>
+    <t>\vspace{-2ex}</t>
   </si>
 </sst>
 </file>
@@ -4565,9 +4757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:colOff>1501140</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>53821</xdr:rowOff>
+      <xdr:rowOff>57631</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4617,7 +4809,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>102536</xdr:rowOff>
+      <xdr:rowOff>98726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4664,10 +4856,10 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1577976</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>636</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>143147</xdr:rowOff>
+      <xdr:rowOff>135527</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4765,9 +4957,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1534867</xdr:colOff>
+      <xdr:colOff>1544392</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>92234</xdr:rowOff>
+      <xdr:rowOff>96044</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4817,7 +5009,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>102536</xdr:rowOff>
+      <xdr:rowOff>98726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4865,9 +5057,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1579688</xdr:colOff>
+      <xdr:colOff>1583498</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>107152</xdr:rowOff>
+      <xdr:rowOff>93817</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4915,9 +5107,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>202765</xdr:colOff>
+      <xdr:colOff>206575</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>21888</xdr:rowOff>
+      <xdr:rowOff>18078</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4967,7 +5159,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>304520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>60038</xdr:rowOff>
+      <xdr:rowOff>56228</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5015,7 +5207,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>20305</xdr:colOff>
+      <xdr:colOff>16495</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5065,9 +5257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1504449</xdr:colOff>
+      <xdr:colOff>1508259</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>31713</xdr:rowOff>
+      <xdr:rowOff>18378</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7205,7 +7397,7 @@
   <dimension ref="A2:K45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:J17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7784,8 +7976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13495555-31D4-4576-9C86-E21C2334E536}">
   <dimension ref="A2:R67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7962,14 +8154,30 @@
       <c r="B8" s="46" t="s">
         <v>1279</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="C8" s="10" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>1315</v>
+      </c>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
@@ -7979,14 +8187,30 @@
         <v>400</v>
       </c>
       <c r="B9" s="47"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
+      <c r="C9" s="10" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>1319</v>
+      </c>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
@@ -9069,7 +9293,7 @@
   <dimension ref="A2:K49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9268,28 +9492,60 @@
       <c r="B10" s="46" t="s">
         <v>1279</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
+      <c r="C10" s="28" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>1321</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>1323</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>400</v>
       </c>
       <c r="B11" s="47"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="C11" s="28" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>1327</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -9788,7 +10044,7 @@
   <dimension ref="A2:K49"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9987,28 +10243,60 @@
       <c r="B10" s="46" t="s">
         <v>1279</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
+      <c r="C10" s="28" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>400</v>
       </c>
       <c r="B11" s="47"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="C11" s="28" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>1335</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -10506,8 +10794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D607B5D-8DF4-412F-9C0A-05333BA42C0E}">
   <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10706,28 +10994,60 @@
       <c r="B10" s="46" t="s">
         <v>1279</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
+      <c r="C10" s="31" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>1339</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>400</v>
       </c>
       <c r="B11" s="47"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="C11" s="31" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>1343</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">

--- a/Kochia/results/Summary.xlsx
+++ b/Kochia/results/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w63x712\Documents\Machine_Learning\HSI_selection2\Kochia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE5FC68-F6CF-4EA7-95D8-5D5D1898C5C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B18522-DF4C-407E-A6FD-E98CC0398B8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="38205" yWindow="1800" windowWidth="2100" windowHeight="585" tabRatio="662" firstSheet="7" activeTab="12" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="662" firstSheet="12" activeTab="16" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="150 bands" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="SVM 10 bands" sheetId="4" r:id="rId7"/>
     <sheet name="RF 10 bands" sheetId="6" r:id="rId8"/>
     <sheet name="ANN 10 bands" sheetId="9" r:id="rId9"/>
-    <sheet name="CNN 10 bands" sheetId="8" r:id="rId10"/>
-    <sheet name="CNN 10 bands 5x2" sheetId="17" r:id="rId11"/>
-    <sheet name="Comparison" sheetId="11" r:id="rId12"/>
-    <sheet name="Comparison 5x2" sheetId="14" r:id="rId13"/>
-    <sheet name="Comparison 5x2 75%" sheetId="15" r:id="rId14"/>
-    <sheet name="Comparison 5x2 50%" sheetId="16" r:id="rId15"/>
-    <sheet name="Comparison 5x2 25%" sheetId="18" r:id="rId16"/>
+    <sheet name="CNN 10 bands 5x2" sheetId="17" r:id="rId10"/>
+    <sheet name="CNN 8 bands 5x2" sheetId="19" r:id="rId11"/>
+    <sheet name="CNN 10 bands" sheetId="8" r:id="rId12"/>
+    <sheet name="Comparison" sheetId="11" r:id="rId13"/>
+    <sheet name="Comparison 5x2" sheetId="14" r:id="rId14"/>
+    <sheet name="Comparison 5x2 75%" sheetId="15" r:id="rId15"/>
+    <sheet name="Comparison 5x2 50%" sheetId="16" r:id="rId16"/>
+    <sheet name="Comparison 5x2 25%" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="1449">
   <si>
     <t>150 bands</t>
   </si>
@@ -4081,6 +4082,321 @@
   </si>
   <si>
     <t>\vspace{-2ex}</t>
+  </si>
+  <si>
+    <t>93.958% (+/- 0.679%)</t>
+  </si>
+  <si>
+    <t>94.467% (+/- 0.648%)</t>
+  </si>
+  <si>
+    <t>94.343% (+/- 0.677%)</t>
+  </si>
+  <si>
+    <t>94.391% (+/- 0.664%)</t>
+  </si>
+  <si>
+    <t>[2, 5, 18, 42, 68, 74, 79, 143]</t>
+  </si>
+  <si>
+    <t>[2, 5, 18, 42, 68, 74, 80, 143]</t>
+  </si>
+  <si>
+    <t>94.183% (+/- 0.704%)</t>
+  </si>
+  <si>
+    <t>94.737% (+/- 0.646%)</t>
+  </si>
+  <si>
+    <t>94.470% (+/- 0.671%)</t>
+  </si>
+  <si>
+    <t>94.592% (+/- 0.655%)</t>
+  </si>
+  <si>
+    <t>[1, 18, 43, 68, 81, 136, 143, 146]</t>
+  </si>
+  <si>
+    <t>93.952% (+/- 0.616%)</t>
+  </si>
+  <si>
+    <t>94.477% (+/- 0.560%)</t>
+  </si>
+  <si>
+    <t>94.128% (+/- 0.677%)</t>
+  </si>
+  <si>
+    <t>94.289% (+/- 0.605%)</t>
+  </si>
+  <si>
+    <t>[1, 18, 43, 67, 74, 81, 136, 143]</t>
+  </si>
+  <si>
+    <t>94.332% (+/- 0.409%)</t>
+  </si>
+  <si>
+    <t>94.810% (+/- 0.483%)</t>
+  </si>
+  <si>
+    <t>94.601% (+/- 0.467%)</t>
+  </si>
+  <si>
+    <t>94.691% (+/- 0.465%)</t>
+  </si>
+  <si>
+    <t>94.791% (+/- 0.654%)</t>
+  </si>
+  <si>
+    <t>95.279% (+/- 0.551%)</t>
+  </si>
+  <si>
+    <t>95.198% (+/- 0.671%)</t>
+  </si>
+  <si>
+    <t>95.234% (+/- 0.608%)</t>
+  </si>
+  <si>
+    <t>[0, 4, 18, 43, 68, 74, 79, 146]</t>
+  </si>
+  <si>
+    <t>[0, 4, 18, 31, 45, 63, 68, 74]</t>
+  </si>
+  <si>
+    <t>94.484% (+/- 0.774%)</t>
+  </si>
+  <si>
+    <t>95.048% (+/- 0.723%)</t>
+  </si>
+  <si>
+    <t>94.847% (+/- 0.728%)</t>
+  </si>
+  <si>
+    <t>94.934% (+/- 0.725%)</t>
+  </si>
+  <si>
+    <t>[0, 4, 18, 47, 69, 74, 81, 145]</t>
+  </si>
+  <si>
+    <t>94.649% (+/- 0.451%)</t>
+  </si>
+  <si>
+    <t>95.213% (+/- 0.379%)</t>
+  </si>
+  <si>
+    <t>94.892% (+/- 0.475%)</t>
+  </si>
+  <si>
+    <t>95.042% (+/- 0.423%)</t>
+  </si>
+  <si>
+    <t>[0, 18, 47, 61, 74, 79, 140, 145]</t>
+  </si>
+  <si>
+    <t>93.680% (+/- 0.746%)</t>
+  </si>
+  <si>
+    <t>94.248% (+/- 0.653%)</t>
+  </si>
+  <si>
+    <t>93.954% (+/- 0.680%)</t>
+  </si>
+  <si>
+    <t>94.083% (+/- 0.657%)</t>
+  </si>
+  <si>
+    <t>8 bands</t>
+  </si>
+  <si>
+    <t>83.746% (+/- 2.395%)</t>
+  </si>
+  <si>
+    <t>84.332% (+/- 2.484%)</t>
+  </si>
+  <si>
+    <t>83.766% (+/- 2.425%)</t>
+  </si>
+  <si>
+    <t>84.015% (+/- 2.447%)</t>
+  </si>
+  <si>
+    <t>95.035% (+/- 0.704%)</t>
+  </si>
+  <si>
+    <t>95.349% (+/- 0.595%)</t>
+  </si>
+  <si>
+    <t>95.208% (+/- 0.806%)</t>
+  </si>
+  <si>
+    <t>95.271% (+/- 0.701%)</t>
+  </si>
+  <si>
+    <t>82.229% (+/- 2.431%)</t>
+  </si>
+  <si>
+    <t>82.636% (+/- 2.455%)</t>
+  </si>
+  <si>
+    <t>82.236% (+/- 2.538%)</t>
+  </si>
+  <si>
+    <t>82.415% (+/- 2.493%)</t>
+  </si>
+  <si>
+    <t>93.799% (+/- 0.452%)</t>
+  </si>
+  <si>
+    <t>94.169% (+/- 0.503%)</t>
+  </si>
+  <si>
+    <t>93.943% (+/- 0.478%)</t>
+  </si>
+  <si>
+    <t>94.044% (+/- 0.464%)</t>
+  </si>
+  <si>
+    <t>79.069% (+/- 2.192%)</t>
+  </si>
+  <si>
+    <t>79.611% (+/- 2.142%)</t>
+  </si>
+  <si>
+    <t>78.933% (+/- 2.702%)</t>
+  </si>
+  <si>
+    <t>79.174% (+/- 2.417%)</t>
+  </si>
+  <si>
+    <t>92.134% (+/- 1.021%)</t>
+  </si>
+  <si>
+    <t>92.506% (+/- 0.880%)</t>
+  </si>
+  <si>
+    <t>92.212% (+/- 1.087%)</t>
+  </si>
+  <si>
+    <t>92.338% (+/- 0.980%)</t>
+  </si>
+  <si>
+    <t>74.810% (+/- 1.984%)</t>
+  </si>
+  <si>
+    <t>75.381% (+/- 2.074%)</t>
+  </si>
+  <si>
+    <t>74.694% (+/- 2.139%)</t>
+  </si>
+  <si>
+    <t>74.913% (+/- 2.093%)</t>
+  </si>
+  <si>
+    <t>87.696% (+/- 1.074%)</t>
+  </si>
+  <si>
+    <t>88.330% (+/- 1.214%)</t>
+  </si>
+  <si>
+    <t>87.768% (+/- 1.014%)</t>
+  </si>
+  <si>
+    <t>88.001% (+/- 1.054%)</t>
+  </si>
+  <si>
+    <t>95.462% (+/- 0.530%)</t>
+  </si>
+  <si>
+    <t>95.906% (+/- 0.463%)</t>
+  </si>
+  <si>
+    <t>95.629% (+/- 0.493%)</t>
+  </si>
+  <si>
+    <t>95.758% (+/- 0.469%)</t>
+  </si>
+  <si>
+    <t>95.418% (+/- 0.596%)</t>
+  </si>
+  <si>
+    <t>95.845% (+/- 0.520%)</t>
+  </si>
+  <si>
+    <t>95.619% (+/- 0.569%)</t>
+  </si>
+  <si>
+    <t>95.720% (+/- 0.530%)</t>
+  </si>
+  <si>
+    <t>94.483% (+/- 0.429%)</t>
+  </si>
+  <si>
+    <t>94.857% (+/- 0.456%)</t>
+  </si>
+  <si>
+    <t>94.730% (+/- 0.491%)</t>
+  </si>
+  <si>
+    <t>94.783% (+/- 0.432%)</t>
+  </si>
+  <si>
+    <t>94.474% (+/- 0.585%)</t>
+  </si>
+  <si>
+    <t>94.851% (+/- 0.609%)</t>
+  </si>
+  <si>
+    <t>94.721% (+/- 0.592%)</t>
+  </si>
+  <si>
+    <t>94.774% (+/- 0.581%)</t>
+  </si>
+  <si>
+    <t>92.204% (+/- 0.861%)</t>
+  </si>
+  <si>
+    <t>92.655% (+/- 0.968%)</t>
+  </si>
+  <si>
+    <t>92.589% (+/- 0.771%)</t>
+  </si>
+  <si>
+    <t>92.606% (+/- 0.842%)</t>
+  </si>
+  <si>
+    <t>92.552% (+/- 0.867%)</t>
+  </si>
+  <si>
+    <t>93.197% (+/- 0.726%)</t>
+  </si>
+  <si>
+    <t>92.749% (+/- 0.943%)</t>
+  </si>
+  <si>
+    <t>92.952% (+/- 0.836%)</t>
+  </si>
+  <si>
+    <t>88.165% (+/- 1.160%)</t>
+  </si>
+  <si>
+    <t>88.816% (+/- 1.145%)</t>
+  </si>
+  <si>
+    <t>88.614% (+/- 1.199%)</t>
+  </si>
+  <si>
+    <t>88.666% (+/- 1.104%)</t>
+  </si>
+  <si>
+    <t>87.430% (+/- 1.490%)</t>
+  </si>
+  <si>
+    <t>88.298% (+/- 1.727%)</t>
+  </si>
+  <si>
+    <t>87.600% (+/- 1.407%)</t>
+  </si>
+  <si>
+    <t>87.872% (+/- 1.534%)</t>
   </si>
 </sst>
 </file>
@@ -4247,7 +4563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4331,6 +4647,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4342,12 +4664,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4364,11 +4680,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4750,14 +5075,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>55310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1501140</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>57631</xdr:rowOff>
     </xdr:to>
@@ -4800,13 +5125,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>98726</xdr:rowOff>
@@ -4850,14 +5175,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>636</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>135527</xdr:rowOff>
     </xdr:to>
@@ -5000,13 +5325,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>98726</xdr:rowOff>
@@ -5050,14 +5375,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>98213</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>165416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1583498</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1579688</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>93817</xdr:rowOff>
     </xdr:to>
@@ -5100,14 +5425,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>557059</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>164997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>206575</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>206576</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>18078</xdr:rowOff>
     </xdr:to>
@@ -5150,14 +5475,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>144926</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>27653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>304520</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>308329</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>56228</xdr:rowOff>
     </xdr:to>
@@ -5200,14 +5525,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>16495</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20306</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5250,14 +5575,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1508259</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1504450</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>18378</xdr:rowOff>
     </xdr:to>
@@ -5391,13 +5716,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>24823</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1508038</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>94385</xdr:rowOff>
@@ -5434,13 +5759,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>36320</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>26797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1502334</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>92257</xdr:rowOff>
@@ -5489,9 +5814,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19564</xdr:colOff>
+      <xdr:colOff>15754</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>133570</xdr:rowOff>
+      <xdr:rowOff>129760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5532,9 +5857,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1544628</xdr:colOff>
+      <xdr:colOff>1540818</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>129840</xdr:rowOff>
+      <xdr:rowOff>133650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5568,16 +5893,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>23924</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>19726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15443</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19253</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>129762</xdr:rowOff>
+      <xdr:rowOff>133572</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5611,16 +5936,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>17214</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>56439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1522045</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>135895</xdr:rowOff>
+      <xdr:rowOff>132085</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5745,14 +6070,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>41088</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>17432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2578</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2579</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
@@ -5788,14 +6113,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>48824</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>6691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1507115</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1507116</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>136717</xdr:rowOff>
     </xdr:to>
@@ -6273,6 +6598,1372 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8923B1-D07A-456F-A714-3288CE84B256}">
+  <dimension ref="B3:G63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="41.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="8">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="8">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="8">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="36" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
+        <v>11</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>10</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="8">
+        <v>9</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="8">
+        <v>6</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="8">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="8">
+        <v>11</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>10</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="8">
+        <v>9</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="8">
+        <v>8</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="3">
+        <v>7</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="8">
+        <v>6</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="8">
+        <v>5</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="36" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C48" s="36"/>
+      <c r="D48" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>12</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="8">
+        <v>11</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>10</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="8">
+        <v>9</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="3">
+        <v>8</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="4">
+        <v>7</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="8">
+        <v>6</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="8">
+        <v>5</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C63" s="36"/>
+      <c r="D63" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B63:C63"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFD775D-9E0A-47CA-A1F9-F372C0ABB720}">
+  <dimension ref="B3:G63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="41.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="34">
+        <v>11</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="34">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="34">
+        <v>6</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="34">
+        <v>5</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="34"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="34"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="34"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="34"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="34"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B63:C63"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1A7C30-B11E-4D52-81C1-D57530ADA652}">
   <dimension ref="B3:G19"/>
   <sheetViews>
@@ -6485,10 +8176,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="36"/>
       <c r="D19" t="s">
         <v>333</v>
       </c>
@@ -6511,888 +8202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8923B1-D07A-456F-A714-3288CE84B256}">
-  <dimension ref="B3:G63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="41.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="8">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>725</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="8">
-        <v>9</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="8">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>860</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="8">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="8">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>887</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>888</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="34" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="8" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="4">
-        <v>12</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="8">
-        <v>11</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>895</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>896</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>897</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="4">
-        <v>10</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="8">
-        <v>9</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>908</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>910</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
-        <v>7</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="8">
-        <v>6</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>924</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>925</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>926</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="8">
-        <v>5</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>928</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="34" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="4">
-        <v>12</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="8">
-        <v>11</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>912</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>914</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="4">
-        <v>10</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="8">
-        <v>9</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>937</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>938</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="8">
-        <v>8</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>940</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>941</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>942</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="3">
-        <v>7</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>944</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="8">
-        <v>6</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>948</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>949</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>950</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="8">
-        <v>5</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>957</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>958</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="34" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="8" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="4">
-        <v>12</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="8">
-        <v>11</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="4">
-        <v>10</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="8">
-        <v>9</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="3">
-        <v>8</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="4">
-        <v>7</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="8">
-        <v>6</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="8">
-        <v>5</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="6" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="34" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="8" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B63:C63"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFED0E52-F091-469C-9260-7A129EDFD031}">
   <dimension ref="A2:K45"/>
   <sheetViews>
@@ -7419,24 +8229,24 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -7466,7 +8276,7 @@
       <c r="A6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="40" t="s">
         <v>338</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -7498,7 +8308,7 @@
       <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="9" t="s">
         <v>347</v>
       </c>
@@ -7528,7 +8338,7 @@
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="40" t="s">
         <v>339</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -7560,7 +8370,7 @@
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="9" t="s">
         <v>363</v>
       </c>
@@ -7590,7 +8400,7 @@
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="38" t="s">
         <v>340</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -7622,7 +8432,7 @@
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="10" t="s">
         <v>371</v>
       </c>
@@ -7652,7 +8462,7 @@
       <c r="A12" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>341</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -7684,7 +8494,7 @@
       <c r="A13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="9" t="s">
         <v>387</v>
       </c>
@@ -7714,7 +8524,7 @@
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>342</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -7746,7 +8556,7 @@
       <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="11" t="s">
         <v>401</v>
       </c>
@@ -7773,7 +8583,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="36"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -7784,7 +8594,7 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="36"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -7972,12 +8782,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13495555-31D4-4576-9C86-E21C2334E536}">
-  <dimension ref="A2:R67"/>
+  <dimension ref="A2:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7986,22 +8796,26 @@
     <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="4" width="22.109375" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" customWidth="1"/>
-    <col min="13" max="13" width="23.109375" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24" customWidth="1"/>
-    <col min="18" max="18" width="20.77734375" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="28.33203125" customWidth="1"/>
+    <col min="16" max="16" width="20.21875" customWidth="1"/>
+    <col min="17" max="17" width="23.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" customWidth="1"/>
+    <col min="19" max="19" width="17.5546875" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="21" max="21" width="24" customWidth="1"/>
+    <col min="22" max="22" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -8009,25 +8823,31 @@
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="38"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -8040,36 +8860,48 @@
       <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="K5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="Q5" s="19" t="s">
         <v>1259</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="R5" s="19" t="s">
         <v>1262</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="S5" s="19" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="40" t="s">
         <v>338</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -8084,34 +8916,38 @@
       <c r="F6" s="10" t="s">
         <v>967</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="M6" s="19">
+      <c r="Q6" s="19">
         <v>95.742199309013301</v>
       </c>
-      <c r="N6" s="19">
+      <c r="R6" s="19">
         <v>96.5817599621694</v>
       </c>
-      <c r="O6" s="19">
-        <f>(M6-N6)</f>
+      <c r="S6" s="19">
+        <f>(Q6-R6)</f>
         <v>-0.83956065315609862</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="10" t="s">
         <v>960</v>
       </c>
@@ -8124,34 +8960,38 @@
       <c r="F7" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="M7" s="19">
+      <c r="Q7" s="19">
         <v>96.371609697451007</v>
       </c>
-      <c r="N7" s="19">
+      <c r="R7" s="19">
         <v>96.876739085903097</v>
       </c>
-      <c r="O7" s="19">
-        <f t="shared" ref="O7:O17" si="0">(M7-N7)</f>
+      <c r="S7" s="19">
+        <f t="shared" ref="S7:S17" si="0">(Q7-R7)</f>
         <v>-0.50512938845209021</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>1279</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -8166,27 +9006,31 @@
       <c r="F8" s="10" t="s">
         <v>1283</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="28" t="s">
         <v>1312</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="L8" s="28" t="s">
         <v>1313</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="M8" s="28" t="s">
         <v>1314</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="N8" s="28" t="s">
         <v>1315</v>
       </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="10" t="s">
         <v>1284</v>
       </c>
@@ -8199,27 +9043,31 @@
       <c r="F9" s="10" t="s">
         <v>1287</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="28" t="s">
         <v>1316</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="L9" s="28" t="s">
         <v>1317</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="M9" s="28" t="s">
         <v>1318</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="N9" s="28" t="s">
         <v>1319</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="40" t="s">
         <v>339</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -8234,34 +9082,38 @@
       <c r="F10" s="10" t="s">
         <v>971</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="M10" s="19">
+      <c r="Q10" s="19">
         <v>96.670660950843796</v>
       </c>
-      <c r="N10" s="19">
+      <c r="R10" s="19">
         <v>97.136956711201705</v>
       </c>
-      <c r="O10" s="19">
+      <c r="S10" s="19">
         <f t="shared" si="0"/>
         <v>-0.46629576035790876</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="9" t="s">
         <v>972</v>
       </c>
@@ -8274,34 +9126,38 @@
       <c r="F11" s="9" t="s">
         <v>975</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="N11" s="16" t="s">
         <v>1106</v>
       </c>
-      <c r="M11" s="19">
+      <c r="Q11" s="19">
         <v>96.613817011265894</v>
       </c>
-      <c r="N11" s="19">
+      <c r="R11" s="19">
         <v>96.242098838626703</v>
       </c>
-      <c r="O11" s="19">
+      <c r="S11" s="19">
         <f t="shared" si="0"/>
         <v>0.37171817263919138</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>340</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -8316,34 +9172,38 @@
       <c r="F12" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="N12" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="M12" s="19">
+      <c r="Q12" s="19">
         <v>97.249569963185905</v>
       </c>
-      <c r="N12" s="19">
+      <c r="R12" s="19">
         <v>97.344906441106801</v>
       </c>
-      <c r="O12" s="19">
+      <c r="S12" s="19">
         <f t="shared" si="0"/>
         <v>-9.5336477920895391E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="10" t="s">
         <v>615</v>
       </c>
@@ -8356,34 +9216,38 @@
       <c r="F13" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="M13" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="M13" s="19">
+      <c r="Q13" s="19">
         <v>96.409990045308504</v>
       </c>
-      <c r="N13" s="19">
+      <c r="R13" s="19">
         <v>97.351756633893501</v>
       </c>
-      <c r="O13" s="19">
+      <c r="S13" s="19">
         <f t="shared" si="0"/>
         <v>-0.94176658858499707</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>341</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -8398,34 +9262,38 @@
       <c r="F14" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="9" t="s">
         <v>864</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="M14" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="N14" s="9" t="s">
         <v>867</v>
       </c>
-      <c r="M14" s="19">
+      <c r="Q14" s="19">
         <v>96.830539162803504</v>
       </c>
-      <c r="N14" s="19">
+      <c r="R14" s="19">
         <v>97.9423517540733</v>
       </c>
-      <c r="O14" s="19">
+      <c r="S14" s="19">
         <f t="shared" si="0"/>
         <v>-1.1118125912697963</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="9" t="s">
         <v>607</v>
       </c>
@@ -8438,34 +9306,38 @@
       <c r="F15" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="9" t="s">
         <v>868</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>869</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="M15" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="N15" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="M15" s="19">
+      <c r="Q15" s="19">
         <v>96.690528302853906</v>
       </c>
-      <c r="N15" s="19">
+      <c r="R15" s="19">
         <v>96.444953485322202</v>
       </c>
-      <c r="O15" s="19">
+      <c r="S15" s="19">
         <f t="shared" si="0"/>
         <v>0.24557481753170407</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="38" t="s">
         <v>342</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -8480,34 +9352,46 @@
       <c r="F16" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="M16" s="11" t="s">
         <v>880</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="N16" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="M16" s="19">
+      <c r="Q16" s="19">
         <v>95.784656198114007</v>
       </c>
-      <c r="N16" s="19">
+      <c r="R16" s="19">
         <v>96.809902530602599</v>
       </c>
-      <c r="O16" s="19">
+      <c r="S16" s="19">
         <f t="shared" si="0"/>
         <v>-1.0252463324885923</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="11" t="s">
         <v>748</v>
       </c>
@@ -8520,34 +9404,38 @@
       <c r="F17" s="11" t="s">
         <v>751</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="10" t="s">
         <v>952</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="L17" s="10" t="s">
         <v>953</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="M17" s="10" t="s">
         <v>954</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>955</v>
       </c>
-      <c r="M17" s="19">
+      <c r="Q17" s="19">
         <v>96.174063442338095</v>
       </c>
-      <c r="N17" s="19">
+      <c r="R17" s="19">
         <v>96.924503057177205</v>
       </c>
-      <c r="O17" s="19">
+      <c r="S17" s="19">
         <f t="shared" si="0"/>
         <v>-0.75043961483910948</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="38" t="s">
         <v>1107</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -8563,23 +9451,35 @@
         <v>1135</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>1387</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>1146</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="L18" s="10" t="s">
         <v>1147</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="M18" s="10" t="s">
         <v>1148</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="N18" s="10" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="10" t="s">
         <v>1138</v>
       </c>
@@ -8593,36 +9493,48 @@
         <v>1141</v>
       </c>
       <c r="G19" s="10" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>1391</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>1143</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="M19" s="10" t="s">
         <v>1144</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="N19" s="10" t="s">
         <v>1145</v>
       </c>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36" t="s">
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38" t="s">
         <v>1253</v>
       </c>
-      <c r="O19" s="36" t="s">
+      <c r="S19" s="38" t="s">
         <v>1250</v>
       </c>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36" t="s">
+      <c r="T19" s="38"/>
+      <c r="U19" s="38" t="s">
         <v>1254</v>
       </c>
-      <c r="R19" s="41"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="V19" s="41"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>399</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="38" t="s">
         <v>1174</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -8637,35 +9549,47 @@
       <c r="F20" s="10" t="s">
         <v>1182</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>1231</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="L20" s="10" t="s">
         <v>1232</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="M20" s="10" t="s">
         <v>1233</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="N20" s="10" t="s">
         <v>1234</v>
       </c>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="18" t="s">
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="18" t="s">
         <v>1251</v>
       </c>
-      <c r="P20" s="18" t="s">
+      <c r="T20" s="18" t="s">
         <v>1252</v>
       </c>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="41"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U20" s="38"/>
+      <c r="V20" s="41"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>400</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="10" t="s">
         <v>1175</v>
       </c>
@@ -8678,40 +9602,52 @@
       <c r="F21" s="10" t="s">
         <v>1178</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>1235</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="L21" s="11" t="s">
         <v>1236</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="M21" s="11" t="s">
         <v>1237</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="N21" s="11" t="s">
         <v>1238</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="36" t="s">
+      <c r="O21" s="20"/>
+      <c r="P21" s="38" t="s">
         <v>1260</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36">
-        <f>AVERAGE(O6:O17)/(_xlfn.STDEV.S(O6:O17)/SQRT(10))</f>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38">
+        <f>AVERAGE(S6:S17)/(_xlfn.STDEV.S(S6:S17)/SQRT(10))</f>
         <v>-3.0693396615435296</v>
       </c>
-      <c r="O21" s="36">
+      <c r="S21" s="38">
         <v>6.6800000000000002E-3</v>
       </c>
-      <c r="P21" s="36">
+      <c r="T21" s="38">
         <v>1.336E-2</v>
       </c>
-      <c r="Q21" s="36" t="s">
+      <c r="U21" s="38" t="s">
         <v>1255</v>
       </c>
-      <c r="R21" s="42"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+      <c r="V21" s="42"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="47" t="s">
         <v>399</v>
       </c>
       <c r="B22" t="s">
@@ -8723,20 +9659,20 @@
       <c r="F22" t="s">
         <v>1136</v>
       </c>
-      <c r="G22">
+      <c r="K22">
         <v>99.81</v>
       </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="42"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="42"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="47"/>
       <c r="B23" t="s">
         <v>1137</v>
       </c>
@@ -8746,20 +9682,20 @@
       <c r="F23" t="s">
         <v>1137</v>
       </c>
-      <c r="G23">
+      <c r="K23">
         <v>99.67</v>
       </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="42"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="O23" s="20"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="42"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
         <v>400</v>
       </c>
       <c r="B24" t="s">
@@ -8771,25 +9707,25 @@
       <c r="F24" t="s">
         <v>1136</v>
       </c>
-      <c r="G24">
+      <c r="K24">
         <v>99.88</v>
       </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="36" t="s">
+      <c r="O24" s="20"/>
+      <c r="P24" s="38" t="s">
         <v>1261</v>
       </c>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36">
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38">
         <v>9.765625E-3</v>
       </c>
-      <c r="P24" s="36">
+      <c r="T24" s="38">
         <v>1.953125E-2</v>
       </c>
-      <c r="Q24" s="36"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
+      <c r="U24" s="38"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="47"/>
       <c r="B25" t="s">
         <v>1137</v>
       </c>
@@ -8799,476 +9735,464 @@
       <c r="F25" t="s">
         <v>1137</v>
       </c>
-      <c r="G25">
+      <c r="K25">
         <v>99.88</v>
       </c>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L26" s="18" t="s">
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P26" s="18" t="s">
         <v>1248</v>
       </c>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D27" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="M27" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="L27" s="36" t="s">
+      <c r="P27" s="38" t="s">
         <v>1249</v>
       </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36">
-        <f>(AVERAGE(M6:M17)-AVERAGE(N6:N17))/(SQRT((POWER(_xlfn.STDEV.S(M6:M17),2)+POWER(_xlfn.STDEV.S(N6:N17),2))/2) * SQRT(2/10))</f>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38">
+        <f>(AVERAGE(Q6:Q17)-AVERAGE(R6:R17))/(SQRT((POWER(_xlfn.STDEV.S(Q6:Q17),2)+POWER(_xlfn.STDEV.S(R6:R17),2))/2) * SQRT(2/10))</f>
         <v>-2.3701574213304011</v>
       </c>
-      <c r="O27" s="36">
+      <c r="S27" s="38">
         <v>1.4579999999999999E-2</v>
       </c>
-      <c r="P27" s="36">
+      <c r="T27" s="38">
         <v>2.9149999999999999E-2</v>
       </c>
-      <c r="Q27" s="43" t="s">
+      <c r="U27" s="43" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="44"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M28" s="17"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="44"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D29" s="17" t="s">
         <v>1239</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="M29" s="17" t="s">
         <v>1239</v>
       </c>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="44"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="44"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D30" s="17" t="s">
         <v>1240</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="M30" s="17" t="s">
         <v>1240</v>
       </c>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="44"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="44"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D31" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="M31" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="44"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="44"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D32" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="M32" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="44"/>
-    </row>
-    <row r="33" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="O32" s="12"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="44"/>
+    </row>
+    <row r="33" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D33" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="M33" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="K33" s="12"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="44"/>
-    </row>
-    <row r="34" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="O33" s="12"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="44"/>
+    </row>
+    <row r="34" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D34" s="17" t="s">
         <v>416</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="I34" s="17" t="s">
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="M34" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="45"/>
-    </row>
-    <row r="35" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="45"/>
+    </row>
+    <row r="35" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D35" s="17" t="s">
         <v>1241</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="I35" s="21" t="s">
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="M35" s="21" t="s">
         <v>1243</v>
       </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="36" t="s">
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="38" t="s">
         <v>1257</v>
       </c>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36">
-        <f>(AVERAGE(M6:M17)-AVERAGE(N6:N17))/(SQRT((POWER(_xlfn.STDEV.S(M6:M17),2)+POWER(_xlfn.STDEV.S(N6:N17),2))/10))</f>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38">
+        <f>(AVERAGE(Q6:Q17)-AVERAGE(R6:R17))/(SQRT((POWER(_xlfn.STDEV.S(Q6:Q17),2)+POWER(_xlfn.STDEV.S(R6:R17),2))/10))</f>
         <v>-2.3701574213304006</v>
       </c>
-      <c r="O35" s="36">
+      <c r="S35" s="38">
         <f>0.02922/2</f>
         <v>1.461E-2</v>
       </c>
-      <c r="P35" s="40">
+      <c r="T35" s="46">
         <v>2.9219999999999999E-2</v>
       </c>
-      <c r="Q35" s="36"/>
-    </row>
-    <row r="36" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="U35" s="38"/>
+    </row>
+    <row r="36" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D36" s="17" t="s">
         <v>1242</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="I36" s="17" t="s">
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="M36" s="17" t="s">
         <v>1244</v>
       </c>
-      <c r="J36" s="12"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="36"/>
-    </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="N36" s="12"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="38"/>
+    </row>
+    <row r="37" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D37" s="17" t="s">
         <v>976</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
-      <c r="I37" s="17" t="s">
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="M37" s="17" t="s">
         <v>984</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="36"/>
-    </row>
-    <row r="38" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="N37" s="12"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="38"/>
+    </row>
+    <row r="38" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D38" s="17" t="s">
         <v>977</v>
       </c>
-      <c r="I38" s="17" t="s">
+      <c r="M38" s="17" t="s">
         <v>985</v>
       </c>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="36"/>
-    </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="38"/>
+    </row>
+    <row r="39" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D39" s="17" t="s">
         <v>978</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="M39" s="17" t="s">
         <v>986</v>
       </c>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="36"/>
-    </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="38"/>
+    </row>
+    <row r="40" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D40" s="17" t="s">
         <v>979</v>
       </c>
-      <c r="I40" s="17" t="s">
+      <c r="M40" s="17" t="s">
         <v>987</v>
       </c>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="36"/>
-    </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="38"/>
+    </row>
+    <row r="41" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D41" s="17"/>
-      <c r="I41" s="22">
+      <c r="M41" s="22">
         <v>0.18379999999999999</v>
       </c>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="36"/>
-    </row>
-    <row r="42" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="I42">
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="38"/>
+    </row>
+    <row r="42" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="M42">
         <v>1.8E-3</v>
       </c>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="36"/>
-    </row>
-    <row r="43" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="I43">
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="38"/>
+    </row>
+    <row r="43" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="M43">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="36"/>
-    </row>
-    <row r="44" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="I44">
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="38"/>
+    </row>
+    <row r="44" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="M44">
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="45" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="I45">
+    <row r="45" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="M45">
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="I46">
+    <row r="46" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="M46">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D49" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="I49" s="17" t="s">
+      <c r="M49" s="17" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D50" s="17"/>
-      <c r="I50" s="17"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="M50" s="17"/>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D51" s="17" t="s">
         <v>1239</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="M51" s="17" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D52" s="17" t="s">
         <v>1240</v>
       </c>
-      <c r="I52" s="17" t="s">
+      <c r="M52" s="17" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D53" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="I53" s="17" t="s">
+      <c r="M53" s="17" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D54" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="I54" s="17" t="s">
+      <c r="M54" s="17" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D55" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="I55" s="17" t="s">
+      <c r="M55" s="17" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D56" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="I56" s="17" t="s">
+      <c r="M56" s="17" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D57" s="17" t="s">
         <v>1241</v>
       </c>
-      <c r="I57" s="26" t="s">
+      <c r="M57" s="26" t="s">
         <v>1245</v>
       </c>
-      <c r="J57" s="27"/>
-      <c r="K57" s="22"/>
-    </row>
-    <row r="58" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="N57" s="27"/>
+      <c r="O57" s="22"/>
+    </row>
+    <row r="58" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D58" s="17" t="s">
         <v>1242</v>
       </c>
-      <c r="I58" s="21" t="s">
+      <c r="M58" s="21" t="s">
         <v>1246</v>
       </c>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-    </row>
-    <row r="59" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+    </row>
+    <row r="59" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D59" s="17" t="s">
         <v>976</v>
       </c>
-      <c r="I59" s="17" t="s">
+      <c r="M59" s="17" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="60" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D60" s="17" t="s">
         <v>977</v>
       </c>
-      <c r="I60" s="17" t="s">
+      <c r="M60" s="17" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="61" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D61" s="17" t="s">
         <v>978</v>
       </c>
-      <c r="I61" s="17" t="s">
+      <c r="M61" s="17" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="62" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D62" s="17" t="s">
         <v>979</v>
       </c>
-      <c r="I62" s="17" t="s">
+      <c r="M62" s="17" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="63" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="I63">
+    <row r="63" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="M63">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="64" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="I64">
+    <row r="64" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="M64">
         <v>5.91E-2</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I65">
+    <row r="65" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M65">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I66">
+    <row r="66" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M66">
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I67">
+    <row r="67" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M67">
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="Q35:Q43"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="Q27:Q34"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="P27:P34"/>
-    <mergeCell ref="L35:L43"/>
-    <mergeCell ref="M35:M43"/>
-    <mergeCell ref="N35:N43"/>
-    <mergeCell ref="O35:O43"/>
-    <mergeCell ref="P35:P43"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="L27:L34"/>
-    <mergeCell ref="M27:M34"/>
-    <mergeCell ref="N27:N34"/>
-    <mergeCell ref="O27:O34"/>
-    <mergeCell ref="L19:L20"/>
+  <mergeCells count="46">
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="P19:P20"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
@@ -9278,9 +10202,38 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="P21:P23"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="P27:P34"/>
+    <mergeCell ref="Q27:Q34"/>
+    <mergeCell ref="R27:R34"/>
+    <mergeCell ref="S27:S34"/>
+    <mergeCell ref="T27:T34"/>
+    <mergeCell ref="P35:P43"/>
+    <mergeCell ref="Q35:Q43"/>
+    <mergeCell ref="R35:R43"/>
+    <mergeCell ref="S35:S43"/>
+    <mergeCell ref="T35:T43"/>
+    <mergeCell ref="U35:U43"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="U27:U34"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q19:Q20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9288,12 +10241,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BDEE5B-F941-4815-9630-CCD6C7441D26}">
-  <dimension ref="A2:K49"/>
+  <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9303,13 +10256,17 @@
     <col min="4" max="4" width="22.109375" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" customWidth="1"/>
     <col min="6" max="6" width="24.77734375" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -9317,25 +10274,31 @@
         <v>619</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="38"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -9348,24 +10311,36 @@
       <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="40" t="s">
         <v>338</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -9380,24 +10355,28 @@
       <c r="F6" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="9" t="s">
         <v>632</v>
       </c>
@@ -9410,24 +10389,28 @@
       <c r="F7" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="40" t="s">
         <v>339</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -9442,24 +10425,28 @@
       <c r="F8" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="N8" s="10" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="9" t="s">
         <v>640</v>
       </c>
@@ -9472,24 +10459,28 @@
       <c r="F9" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="L9" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="M9" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="N9" s="9" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="48" t="s">
         <v>1279</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -9504,24 +10495,28 @@
       <c r="F10" s="28" t="s">
         <v>1291</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="28" t="s">
         <v>1320</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="L10" s="28" t="s">
         <v>1321</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="M10" s="28" t="s">
         <v>1322</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="N10" s="28" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="28" t="s">
         <v>1292</v>
       </c>
@@ -9534,24 +10529,28 @@
       <c r="F11" s="28" t="s">
         <v>1295</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="28" t="s">
         <v>1324</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="L11" s="28" t="s">
         <v>1325</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="M11" s="28" t="s">
         <v>1326</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="N11" s="28" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>340</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -9566,24 +10565,28 @@
       <c r="F12" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="N12" s="9" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="10" t="s">
         <v>624</v>
       </c>
@@ -9596,24 +10599,28 @@
       <c r="F13" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="M13" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="N13" s="9" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>341</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -9628,24 +10635,28 @@
       <c r="F14" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="29" t="s">
         <v>1267</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="L14" s="29" t="s">
         <v>1268</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="M14" s="29" t="s">
         <v>1269</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="N14" s="29" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="9" t="s">
         <v>648</v>
       </c>
@@ -9658,24 +10669,28 @@
       <c r="F15" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="29" t="s">
         <v>1263</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="L15" s="29" t="s">
         <v>1264</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="M15" s="29" t="s">
         <v>1265</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="N15" s="29" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="38" t="s">
         <v>342</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -9690,24 +10705,28 @@
       <c r="F16" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="11" t="s">
         <v>752</v>
       </c>
@@ -9720,24 +10739,28 @@
       <c r="F17" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="10" t="s">
         <v>996</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="L17" s="10" t="s">
         <v>997</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="M17" s="10" t="s">
         <v>998</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="38" t="s">
         <v>1107</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -9753,23 +10776,35 @@
         <v>1131</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>1395</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>1150</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="L18" s="10" t="s">
         <v>1151</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="M18" s="10" t="s">
         <v>1152</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="N18" s="10" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="10" t="s">
         <v>1124</v>
       </c>
@@ -9782,24 +10817,36 @@
       <c r="F19" s="10" t="s">
         <v>1127</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>1399</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>1154</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="L19" s="11" t="s">
         <v>1155</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="M19" s="11" t="s">
         <v>1156</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="N19" s="11" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>399</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="38" t="s">
         <v>1174</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -9814,24 +10861,36 @@
       <c r="F20" s="10" t="s">
         <v>1186</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K20" s="11" t="s">
         <v>1227</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="L20" s="11" t="s">
         <v>1228</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>1229</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="N20" s="11" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>400</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="10" t="s">
         <v>1187</v>
       </c>
@@ -9845,184 +10904,212 @@
         <v>1190</v>
       </c>
       <c r="G21" s="10" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>1223</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="L21" s="10" t="s">
         <v>1224</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="M21" s="10" t="s">
         <v>1225</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>420</v>
       </c>
-      <c r="I24" t="s">
+      <c r="M24" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>413</v>
       </c>
-      <c r="I26" t="s">
+      <c r="M26" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>414</v>
       </c>
-      <c r="I27" t="s">
+      <c r="M27" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>415</v>
       </c>
-      <c r="I28" t="s">
+      <c r="M28" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>416</v>
       </c>
-      <c r="I29" t="s">
+      <c r="M29" t="s">
         <v>416</v>
       </c>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D31" s="12" t="s">
         <v>988</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="I31" s="12" t="s">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="M31" s="12" t="s">
         <v>1004</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D32" s="12" t="s">
         <v>989</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="I32" s="12" t="s">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="M32" s="12" t="s">
         <v>1005</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D33" s="12" t="s">
         <v>990</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="I33" s="12" t="s">
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="M33" s="12" t="s">
         <v>1006</v>
       </c>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D34" s="12" t="s">
         <v>991</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="I34" s="12" t="s">
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="M34" s="12" t="s">
         <v>1007</v>
       </c>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N34" s="12"/>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>422</v>
       </c>
-      <c r="I39" t="s">
+      <c r="M39" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>413</v>
       </c>
-      <c r="I41" t="s">
+      <c r="M41" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>414</v>
       </c>
-      <c r="I42" t="s">
+      <c r="M42" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>415</v>
       </c>
-      <c r="I43" t="s">
+      <c r="M43" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>416</v>
       </c>
-      <c r="I44" t="s">
+      <c r="M44" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>992</v>
       </c>
-      <c r="I46" t="s">
+      <c r="M46" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>993</v>
       </c>
-      <c r="I47" t="s">
+      <c r="M47" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>994</v>
       </c>
-      <c r="I48" t="s">
+      <c r="M48" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>995</v>
       </c>
-      <c r="I49" t="s">
+      <c r="M49" t="s">
         <v>1003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B12:B13"/>
@@ -10032,6 +11119,7 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10039,12 +11127,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6FC1C-B31A-4DF0-890F-5DC8C7FF47B9}">
-  <dimension ref="A2:K49"/>
+  <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10053,14 +11141,18 @@
     <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="4" width="22.109375" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -10068,25 +11160,31 @@
         <v>876</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="38"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -10099,24 +11197,36 @@
       <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="40" t="s">
         <v>338</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -10131,24 +11241,28 @@
       <c r="F6" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="9" t="s">
         <v>802</v>
       </c>
@@ -10161,24 +11275,28 @@
       <c r="F7" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="40" t="s">
         <v>339</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -10193,24 +11311,28 @@
       <c r="F8" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
         <v>1271</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>1272</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>1273</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="N8" s="10" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="9" t="s">
         <v>826</v>
       </c>
@@ -10223,24 +11345,28 @@
       <c r="F9" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="24" t="s">
         <v>1275</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="L9" s="24" t="s">
         <v>1276</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="M9" s="24" t="s">
         <v>1277</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="N9" s="24" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="48" t="s">
         <v>1279</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -10255,24 +11381,28 @@
       <c r="F10" s="28" t="s">
         <v>1299</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="28" t="s">
         <v>1328</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="L10" s="28" t="s">
         <v>1329</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="M10" s="28" t="s">
         <v>1330</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="N10" s="28" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="28" t="s">
         <v>1300</v>
       </c>
@@ -10285,24 +11415,28 @@
       <c r="F11" s="28" t="s">
         <v>1303</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="28" t="s">
         <v>1332</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="L11" s="28" t="s">
         <v>1333</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="M11" s="28" t="s">
         <v>1334</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="N11" s="28" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>340</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -10317,24 +11451,28 @@
       <c r="F12" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="N12" s="9" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="10" t="s">
         <v>842</v>
       </c>
@@ -10347,24 +11485,28 @@
       <c r="F13" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="M13" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>341</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -10379,24 +11521,28 @@
       <c r="F14" s="29" t="s">
         <v>777</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29" t="s">
         <v>711</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="L14" s="29" t="s">
         <v>712</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="M14" s="29" t="s">
         <v>713</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="N14" s="29" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="29" t="s">
         <v>778</v>
       </c>
@@ -10409,24 +11555,28 @@
       <c r="F15" s="29" t="s">
         <v>781</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29" t="s">
         <v>715</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="L15" s="29" t="s">
         <v>716</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="M15" s="29" t="s">
         <v>717</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="N15" s="29" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="38" t="s">
         <v>342</v>
       </c>
       <c r="C16" s="32" t="s">
@@ -10441,24 +11591,28 @@
       <c r="F16" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="30" t="s">
         <v>944</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="L16" s="30" t="s">
         <v>945</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="M16" s="30" t="s">
         <v>946</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="N16" s="30" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="33" t="s">
         <v>756</v>
       </c>
@@ -10471,24 +11625,28 @@
       <c r="F17" s="33" t="s">
         <v>759</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="30" t="s">
         <v>1033</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="L17" s="30" t="s">
         <v>1034</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="M17" s="30" t="s">
         <v>1035</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="N17" s="30" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="38" t="s">
         <v>1107</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -10504,23 +11662,35 @@
         <v>1119</v>
       </c>
       <c r="G18" s="30" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>1404</v>
+      </c>
+      <c r="K18" s="30" t="s">
         <v>1158</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="L18" s="30" t="s">
         <v>1159</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="M18" s="30" t="s">
         <v>1160</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="N18" s="30" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="30" t="s">
         <v>1120</v>
       </c>
@@ -10533,24 +11703,36 @@
       <c r="F19" s="30" t="s">
         <v>1123</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="30" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>1407</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K19" s="33" t="s">
         <v>1162</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="L19" s="33" t="s">
         <v>1163</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="M19" s="33" t="s">
         <v>1164</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="N19" s="33" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>399</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="38" t="s">
         <v>1174</v>
       </c>
       <c r="C20" s="30" t="s">
@@ -10565,24 +11747,36 @@
       <c r="F20" s="30" t="s">
         <v>1194</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="30" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>1435</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>1436</v>
+      </c>
+      <c r="K20" s="33" t="s">
         <v>1215</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="L20" s="33" t="s">
         <v>1216</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="M20" s="33" t="s">
         <v>1217</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="N20" s="33" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>400</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="30" t="s">
         <v>1195</v>
       </c>
@@ -10596,184 +11790,212 @@
         <v>1198</v>
       </c>
       <c r="G21" s="30" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>1439</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>1440</v>
+      </c>
+      <c r="K21" s="30" t="s">
         <v>1219</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="L21" s="30" t="s">
         <v>1220</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="M21" s="30" t="s">
         <v>1221</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="N21" s="30" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>420</v>
       </c>
-      <c r="I24" t="s">
+      <c r="M24" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>413</v>
       </c>
-      <c r="I26" t="s">
+      <c r="M26" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>414</v>
       </c>
-      <c r="I27" t="s">
+      <c r="M27" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>415</v>
       </c>
-      <c r="I28" t="s">
+      <c r="M28" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>416</v>
       </c>
-      <c r="I29" t="s">
+      <c r="M29" t="s">
         <v>416</v>
       </c>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D31" s="12" t="s">
         <v>1013</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="I31" s="12" t="s">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="M31" s="12" t="s">
         <v>1021</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D32" s="12" t="s">
         <v>1014</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="I32" s="12" t="s">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="M32" s="12" t="s">
         <v>1022</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D33" s="12" t="s">
         <v>1015</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="I33" s="12" t="s">
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="M33" s="12" t="s">
         <v>1023</v>
       </c>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D34" s="12" t="s">
         <v>1016</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="I34" s="12" t="s">
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="M34" s="12" t="s">
         <v>1024</v>
       </c>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N34" s="12"/>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>422</v>
       </c>
-      <c r="I39" t="s">
+      <c r="M39" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>413</v>
       </c>
-      <c r="I41" t="s">
+      <c r="M41" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>414</v>
       </c>
-      <c r="I42" t="s">
+      <c r="M42" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>415</v>
       </c>
-      <c r="I43" t="s">
+      <c r="M43" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>416</v>
       </c>
-      <c r="I44" t="s">
+      <c r="M44" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>1017</v>
       </c>
-      <c r="I46" t="s">
+      <c r="M46" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>1018</v>
       </c>
-      <c r="I47" t="s">
+      <c r="M47" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>1019</v>
       </c>
-      <c r="I48" t="s">
+      <c r="M48" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>1020</v>
       </c>
-      <c r="I49" t="s">
+      <c r="M49" t="s">
         <v>1040</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B12:B13"/>
@@ -10783,6 +12005,7 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10790,12 +12013,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D607B5D-8DF4-412F-9C0A-05333BA42C0E}">
-  <dimension ref="A2:K49"/>
+  <dimension ref="A2:O49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10804,14 +12027,18 @@
     <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="4" width="22.109375" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -10819,25 +12046,31 @@
         <v>877</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="38"/>
       <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
@@ -10850,24 +12083,36 @@
       <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="40" t="s">
         <v>338</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -10882,24 +12127,28 @@
       <c r="F6" s="30" t="s">
         <v>809</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30" t="s">
         <v>814</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="L6" s="30" t="s">
         <v>815</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="M6" s="30" t="s">
         <v>816</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="N6" s="30" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="31" t="s">
         <v>810</v>
       </c>
@@ -10912,24 +12161,28 @@
       <c r="F7" s="31" t="s">
         <v>813</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31" t="s">
         <v>818</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="L7" s="31" t="s">
         <v>819</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="M7" s="31" t="s">
         <v>820</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="N7" s="31" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="40" t="s">
         <v>339</v>
       </c>
       <c r="C8" s="30" t="s">
@@ -10944,24 +12197,28 @@
       <c r="F8" s="30" t="s">
         <v>833</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30" t="s">
         <v>766</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="L8" s="30" t="s">
         <v>767</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="M8" s="30" t="s">
         <v>768</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="N8" s="30" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="31" t="s">
         <v>834</v>
       </c>
@@ -10974,24 +12231,28 @@
       <c r="F9" s="31" t="s">
         <v>837</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31" t="s">
         <v>770</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="L9" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="M9" s="31" t="s">
         <v>772</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="N9" s="31" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="48" t="s">
         <v>1279</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -11006,24 +12267,28 @@
       <c r="F10" s="31" t="s">
         <v>1307</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31" t="s">
         <v>1336</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="L10" s="31" t="s">
         <v>1337</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="M10" s="31" t="s">
         <v>1338</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="N10" s="31" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="31" t="s">
         <v>1308</v>
       </c>
@@ -11036,24 +12301,28 @@
       <c r="F11" s="31" t="s">
         <v>1311</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31" t="s">
         <v>1340</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="L11" s="31" t="s">
         <v>1341</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="M11" s="31" t="s">
         <v>1342</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="N11" s="31" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>340</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -11068,24 +12337,28 @@
       <c r="F12" s="9" t="s">
         <v>849</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>855</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>856</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="N12" s="9" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="10" t="s">
         <v>850</v>
       </c>
@@ -11098,24 +12371,28 @@
       <c r="F13" s="10" t="s">
         <v>853</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10" t="s">
         <v>760</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="M13" s="10" t="s">
         <v>858</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>341</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -11130,24 +12407,28 @@
       <c r="F14" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="M14" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="N14" s="9" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="9" t="s">
         <v>786</v>
       </c>
@@ -11160,24 +12441,28 @@
       <c r="F15" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="M15" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="N15" s="9" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="38" t="s">
         <v>342</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -11192,24 +12477,28 @@
       <c r="F16" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="10" t="s">
         <v>1054</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="L16" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="M16" s="10" t="s">
         <v>1056</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="N16" s="10" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>400</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="11" t="s">
         <v>872</v>
       </c>
@@ -11222,24 +12511,28 @@
       <c r="F17" s="11" t="s">
         <v>875</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="10" t="s">
         <v>1079</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="L17" s="10" t="s">
         <v>1080</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="M17" s="10" t="s">
         <v>1081</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="38" t="s">
         <v>1107</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -11255,23 +12548,35 @@
         <v>1111</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>1166</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="L18" s="10" t="s">
         <v>1167</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="M18" s="10" t="s">
         <v>1168</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="N18" s="10" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>400</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="10" t="s">
         <v>1112</v>
       </c>
@@ -11284,24 +12589,36 @@
       <c r="F19" s="10" t="s">
         <v>1115</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
+        <v>1413</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>1170</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="L19" s="11" t="s">
         <v>1171</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="M19" s="11" t="s">
         <v>1172</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="N19" s="11" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>399</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="38" t="s">
         <v>1174</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -11316,24 +12633,36 @@
       <c r="F20" s="10" t="s">
         <v>1206</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>1444</v>
+      </c>
+      <c r="K20" s="11" t="s">
         <v>1211</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="L20" s="11" t="s">
         <v>1212</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>1213</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="N20" s="11" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>400</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="10" t="s">
         <v>1199</v>
       </c>
@@ -11347,184 +12676,212 @@
         <v>1202</v>
       </c>
       <c r="G21" s="10" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>1447</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>1448</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>1207</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="L21" s="10" t="s">
         <v>1208</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="M21" s="10" t="s">
         <v>1209</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>420</v>
       </c>
-      <c r="I24" t="s">
+      <c r="M24" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>413</v>
       </c>
-      <c r="I26" t="s">
+      <c r="M26" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>414</v>
       </c>
-      <c r="I27" t="s">
+      <c r="M27" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>415</v>
       </c>
-      <c r="I28" t="s">
+      <c r="M28" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>416</v>
       </c>
-      <c r="I29" t="s">
+      <c r="M29" t="s">
         <v>416</v>
       </c>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D31" s="12" t="s">
         <v>1029</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="I31" s="12" t="s">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="M31" s="12" t="s">
         <v>1071</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D32" s="12" t="s">
         <v>1030</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="I32" s="12" t="s">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="M32" s="12" t="s">
         <v>1072</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D33" s="12" t="s">
         <v>1031</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="I33" s="12" t="s">
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="M33" s="12" t="s">
         <v>1073</v>
       </c>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D34" s="12" t="s">
         <v>1032</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="I34" s="12" t="s">
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="M34" s="12" t="s">
         <v>1074</v>
       </c>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="N34" s="12"/>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>422</v>
       </c>
-      <c r="I39" t="s">
+      <c r="M39" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>413</v>
       </c>
-      <c r="I41" t="s">
+      <c r="M41" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>414</v>
       </c>
-      <c r="I42" t="s">
+      <c r="M42" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>415</v>
       </c>
-      <c r="I43" t="s">
+      <c r="M43" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>416</v>
       </c>
-      <c r="I44" t="s">
+      <c r="M44" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>1025</v>
       </c>
-      <c r="I46" t="s">
+      <c r="M46" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>1026</v>
       </c>
-      <c r="I47" t="s">
+      <c r="M47" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>1027</v>
       </c>
-      <c r="I48" t="s">
+      <c r="M48" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>1028</v>
       </c>
-      <c r="I49" t="s">
+      <c r="M49" t="s">
         <v>1086</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B12:B13"/>
@@ -11534,6 +12891,7 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11754,10 +13112,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="36"/>
       <c r="D18" t="s">
         <v>212</v>
       </c>
@@ -11993,10 +13351,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="36"/>
       <c r="D18" t="s">
         <v>226</v>
       </c>
@@ -12231,10 +13589,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12458,10 +13816,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="36"/>
       <c r="D18" t="s">
         <v>234</v>
       </c>
@@ -12701,10 +14059,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="36"/>
       <c r="D18" t="s">
         <v>598</v>
       </c>
@@ -12914,10 +14272,10 @@
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="34"/>
+      <c r="C36" s="36"/>
       <c r="D36" t="s">
         <v>736</v>
       </c>
@@ -13127,10 +14485,10 @@
       <c r="D53" s="6"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="C54" s="35"/>
+      <c r="C54" s="37"/>
       <c r="D54" t="s">
         <v>744</v>
       </c>
@@ -13340,10 +14698,10 @@
       <c r="D71" s="6"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="C72" s="34"/>
+      <c r="C72" s="36"/>
       <c r="D72" t="s">
         <v>740</v>
       </c>
@@ -13581,10 +14939,10 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="36"/>
       <c r="D18" t="s">
         <v>230</v>
       </c>
@@ -13820,10 +15178,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="36"/>
       <c r="D19" t="s">
         <v>219</v>
       </c>
@@ -14059,8 +15417,8 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Kochia/results/Summary.xlsx
+++ b/Kochia/results/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w63x712\Documents\Machine_Learning\HSI_selection2\Kochia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B18522-DF4C-407E-A6FD-E98CC0398B8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAEE81E-BB6C-4066-ADB2-DCEED20ACDB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="662" firstSheet="12" activeTab="16" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="1449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="1721">
   <si>
     <t>150 bands</t>
   </si>
@@ -4397,6 +4397,822 @@
   </si>
   <si>
     <t>87.872% (+/- 1.534%)</t>
+  </si>
+  <si>
+    <t>94.075% (+/- 0.602%)</t>
+  </si>
+  <si>
+    <t>94.667% (+/- 0.568%)</t>
+  </si>
+  <si>
+    <t>94.544% (+/- 0.535%)</t>
+  </si>
+  <si>
+    <t>94.597% (+/- 0.537%)</t>
+  </si>
+  <si>
+    <t>91.590% (+/- 1.250%)</t>
+  </si>
+  <si>
+    <t>92.519% (+/- 1.053%)</t>
+  </si>
+  <si>
+    <t>91.875% (+/- 1.240%)</t>
+  </si>
+  <si>
+    <t>92.167% (+/- 1.155%)</t>
+  </si>
+  <si>
+    <t>92.815% (+/- 0.789%)</t>
+  </si>
+  <si>
+    <t>93.407% (+/- 0.694%)</t>
+  </si>
+  <si>
+    <t>92.919% (+/- 0.912%)</t>
+  </si>
+  <si>
+    <t>93.145% (+/- 0.801%)</t>
+  </si>
+  <si>
+    <t>93.046% (+/- 0.898%)</t>
+  </si>
+  <si>
+    <t>93.855% (+/- 0.804%)</t>
+  </si>
+  <si>
+    <t>93.425% (+/- 0.839%)</t>
+  </si>
+  <si>
+    <t>93.616% (+/- 0.829%)</t>
+  </si>
+  <si>
+    <t>92.888% (+/- 0.710%)</t>
+  </si>
+  <si>
+    <t>93.451% (+/- 0.644%)</t>
+  </si>
+  <si>
+    <t>93.210% (+/- 0.674%)</t>
+  </si>
+  <si>
+    <t>93.320% (+/- 0.648%)</t>
+  </si>
+  <si>
+    <t>92.878% (+/- 0.548%)</t>
+  </si>
+  <si>
+    <t>93.628% (+/- 0.547%)</t>
+  </si>
+  <si>
+    <t>93.095% (+/- 0.460%)</t>
+  </si>
+  <si>
+    <t>93.340% (+/- 0.499%)</t>
+  </si>
+  <si>
+    <t>93.116% (+/- 0.322%)</t>
+  </si>
+  <si>
+    <t>93.690% (+/- 0.277%)</t>
+  </si>
+  <si>
+    <t>93.126% (+/- 0.457%)</t>
+  </si>
+  <si>
+    <t>93.388% (+/- 0.343%)</t>
+  </si>
+  <si>
+    <t>91.013% (+/- 1.370%)</t>
+  </si>
+  <si>
+    <t>91.974% (+/- 1.282%)</t>
+  </si>
+  <si>
+    <t>91.543% (+/- 1.351%)</t>
+  </si>
+  <si>
+    <t>91.745% (+/- 1.312%)</t>
+  </si>
+  <si>
+    <t>92.308% (+/- 0.832%)</t>
+  </si>
+  <si>
+    <t>92.997% (+/- 0.814%)</t>
+  </si>
+  <si>
+    <t>92.732% (+/- 0.890%)</t>
+  </si>
+  <si>
+    <t>92.855% (+/- 0.834%)</t>
+  </si>
+  <si>
+    <t>90.526% (+/- 1.648%)</t>
+  </si>
+  <si>
+    <t>91.701% (+/- 1.370%)</t>
+  </si>
+  <si>
+    <t>91.008% (+/- 1.722%)</t>
+  </si>
+  <si>
+    <t>91.321% (+/- 1.566%)</t>
+  </si>
+  <si>
+    <t>91.919% (+/- 0.813%)</t>
+  </si>
+  <si>
+    <t>92.689% (+/- 0.713%)</t>
+  </si>
+  <si>
+    <t>92.210% (+/- 0.868%)</t>
+  </si>
+  <si>
+    <t>92.427% (+/- 0.793%)</t>
+  </si>
+  <si>
+    <t>8 bands: 100% dataset</t>
+  </si>
+  <si>
+    <t>8 bands: 75% dataset</t>
+  </si>
+  <si>
+    <t>[2, 5, 18, 31, 54, 65, 68, 74]</t>
+  </si>
+  <si>
+    <t>91.499% (+/- 0.876%)</t>
+  </si>
+  <si>
+    <t>92.197% (+/- 0.822%)</t>
+  </si>
+  <si>
+    <t>92.077% (+/- 0.819%)</t>
+  </si>
+  <si>
+    <t>92.121% (+/- 0.805%)</t>
+  </si>
+  <si>
+    <t>93.200% (+/- 0.550%)</t>
+  </si>
+  <si>
+    <t>93.723% (+/- 0.508%)</t>
+  </si>
+  <si>
+    <t>92.913% (+/- 0.599%)</t>
+  </si>
+  <si>
+    <t>93.369% (+/- 0.706%)</t>
+  </si>
+  <si>
+    <t>93.162% (+/- 0.678%)</t>
+  </si>
+  <si>
+    <t>93.249% (+/- 0.658%)</t>
+  </si>
+  <si>
+    <t>[1, 18, 43, 67, 74, 78, 81, 143]</t>
+  </si>
+  <si>
+    <t>93.360% (+/- 0.675%)</t>
+  </si>
+  <si>
+    <t>93.869% (+/- 0.608%)</t>
+  </si>
+  <si>
+    <t>93.712% (+/- 0.693%)</t>
+  </si>
+  <si>
+    <t>93.775% (+/- 0.647%)</t>
+  </si>
+  <si>
+    <t>93.238% (+/- 0.865%)</t>
+  </si>
+  <si>
+    <t>93.849% (+/- 0.721%)</t>
+  </si>
+  <si>
+    <t>93.715% (+/- 0.954%)</t>
+  </si>
+  <si>
+    <t>93.772% (+/- 0.817%)</t>
+  </si>
+  <si>
+    <t>[0, 4, 18, 31, 43, 63, 68, 74]</t>
+  </si>
+  <si>
+    <t>93.284% (+/- 0.618%)</t>
+  </si>
+  <si>
+    <t>93.933% (+/- 0.519%)</t>
+  </si>
+  <si>
+    <t>93.773% (+/- 0.556%)</t>
+  </si>
+  <si>
+    <t>93.842% (+/- 0.530%)</t>
+  </si>
+  <si>
+    <t>93.474% (+/- 0.587%)</t>
+  </si>
+  <si>
+    <t>94.151% (+/- 0.442%)</t>
+  </si>
+  <si>
+    <t>93.849% (+/- 0.597%)</t>
+  </si>
+  <si>
+    <t>93.983% (+/- 0.510%)</t>
+  </si>
+  <si>
+    <t>92.035% (+/- 0.598%)</t>
+  </si>
+  <si>
+    <t>92.650% (+/- 0.450%)</t>
+  </si>
+  <si>
+    <t>92.378% (+/- 0.589%)</t>
+  </si>
+  <si>
+    <t>92.492% (+/- 0.486%)</t>
+  </si>
+  <si>
+    <t>93.567% (+/- 0.634%)</t>
+  </si>
+  <si>
+    <t>93.636% (+/- 0.567%)</t>
+  </si>
+  <si>
+    <t>8 bands: 50% dataset</t>
+  </si>
+  <si>
+    <t>90.437% (+/- 0.718%)</t>
+  </si>
+  <si>
+    <t>91.278% (+/- 0.624%)</t>
+  </si>
+  <si>
+    <t>91.034% (+/- 0.706%)</t>
+  </si>
+  <si>
+    <t>91.116% (+/- 0.655%)</t>
+  </si>
+  <si>
+    <t>90.437% (+/- 1.010%)</t>
+  </si>
+  <si>
+    <t>91.249% (+/- 0.903%)</t>
+  </si>
+  <si>
+    <t>90.958% (+/- 1.042%)</t>
+  </si>
+  <si>
+    <t>91.062% (+/- 0.957%)</t>
+  </si>
+  <si>
+    <t>90.418% (+/- 0.956%)</t>
+  </si>
+  <si>
+    <t>91.206% (+/- 0.871%)</t>
+  </si>
+  <si>
+    <t>90.716% (+/- 0.997%)</t>
+  </si>
+  <si>
+    <t>90.934% (+/- 0.920%)</t>
+  </si>
+  <si>
+    <t>90.621% (+/- 0.828%)</t>
+  </si>
+  <si>
+    <t>91.402% (+/- 0.736%)</t>
+  </si>
+  <si>
+    <t>91.055% (+/- 0.738%)</t>
+  </si>
+  <si>
+    <t>91.188% (+/- 0.736%)</t>
+  </si>
+  <si>
+    <t>91.355% (+/- 0.514%)</t>
+  </si>
+  <si>
+    <t>92.180% (+/- 0.475%)</t>
+  </si>
+  <si>
+    <t>91.973% (+/- 0.606%)</t>
+  </si>
+  <si>
+    <t>92.052% (+/- 0.518%)</t>
+  </si>
+  <si>
+    <t>91.279% (+/- 1.037%)</t>
+  </si>
+  <si>
+    <t>91.955% (+/- 0.886%)</t>
+  </si>
+  <si>
+    <t>91.962% (+/- 1.016%)</t>
+  </si>
+  <si>
+    <t>91.932% (+/- 0.939%)</t>
+  </si>
+  <si>
+    <t>90.918% (+/- 1.032%)</t>
+  </si>
+  <si>
+    <t>91.899% (+/- 0.854%)</t>
+  </si>
+  <si>
+    <t>91.416% (+/- 1.068%)</t>
+  </si>
+  <si>
+    <t>91.616% (+/- 0.961%)</t>
+  </si>
+  <si>
+    <t>89.158% (+/- 1.139%)</t>
+  </si>
+  <si>
+    <t>90.061% (+/- 0.955%)</t>
+  </si>
+  <si>
+    <t>89.576% (+/- 1.150%)</t>
+  </si>
+  <si>
+    <t>89.753% (+/- 1.041%)</t>
+  </si>
+  <si>
+    <t>93.200% (+/- 0.612%)</t>
+  </si>
+  <si>
+    <t>93.813% (+/- 0.394%)</t>
+  </si>
+  <si>
+    <t>93.480% (+/- 0.789%)</t>
+  </si>
+  <si>
+    <t>93.627% (+/- 0.599%)</t>
+  </si>
+  <si>
+    <t>90.101% (+/- 0.742%)</t>
+  </si>
+  <si>
+    <t>90.912% (+/- 0.621%)</t>
+  </si>
+  <si>
+    <t>90.875% (+/- 0.837%)</t>
+  </si>
+  <si>
+    <t>90.874% (+/- 0.687%)</t>
+  </si>
+  <si>
+    <t>90.426% (+/- 1.760%)</t>
+  </si>
+  <si>
+    <t>91.342% (+/- 1.637%)</t>
+  </si>
+  <si>
+    <t>90.732% (+/- 1.690%)</t>
+  </si>
+  <si>
+    <t>91.006% (+/- 1.650%)</t>
+  </si>
+  <si>
+    <t>91.169% (+/- 0.677%)</t>
+  </si>
+  <si>
+    <t>91.608% (+/- 0.755%)</t>
+  </si>
+  <si>
+    <t>91.404% (+/- 0.762%)</t>
+  </si>
+  <si>
+    <t>91.488% (+/- 0.689%)</t>
+  </si>
+  <si>
+    <t>91.477% (+/- 0.666%)</t>
+  </si>
+  <si>
+    <t>92.277% (+/- 0.724%)</t>
+  </si>
+  <si>
+    <t>91.949% (+/- 0.647%)</t>
+  </si>
+  <si>
+    <t>92.095% (+/- 0.638%)</t>
+  </si>
+  <si>
+    <t>8 bands: 25% dataset</t>
+  </si>
+  <si>
+    <t>85.684% (+/- 1.538%)</t>
+  </si>
+  <si>
+    <t>87.017% (+/- 1.297%)</t>
+  </si>
+  <si>
+    <t>86.037% (+/- 1.565%)</t>
+  </si>
+  <si>
+    <t>86.428% (+/- 1.473%)</t>
+  </si>
+  <si>
+    <t>85.975% (+/- 1.168%)</t>
+  </si>
+  <si>
+    <t>87.128% (+/- 1.204%)</t>
+  </si>
+  <si>
+    <t>86.364% (+/- 1.254%)</t>
+  </si>
+  <si>
+    <t>86.650% (+/- 1.239%)</t>
+  </si>
+  <si>
+    <t>85.975% (+/- 1.042%)</t>
+  </si>
+  <si>
+    <t>87.047% (+/- 1.211%)</t>
+  </si>
+  <si>
+    <t>85.936% (+/- 1.074%)</t>
+  </si>
+  <si>
+    <t>86.368% (+/- 1.100%)</t>
+  </si>
+  <si>
+    <t>86.532% (+/- 0.948%)</t>
+  </si>
+  <si>
+    <t>87.713% (+/- 1.014%)</t>
+  </si>
+  <si>
+    <t>86.641% (+/- 1.112%)</t>
+  </si>
+  <si>
+    <t>87.046% (+/- 1.038%)</t>
+  </si>
+  <si>
+    <t>86.316% (+/- 1.137%)</t>
+  </si>
+  <si>
+    <t>87.532% (+/- 1.147%)</t>
+  </si>
+  <si>
+    <t>86.757% (+/- 1.255%)</t>
+  </si>
+  <si>
+    <t>87.048% (+/- 1.202%)</t>
+  </si>
+  <si>
+    <t>[0, 4, 18, 43, 74, 79, 140, 146]</t>
+  </si>
+  <si>
+    <t>89.455% (+/- 0.930%)</t>
+  </si>
+  <si>
+    <t>90.564% (+/- 0.843%)</t>
+  </si>
+  <si>
+    <t>89.952% (+/- 0.780%)</t>
+  </si>
+  <si>
+    <t>90.238% (+/- 0.771%)</t>
+  </si>
+  <si>
+    <t>90.266% (+/- 0.622%)</t>
+  </si>
+  <si>
+    <t>91.004% (+/- 0.598%)</t>
+  </si>
+  <si>
+    <t>90.497% (+/- 0.665%)</t>
+  </si>
+  <si>
+    <t>90.731% (+/- 0.621%)</t>
+  </si>
+  <si>
+    <t>88.936% (+/- 0.950%)</t>
+  </si>
+  <si>
+    <t>90.065% (+/- 0.897%)</t>
+  </si>
+  <si>
+    <t>89.556% (+/- 1.015%)</t>
+  </si>
+  <si>
+    <t>89.793% (+/- 0.933%)</t>
+  </si>
+  <si>
+    <t>90.481% (+/- 0.761%)</t>
+  </si>
+  <si>
+    <t>91.453% (+/- 0.690%)</t>
+  </si>
+  <si>
+    <t>90.920% (+/- 0.861%)</t>
+  </si>
+  <si>
+    <t>91.166% (+/- 0.759%)</t>
+  </si>
+  <si>
+    <t>91.579% (+/- 0.568%)</t>
+  </si>
+  <si>
+    <t>92.384% (+/- 0.578%)</t>
+  </si>
+  <si>
+    <t>91.882% (+/- 0.650%)</t>
+  </si>
+  <si>
+    <t>92.109% (+/- 0.579%)</t>
+  </si>
+  <si>
+    <t>91.612% (+/- 0.658%)</t>
+  </si>
+  <si>
+    <t>92.268% (+/- 0.598%)</t>
+  </si>
+  <si>
+    <t>91.734% (+/- 0.770%)</t>
+  </si>
+  <si>
+    <t>91.979% (+/- 0.657%)</t>
+  </si>
+  <si>
+    <t>88.676% (+/- 1.125%)</t>
+  </si>
+  <si>
+    <t>89.761% (+/- 1.083%)</t>
+  </si>
+  <si>
+    <t>88.850% (+/- 1.177%)</t>
+  </si>
+  <si>
+    <t>89.245% (+/- 1.105%)</t>
+  </si>
+  <si>
+    <t>88.942% (+/- 0.872%)</t>
+  </si>
+  <si>
+    <t>89.769% (+/- 0.792%)</t>
+  </si>
+  <si>
+    <t>89.031% (+/- 0.888%)</t>
+  </si>
+  <si>
+    <t>89.348% (+/- 0.810%)</t>
+  </si>
+  <si>
+    <t>84.722% (+/- 0.942%)</t>
+  </si>
+  <si>
+    <t>86.280% (+/- 1.183%)</t>
+  </si>
+  <si>
+    <t>84.612% (+/- 1.056%)</t>
+  </si>
+  <si>
+    <t>85.251% (+/- 1.015%)</t>
+  </si>
+  <si>
+    <t>84.823% (+/- 1.097%)</t>
+  </si>
+  <si>
+    <t>85.914% (+/- 1.079%)</t>
+  </si>
+  <si>
+    <t>84.604% (+/- 1.269%)</t>
+  </si>
+  <si>
+    <t>85.134% (+/- 1.145%)</t>
+  </si>
+  <si>
+    <t>86.897% (+/- 1.386%)</t>
+  </si>
+  <si>
+    <t>88.406% (+/- 1.081%)</t>
+  </si>
+  <si>
+    <t>87.229% (+/- 1.620%)</t>
+  </si>
+  <si>
+    <t>87.741% (+/- 1.356%)</t>
+  </si>
+  <si>
+    <t>86.909% (+/- 1.338%)</t>
+  </si>
+  <si>
+    <t>87.575% (+/- 1.222%)</t>
+  </si>
+  <si>
+    <t>86.970% (+/- 1.454%)</t>
+  </si>
+  <si>
+    <t>87.232% (+/- 1.324%)</t>
+  </si>
+  <si>
+    <t>86.544% (+/- 1.738%)</t>
+  </si>
+  <si>
+    <t>87.589% (+/- 1.739%)</t>
+  </si>
+  <si>
+    <t>86.532% (+/- 1.858%)</t>
+  </si>
+  <si>
+    <t>86.960% (+/- 1.795%)</t>
+  </si>
+  <si>
+    <t>86.165% (+/- 1.438%)</t>
+  </si>
+  <si>
+    <t>87.260% (+/- 1.058%)</t>
+  </si>
+  <si>
+    <t>86.654% (+/- 1.596%)</t>
+  </si>
+  <si>
+    <t>86.852% (+/- 1.362%)</t>
+  </si>
+  <si>
+    <t>84.570% (+/- 1.299%)</t>
+  </si>
+  <si>
+    <t>85.785% (+/- 1.451%)</t>
+  </si>
+  <si>
+    <t>84.606% (+/- 1.348%)</t>
+  </si>
+  <si>
+    <t>85.034% (+/- 1.381%)</t>
+  </si>
+  <si>
+    <t>86.580% (+/- 1.578%)</t>
+  </si>
+  <si>
+    <t>87.882% (+/- 1.215%)</t>
+  </si>
+  <si>
+    <t>87.371% (+/- 1.726%)</t>
+  </si>
+  <si>
+    <t>87.582% (+/- 1.488%)</t>
+  </si>
+  <si>
+    <t>87.821% (+/- 1.235%)</t>
+  </si>
+  <si>
+    <t>88.920% (+/- 1.266%)</t>
+  </si>
+  <si>
+    <t>88.443% (+/- 1.332%)</t>
+  </si>
+  <si>
+    <t>88.633% (+/- 1.278%)</t>
+  </si>
+  <si>
+    <t>82.595% (+/- 1.341%)</t>
+  </si>
+  <si>
+    <t>84.231% (+/- 1.668%)</t>
+  </si>
+  <si>
+    <t>83.193% (+/- 1.260%)</t>
+  </si>
+  <si>
+    <t>83.610% (+/- 1.387%)</t>
+  </si>
+  <si>
+    <t>83.139% (+/- 1.293%)</t>
+  </si>
+  <si>
+    <t>84.586% (+/- 1.353%)</t>
+  </si>
+  <si>
+    <t>83.852% (+/- 1.220%)</t>
+  </si>
+  <si>
+    <t>84.130% (+/- 1.210%)</t>
+  </si>
+  <si>
+    <t>84.177% (+/- 1.256%)</t>
+  </si>
+  <si>
+    <t>86.248% (+/- 1.344%)</t>
+  </si>
+  <si>
+    <t>84.356% (+/- 1.462%)</t>
+  </si>
+  <si>
+    <t>85.117% (+/- 1.303%)</t>
+  </si>
+  <si>
+    <t>81.165% (+/- 2.037%)</t>
+  </si>
+  <si>
+    <t>82.433% (+/- 2.187%)</t>
+  </si>
+  <si>
+    <t>80.791% (+/- 2.047%)</t>
+  </si>
+  <si>
+    <t>81.450% (+/- 2.053%)</t>
+  </si>
+  <si>
+    <t>89.633% (+/- 1.329%)</t>
+  </si>
+  <si>
+    <t>90.683% (+/- 1.071%)</t>
+  </si>
+  <si>
+    <t>90.052% (+/- 1.270%)</t>
+  </si>
+  <si>
+    <t>90.322% (+/- 1.174%)</t>
+  </si>
+  <si>
+    <t>89.145% (+/- 1.079%)</t>
+  </si>
+  <si>
+    <t>90.164% (+/- 1.059%)</t>
+  </si>
+  <si>
+    <t>89.541% (+/- 1.142%)</t>
+  </si>
+  <si>
+    <t>89.811% (+/- 1.094%)</t>
+  </si>
+  <si>
+    <t>84.785% (+/- 1.003%)</t>
+  </si>
+  <si>
+    <t>86.293% (+/- 1.493%)</t>
+  </si>
+  <si>
+    <t>84.911% (+/- 0.799%)</t>
+  </si>
+  <si>
+    <t>85.507% (+/- 1.083%)</t>
+  </si>
+  <si>
+    <t>83.747% (+/- 1.047%)</t>
+  </si>
+  <si>
+    <t>85.205% (+/- 1.233%)</t>
+  </si>
+  <si>
+    <t>83.533% (+/- 0.960%)</t>
+  </si>
+  <si>
+    <t>84.233% (+/- 1.044%)</t>
+  </si>
+  <si>
+    <t>87.112% (+/- 1.415%)</t>
+  </si>
+  <si>
+    <t>88.451% (+/- 1.237%)</t>
+  </si>
+  <si>
+    <t>87.378% (+/- 1.509%)</t>
+  </si>
+  <si>
+    <t>87.842% (+/- 1.355%)</t>
+  </si>
+  <si>
+    <t>88.410% (+/- 1.312%)</t>
+  </si>
+  <si>
+    <t>89.102% (+/- 1.292%)</t>
+  </si>
+  <si>
+    <t>88.651% (+/- 1.163%)</t>
+  </si>
+  <si>
+    <t>88.843% (+/- 1.211%)</t>
+  </si>
+  <si>
+    <t>83.608% (+/- 1.600%)</t>
+  </si>
+  <si>
+    <t>84.921% (+/- 1.594%)</t>
+  </si>
+  <si>
+    <t>83.776% (+/- 1.571%)</t>
+  </si>
+  <si>
+    <t>84.260% (+/- 1.574%)</t>
+  </si>
+  <si>
+    <t>82.570% (+/- 1.210%)</t>
+  </si>
+  <si>
+    <t>83.706% (+/- 1.299%)</t>
+  </si>
+  <si>
+    <t>82.469% (+/- 1.461%)</t>
+  </si>
+  <si>
+    <t>82.932% (+/- 1.232%)</t>
   </si>
 </sst>
 </file>
@@ -4563,7 +5379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4691,9 +5507,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5814,9 +6627,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>15754</xdr:colOff>
+      <xdr:colOff>19564</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>129760</xdr:rowOff>
+      <xdr:rowOff>133570</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5857,9 +6670,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1540818</xdr:colOff>
+      <xdr:colOff>1544628</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>133650</xdr:rowOff>
+      <xdr:rowOff>129840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5900,9 +6713,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19253</xdr:colOff>
+      <xdr:colOff>15443</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>133572</xdr:rowOff>
+      <xdr:rowOff>129762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5945,7 +6758,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>1522045</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>132085</xdr:rowOff>
+      <xdr:rowOff>135895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6034,9 +6847,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1545687</xdr:colOff>
+      <xdr:colOff>1541877</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>135055</xdr:rowOff>
+      <xdr:rowOff>131245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6120,9 +6933,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1507116</xdr:colOff>
+      <xdr:colOff>1503306</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>136717</xdr:rowOff>
+      <xdr:rowOff>132907</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6601,7 +7414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8923B1-D07A-456F-A714-3288CE84B256}">
   <dimension ref="B3:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -7482,8 +8295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFD775D-9E0A-47CA-A1F9-F372C0ABB720}">
   <dimension ref="B3:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:G10"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7500,7 +8313,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>719</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -7700,69 +8513,193 @@
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
     </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="B21" s="4">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>1499</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="B22" s="34">
+        <v>11</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>1529</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>1505</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="B24" s="34">
+        <v>9</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>1510</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="34"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
+      <c r="B25" s="4">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="B26" s="4">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>1519</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="B27" s="3">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>1523</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="34"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
+      <c r="B28" s="34">
+        <v>5</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>1527</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="34"/>
@@ -7781,69 +8718,193 @@
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
     </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
+      <c r="B37" s="4">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>1534</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="B38" s="34">
+        <v>11</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>1538</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
+      <c r="B39" s="4">
+        <v>10</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>1542</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="B40" s="34">
+        <v>9</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>1546</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="34"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
+      <c r="B41" s="3">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>1550</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
+      <c r="B42" s="4">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>1554</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="B43" s="4">
+        <v>6</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>1558</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
+      <c r="B44" s="34">
+        <v>5</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>1562</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="34"/>
@@ -7866,77 +8927,193 @@
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
     </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1583</v>
+      </c>
+    </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
+      <c r="B52" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="B53" s="4">
+        <v>12</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>1587</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
+      <c r="B54" s="34">
+        <v>11</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>1591</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="4"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="B55" s="4">
+        <v>10</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>1595</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="34"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
+      <c r="B56" s="34">
+        <v>9</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>1599</v>
+      </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="B57" s="3">
+        <v>8</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>1603</v>
+      </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+      <c r="B58" s="4">
+        <v>7</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>1656</v>
+      </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="34"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
+      <c r="B59" s="4">
+        <v>6</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>1660</v>
+      </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
+      <c r="B60" s="34">
+        <v>5</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G60" s="34" t="s">
+        <v>1664</v>
+      </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="6"/>
@@ -8786,8 +9963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13495555-31D4-4576-9C86-E21C2334E536}">
   <dimension ref="A2:V67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8916,10 +10093,18 @@
       <c r="F6" s="10" t="s">
         <v>967</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>1469</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>1472</v>
+      </c>
       <c r="K6" s="10" t="s">
         <v>652</v>
       </c>
@@ -8960,10 +10145,18 @@
       <c r="F7" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>1476</v>
+      </c>
       <c r="K7" s="9" t="s">
         <v>656</v>
       </c>
@@ -9006,10 +10199,18 @@
       <c r="F8" s="10" t="s">
         <v>1283</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>1480</v>
+      </c>
       <c r="K8" s="28" t="s">
         <v>1312</v>
       </c>
@@ -9043,10 +10244,18 @@
       <c r="F9" s="10" t="s">
         <v>1287</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>1484</v>
+      </c>
       <c r="K9" s="28" t="s">
         <v>1316</v>
       </c>
@@ -9082,10 +10291,18 @@
       <c r="F10" s="10" t="s">
         <v>971</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>1488</v>
+      </c>
       <c r="K10" s="10" t="s">
         <v>676</v>
       </c>
@@ -9126,10 +10343,18 @@
       <c r="F11" s="9" t="s">
         <v>975</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="G11" s="35" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>1492</v>
+      </c>
       <c r="K11" s="9" t="s">
         <v>680</v>
       </c>
@@ -9172,10 +10397,18 @@
       <c r="F12" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="G12" s="35" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>1463</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>1464</v>
+      </c>
       <c r="K12" s="9" t="s">
         <v>691</v>
       </c>
@@ -9216,10 +10449,18 @@
       <c r="F13" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>1468</v>
+      </c>
       <c r="K13" s="10" t="s">
         <v>695</v>
       </c>
@@ -9262,10 +10503,18 @@
       <c r="F14" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
+      <c r="G14" s="35" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>1456</v>
+      </c>
       <c r="K14" s="9" t="s">
         <v>864</v>
       </c>
@@ -9306,10 +10555,18 @@
       <c r="F15" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
+      <c r="G15" s="35" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>1460</v>
+      </c>
       <c r="K15" s="9" t="s">
         <v>868</v>
       </c>
@@ -9404,10 +10661,18 @@
       <c r="F17" s="11" t="s">
         <v>751</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="G17" s="10" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>1452</v>
+      </c>
       <c r="K17" s="10" t="s">
         <v>952</v>
       </c>
@@ -9602,16 +10867,16 @@
       <c r="F21" s="10" t="s">
         <v>1178</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="11" t="s">
         <v>1421</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="11" t="s">
         <v>1422</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="11" t="s">
         <v>1423</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="11" t="s">
         <v>1424</v>
       </c>
       <c r="K21" s="11" t="s">
@@ -10245,8 +11510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BDEE5B-F941-4815-9630-CCD6C7441D26}">
   <dimension ref="A2:O49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10355,10 +11620,18 @@
       <c r="F6" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>1623</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>1624</v>
+      </c>
       <c r="K6" s="10" t="s">
         <v>660</v>
       </c>
@@ -10389,10 +11662,18 @@
       <c r="F7" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="G7" s="35" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>1628</v>
+      </c>
       <c r="K7" s="9" t="s">
         <v>664</v>
       </c>
@@ -10425,10 +11706,18 @@
       <c r="F8" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>1605</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>1608</v>
+      </c>
       <c r="K8" s="10" t="s">
         <v>683</v>
       </c>
@@ -10459,10 +11748,18 @@
       <c r="F9" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="G9" s="35" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>1612</v>
+      </c>
       <c r="K9" s="9" t="s">
         <v>687</v>
       </c>
@@ -10495,10 +11792,18 @@
       <c r="F10" s="28" t="s">
         <v>1291</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="G10" s="35" t="s">
+        <v>1613</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>1616</v>
+      </c>
       <c r="K10" s="28" t="s">
         <v>1320</v>
       </c>
@@ -10529,10 +11834,18 @@
       <c r="F11" s="28" t="s">
         <v>1295</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="G11" s="35" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>1619</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>1620</v>
+      </c>
       <c r="K11" s="28" t="s">
         <v>1324</v>
       </c>
@@ -10565,10 +11878,18 @@
       <c r="F12" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="G12" s="35" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>1582</v>
+      </c>
       <c r="K12" s="9" t="s">
         <v>699</v>
       </c>
@@ -10599,10 +11920,18 @@
       <c r="F13" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>1468</v>
+      </c>
       <c r="K13" s="9" t="s">
         <v>703</v>
       </c>
@@ -10635,10 +11964,18 @@
       <c r="F14" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
+      <c r="G14" s="35" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>1574</v>
+      </c>
       <c r="K14" s="29" t="s">
         <v>1267</v>
       </c>
@@ -10669,10 +12006,18 @@
       <c r="F15" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
+      <c r="G15" s="35" t="s">
+        <v>1575</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>1578</v>
+      </c>
       <c r="K15" s="29" t="s">
         <v>1263</v>
       </c>
@@ -10705,10 +12050,18 @@
       <c r="F16" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
+      <c r="G16" s="10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>1522</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>1523</v>
+      </c>
       <c r="K16" s="4" t="s">
         <v>916</v>
       </c>
@@ -10739,10 +12092,18 @@
       <c r="F17" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="G17" s="10" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>1565</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>1566</v>
+      </c>
       <c r="K17" s="10" t="s">
         <v>996</v>
       </c>
@@ -10861,16 +12222,16 @@
       <c r="F20" s="10" t="s">
         <v>1186</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
         <v>1425</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="11" t="s">
         <v>1426</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="11" t="s">
         <v>1427</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="11" t="s">
         <v>1428</v>
       </c>
       <c r="K20" s="11" t="s">
@@ -10903,16 +12264,16 @@
       <c r="F21" s="10" t="s">
         <v>1190</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="11" t="s">
         <v>1429</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="11" t="s">
         <v>1430</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="11" t="s">
         <v>1431</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="11" t="s">
         <v>1432</v>
       </c>
       <c r="K21" s="10" t="s">
@@ -11132,7 +12493,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11241,10 +12602,18 @@
       <c r="F6" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>1632</v>
+      </c>
       <c r="K6" s="10" t="s">
         <v>668</v>
       </c>
@@ -11275,10 +12644,18 @@
       <c r="F7" s="9" t="s">
         <v>805</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="G7" s="35" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>1635</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>1636</v>
+      </c>
       <c r="K7" s="9" t="s">
         <v>672</v>
       </c>
@@ -11311,10 +12688,18 @@
       <c r="F8" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>1647</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>1648</v>
+      </c>
       <c r="K8" s="10" t="s">
         <v>1271</v>
       </c>
@@ -11345,10 +12730,18 @@
       <c r="F9" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="G9" s="35" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>1651</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>1652</v>
+      </c>
       <c r="K9" s="24" t="s">
         <v>1275</v>
       </c>
@@ -11381,10 +12774,18 @@
       <c r="F10" s="28" t="s">
         <v>1299</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="G10" s="35" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>1667</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>1668</v>
+      </c>
       <c r="K10" s="28" t="s">
         <v>1328</v>
       </c>
@@ -11415,10 +12816,18 @@
       <c r="F11" s="28" t="s">
         <v>1303</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="G11" s="35" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>1672</v>
+      </c>
       <c r="K11" s="28" t="s">
         <v>1332</v>
       </c>
@@ -11451,10 +12860,18 @@
       <c r="F12" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="G12" s="35" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>1692</v>
+      </c>
       <c r="K12" s="9" t="s">
         <v>707</v>
       </c>
@@ -11485,10 +12902,18 @@
       <c r="F13" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>1693</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>1695</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>1696</v>
+      </c>
       <c r="K13" s="10" t="s">
         <v>762</v>
       </c>
@@ -11521,10 +12946,18 @@
       <c r="F14" s="29" t="s">
         <v>777</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="G14" s="29" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>1707</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>1708</v>
+      </c>
       <c r="K14" s="29" t="s">
         <v>711</v>
       </c>
@@ -11555,10 +12988,18 @@
       <c r="F15" s="29" t="s">
         <v>781</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="G15" s="29" t="s">
+        <v>1709</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>1710</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>1712</v>
+      </c>
       <c r="K15" s="29" t="s">
         <v>715</v>
       </c>
@@ -11591,10 +13032,18 @@
       <c r="F16" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
+      <c r="G16" s="10" t="s">
+        <v>1547</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>1548</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>1550</v>
+      </c>
       <c r="K16" s="30" t="s">
         <v>944</v>
       </c>
@@ -11625,10 +13074,18 @@
       <c r="F17" s="33" t="s">
         <v>759</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
+      <c r="G17" s="30" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>1568</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>1569</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>1570</v>
+      </c>
       <c r="K17" s="30" t="s">
         <v>1033</v>
       </c>
@@ -11747,16 +13204,16 @@
       <c r="F20" s="30" t="s">
         <v>1194</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="33" t="s">
         <v>1433</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="33" t="s">
         <v>1434</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="33" t="s">
         <v>1435</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="33" t="s">
         <v>1436</v>
       </c>
       <c r="K20" s="33" t="s">
@@ -11789,16 +13246,16 @@
       <c r="F21" s="30" t="s">
         <v>1198</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="33" t="s">
         <v>1437</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="33" t="s">
         <v>1438</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="33" t="s">
         <v>1439</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="33" t="s">
         <v>1440</v>
       </c>
       <c r="K21" s="30" t="s">
@@ -12018,7 +13475,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J16" sqref="C16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12127,10 +13584,18 @@
       <c r="F6" s="30" t="s">
         <v>809</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="G6" s="30" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>1639</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>1640</v>
+      </c>
       <c r="K6" s="30" t="s">
         <v>814</v>
       </c>
@@ -12161,10 +13626,18 @@
       <c r="F7" s="31" t="s">
         <v>813</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="G7" s="31" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>1644</v>
+      </c>
       <c r="K7" s="31" t="s">
         <v>818</v>
       </c>
@@ -12197,10 +13670,18 @@
       <c r="F8" s="30" t="s">
         <v>833</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
+      <c r="G8" s="30" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>1682</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>1684</v>
+      </c>
       <c r="K8" s="30" t="s">
         <v>766</v>
       </c>
@@ -12231,10 +13712,18 @@
       <c r="F9" s="31" t="s">
         <v>837</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
+      <c r="G9" s="31" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>1688</v>
+      </c>
       <c r="K9" s="31" t="s">
         <v>770</v>
       </c>
@@ -12267,10 +13756,18 @@
       <c r="F10" s="31" t="s">
         <v>1307</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
+      <c r="G10" s="31" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>1675</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>1676</v>
+      </c>
       <c r="K10" s="31" t="s">
         <v>1336</v>
       </c>
@@ -12301,10 +13798,18 @@
       <c r="F11" s="31" t="s">
         <v>1311</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="G11" s="31" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>1680</v>
+      </c>
       <c r="K11" s="31" t="s">
         <v>1340</v>
       </c>
@@ -12337,10 +13842,18 @@
       <c r="F12" s="9" t="s">
         <v>849</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="G12" s="35" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>1699</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>1700</v>
+      </c>
       <c r="K12" s="9" t="s">
         <v>854</v>
       </c>
@@ -12371,10 +13884,18 @@
       <c r="F13" s="10" t="s">
         <v>853</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>1703</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>1704</v>
+      </c>
       <c r="K13" s="10" t="s">
         <v>760</v>
       </c>
@@ -12407,10 +13928,18 @@
       <c r="F14" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
+      <c r="G14" s="35" t="s">
+        <v>1713</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>1716</v>
+      </c>
       <c r="K14" s="9" t="s">
         <v>790</v>
       </c>
@@ -12441,10 +13970,18 @@
       <c r="F15" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
+      <c r="G15" s="35" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>1719</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>1720</v>
+      </c>
       <c r="K15" s="9" t="s">
         <v>794</v>
       </c>
@@ -12477,10 +14014,18 @@
       <c r="F16" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="G16" s="10" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>1603</v>
+      </c>
       <c r="K16" s="10" t="s">
         <v>1054</v>
       </c>
@@ -12511,10 +14056,18 @@
       <c r="F17" s="11" t="s">
         <v>875</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="G17" s="10" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>1663</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>1664</v>
+      </c>
       <c r="K17" s="10" t="s">
         <v>1079</v>
       </c>
@@ -12589,16 +14142,16 @@
       <c r="F19" s="10" t="s">
         <v>1115</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="11" t="s">
         <v>1413</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="11" t="s">
         <v>1414</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="11" t="s">
         <v>1415</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="11" t="s">
         <v>1416</v>
       </c>
       <c r="K19" s="11" t="s">
@@ -12633,16 +14186,16 @@
       <c r="F20" s="10" t="s">
         <v>1206</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
         <v>1441</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="11" t="s">
         <v>1442</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="11" t="s">
         <v>1443</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="11" t="s">
         <v>1444</v>
       </c>
       <c r="K20" s="11" t="s">

--- a/Kochia/results/Summary.xlsx
+++ b/Kochia/results/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w63x712\Documents\Machine_Learning\HSI_selection2\Kochia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAEE81E-BB6C-4066-ADB2-DCEED20ACDB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018D89DD-6E32-446C-8ED1-8C6B5B265A98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="662" firstSheet="12" activeTab="16" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="662" firstSheet="12" activeTab="16" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="150 bands" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="1725">
   <si>
     <t>150 bands</t>
   </si>
@@ -4081,9 +4081,6 @@
     <t>85.393% (+/- 1.310%)</t>
   </si>
   <si>
-    <t>\vspace{-2ex}</t>
-  </si>
-  <si>
     <t>93.958% (+/- 0.679%)</t>
   </si>
   <si>
@@ -5213,6 +5210,21 @@
   </si>
   <si>
     <t>82.932% (+/- 1.232%)</t>
+  </si>
+  <si>
+    <t>85.721% (+/- 1.424%)</t>
+  </si>
+  <si>
+    <t>91.330% (+/- 0.482%)</t>
+  </si>
+  <si>
+    <t>92.022% (+/- 0.497%)</t>
+  </si>
+  <si>
+    <t>91.723% (+/- 0.562%)</t>
+  </si>
+  <si>
+    <t>91.857% (+/- 0.493%)</t>
   </si>
 </sst>
 </file>
@@ -5481,6 +5493,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5494,18 +5518,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7414,8 +7426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8923B1-D07A-456F-A714-3288CE84B256}">
   <dimension ref="B3:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8295,8 +8307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFD775D-9E0A-47CA-A1F9-F372C0ABB720}">
   <dimension ref="B3:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView topLeftCell="A35" zoomScale="91" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8313,7 +8325,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -8341,19 +8353,19 @@
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>1344</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>1346</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -8361,19 +8373,19 @@
         <v>11</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>1349</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="E7" s="34" t="s">
         <v>1350</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="F7" s="34" t="s">
         <v>1351</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="G7" s="34" t="s">
         <v>1352</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -8381,19 +8393,19 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>1355</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>1356</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>1357</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -8401,19 +8413,19 @@
         <v>9</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>1359</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="E9" s="34" t="s">
         <v>1360</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="F9" s="34" t="s">
         <v>1361</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="G9" s="34" t="s">
         <v>1362</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -8421,19 +8433,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>1364</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>1366</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -8441,19 +8453,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>1370</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>1371</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>1372</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -8461,19 +8473,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>1374</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="E12" s="34" t="s">
         <v>1375</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="F12" s="34" t="s">
         <v>1376</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="G12" s="34" t="s">
         <v>1377</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -8481,19 +8493,19 @@
         <v>5</v>
       </c>
       <c r="C13" s="34" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>1379</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="E13" s="34" t="s">
         <v>1380</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="F13" s="34" t="s">
         <v>1381</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="G13" s="34" t="s">
         <v>1382</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -8518,7 +8530,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -8546,19 +8558,19 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>1495</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>1496</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>1497</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>1498</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -8566,19 +8578,19 @@
         <v>11</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D22" s="34" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>1500</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>1501</v>
-      </c>
       <c r="F22" s="34" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G22" s="34" t="s">
         <v>1528</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
@@ -8586,19 +8598,19 @@
         <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>1502</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>1503</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>1504</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
@@ -8606,19 +8618,19 @@
         <v>9</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D24" s="34" t="s">
         <v>1506</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="E24" s="34" t="s">
         <v>1507</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="F24" s="34" t="s">
         <v>1508</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="G24" s="34" t="s">
         <v>1509</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -8626,19 +8638,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>1511</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>1512</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>1513</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -8646,19 +8658,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>1516</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>1517</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>1518</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
@@ -8666,19 +8678,19 @@
         <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>1521</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>1522</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
@@ -8686,19 +8698,19 @@
         <v>5</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D28" s="34" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E28" s="34" t="s">
         <v>1524</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="F28" s="34" t="s">
         <v>1525</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="G28" s="34" t="s">
         <v>1526</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
@@ -8723,7 +8735,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
@@ -8751,19 +8763,19 @@
         <v>12</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>1531</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>1532</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>1533</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -8771,19 +8783,19 @@
         <v>11</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D38" s="34" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E38" s="34" t="s">
         <v>1535</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="F38" s="34" t="s">
         <v>1536</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="G38" s="34" t="s">
         <v>1537</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
@@ -8791,19 +8803,19 @@
         <v>10</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>1539</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>1540</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>1541</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
@@ -8811,19 +8823,19 @@
         <v>9</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D40" s="34" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E40" s="34" t="s">
         <v>1543</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="F40" s="34" t="s">
         <v>1544</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="G40" s="34" t="s">
         <v>1545</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
@@ -8831,19 +8843,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>1547</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>1548</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>1549</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
@@ -8851,19 +8863,19 @@
         <v>7</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>1551</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>1552</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>1553</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
@@ -8871,19 +8883,19 @@
         <v>6</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>1555</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>1556</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>1557</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
@@ -8891,19 +8903,19 @@
         <v>5</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D44" s="34" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E44" s="34" t="s">
         <v>1559</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="F44" s="34" t="s">
         <v>1560</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="G44" s="34" t="s">
         <v>1561</v>
-      </c>
-      <c r="G44" s="34" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
@@ -8932,7 +8944,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
@@ -8960,19 +8972,19 @@
         <v>12</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>1584</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>1585</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>1586</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
@@ -8980,19 +8992,19 @@
         <v>11</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D54" s="34" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E54" s="34" t="s">
         <v>1588</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="F54" s="34" t="s">
         <v>1589</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="G54" s="34" t="s">
         <v>1590</v>
-      </c>
-      <c r="G54" s="34" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
@@ -9000,19 +9012,19 @@
         <v>10</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>1592</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>1593</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>1594</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
@@ -9020,19 +9032,19 @@
         <v>9</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D56" s="34" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E56" s="34" t="s">
         <v>1596</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="F56" s="34" t="s">
         <v>1597</v>
       </c>
-      <c r="F56" s="34" t="s">
+      <c r="G56" s="34" t="s">
         <v>1598</v>
-      </c>
-      <c r="G56" s="34" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
@@ -9040,19 +9052,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="3" t="s">
         <v>1601</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>1602</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
@@ -9060,19 +9072,19 @@
         <v>7</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>1653</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>1654</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>1655</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
@@ -9080,19 +9092,19 @@
         <v>6</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>1657</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>1658</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>1659</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
@@ -9100,19 +9112,19 @@
         <v>5</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D60" s="34" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E60" s="34" t="s">
         <v>1661</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="F60" s="34" t="s">
         <v>1662</v>
       </c>
-      <c r="F60" s="34" t="s">
+      <c r="G60" s="34" t="s">
         <v>1663</v>
-      </c>
-      <c r="G60" s="34" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
@@ -9964,7 +9976,7 @@
   <dimension ref="A2:V67"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10011,7 +10023,7 @@
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -10094,16 +10106,16 @@
         <v>967</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>1469</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>1470</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>1471</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>1472</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>652</v>
@@ -10146,16 +10158,16 @@
         <v>963</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>1473</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>1474</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>1475</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>1476</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>656</v>
@@ -10184,7 +10196,7 @@
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="42" t="s">
         <v>1279</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -10200,16 +10212,16 @@
         <v>1283</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>1477</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>1478</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>1479</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>1480</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>1312</v>
@@ -10231,7 +10243,7 @@
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="10" t="s">
         <v>1284</v>
       </c>
@@ -10245,16 +10257,16 @@
         <v>1287</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>1481</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>1482</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>1483</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>1484</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>1316</v>
@@ -10292,16 +10304,16 @@
         <v>971</v>
       </c>
       <c r="G10" s="10" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>1485</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>1486</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>1487</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>1488</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>676</v>
@@ -10344,16 +10356,16 @@
         <v>975</v>
       </c>
       <c r="G11" s="35" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H11" s="35" t="s">
         <v>1489</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="I11" s="35" t="s">
         <v>1490</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="J11" s="35" t="s">
         <v>1491</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>1492</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>680</v>
@@ -10398,16 +10410,16 @@
         <v>614</v>
       </c>
       <c r="G12" s="35" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H12" s="35" t="s">
         <v>1461</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="I12" s="35" t="s">
         <v>1462</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="J12" s="35" t="s">
         <v>1463</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>1464</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>691</v>
@@ -10450,16 +10462,16 @@
         <v>618</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>1465</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>1466</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>1467</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>1468</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>695</v>
@@ -10504,16 +10516,16 @@
         <v>606</v>
       </c>
       <c r="G14" s="35" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>1453</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="I14" s="35" t="s">
         <v>1454</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="J14" s="35" t="s">
         <v>1455</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>1456</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>864</v>
@@ -10556,16 +10568,16 @@
         <v>610</v>
       </c>
       <c r="G15" s="35" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>1457</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="I15" s="35" t="s">
         <v>1458</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="J15" s="35" t="s">
         <v>1459</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>1460</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>868</v>
@@ -10610,16 +10622,16 @@
         <v>475</v>
       </c>
       <c r="G16" s="10" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>1364</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="I16" s="10" t="s">
         <v>1365</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>1366</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>1367</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>878</v>
@@ -10662,16 +10674,16 @@
         <v>751</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>1448</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>1449</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>1450</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>1451</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>1452</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>952</v>
@@ -10716,16 +10728,16 @@
         <v>1135</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>1385</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>1386</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
         <v>1387</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>1388</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>1146</v>
@@ -10758,16 +10770,16 @@
         <v>1141</v>
       </c>
       <c r="G19" s="10" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>1389</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I19" s="10" t="s">
         <v>1390</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>1391</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>1392</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>1142</v>
@@ -10793,7 +10805,7 @@
       <c r="U19" s="38" t="s">
         <v>1254</v>
       </c>
-      <c r="V19" s="41"/>
+      <c r="V19" s="45"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -10815,16 +10827,16 @@
         <v>1182</v>
       </c>
       <c r="G20" s="11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>1417</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>1418</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>1419</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>1420</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>1231</v>
@@ -10848,7 +10860,7 @@
         <v>1252</v>
       </c>
       <c r="U20" s="38"/>
-      <c r="V20" s="41"/>
+      <c r="V20" s="45"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -10868,16 +10880,16 @@
         <v>1178</v>
       </c>
       <c r="G21" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>1421</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>1422</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>1423</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>1424</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>1235</v>
@@ -10909,10 +10921,10 @@
       <c r="U21" s="38" t="s">
         <v>1255</v>
       </c>
-      <c r="V21" s="42"/>
+      <c r="V21" s="46"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="41" t="s">
         <v>399</v>
       </c>
       <c r="B22" t="s">
@@ -10934,10 +10946,10 @@
       <c r="S22" s="38"/>
       <c r="T22" s="38"/>
       <c r="U22" s="38"/>
-      <c r="V22" s="42"/>
+      <c r="V22" s="46"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+      <c r="A23" s="41"/>
       <c r="B23" t="s">
         <v>1137</v>
       </c>
@@ -10957,10 +10969,10 @@
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
       <c r="U23" s="38"/>
-      <c r="V23" s="42"/>
+      <c r="V23" s="46"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="41" t="s">
         <v>400</v>
       </c>
       <c r="B24" t="s">
@@ -10990,7 +11002,7 @@
       <c r="U24" s="38"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="41"/>
       <c r="B25" t="s">
         <v>1137</v>
       </c>
@@ -11041,7 +11053,7 @@
       <c r="T27" s="38">
         <v>2.9149999999999999E-2</v>
       </c>
-      <c r="U27" s="43" t="s">
+      <c r="U27" s="47" t="s">
         <v>1256</v>
       </c>
     </row>
@@ -11053,7 +11065,7 @@
       <c r="R28" s="38"/>
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
-      <c r="U28" s="44"/>
+      <c r="U28" s="48"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D29" s="17" t="s">
@@ -11067,7 +11079,7 @@
       <c r="R29" s="38"/>
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
-      <c r="U29" s="44"/>
+      <c r="U29" s="48"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D30" s="17" t="s">
@@ -11081,7 +11093,7 @@
       <c r="R30" s="38"/>
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
-      <c r="U30" s="44"/>
+      <c r="U30" s="48"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D31" s="17" t="s">
@@ -11095,7 +11107,7 @@
       <c r="R31" s="38"/>
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
-      <c r="U31" s="44"/>
+      <c r="U31" s="48"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D32" s="17" t="s">
@@ -11110,7 +11122,7 @@
       <c r="R32" s="38"/>
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
-      <c r="U32" s="44"/>
+      <c r="U32" s="48"/>
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D33" s="17" t="s">
@@ -11125,7 +11137,7 @@
       <c r="R33" s="38"/>
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
-      <c r="U33" s="44"/>
+      <c r="U33" s="48"/>
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D34" s="17" t="s">
@@ -11147,7 +11159,7 @@
       <c r="R34" s="38"/>
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
-      <c r="U34" s="45"/>
+      <c r="U34" s="49"/>
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D35" s="17" t="s">
@@ -11176,7 +11188,7 @@
         <f>0.02922/2</f>
         <v>1.461E-2</v>
       </c>
-      <c r="T35" s="46">
+      <c r="T35" s="44">
         <v>2.9219999999999999E-2</v>
       </c>
       <c r="U35" s="38"/>
@@ -11199,7 +11211,7 @@
       <c r="Q36" s="38"/>
       <c r="R36" s="38"/>
       <c r="S36" s="38"/>
-      <c r="T36" s="46"/>
+      <c r="T36" s="44"/>
       <c r="U36" s="38"/>
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.3">
@@ -11220,7 +11232,7 @@
       <c r="Q37" s="38"/>
       <c r="R37" s="38"/>
       <c r="S37" s="38"/>
-      <c r="T37" s="46"/>
+      <c r="T37" s="44"/>
       <c r="U37" s="38"/>
     </row>
     <row r="38" spans="4:21" x14ac:dyDescent="0.3">
@@ -11234,7 +11246,7 @@
       <c r="Q38" s="38"/>
       <c r="R38" s="38"/>
       <c r="S38" s="38"/>
-      <c r="T38" s="46"/>
+      <c r="T38" s="44"/>
       <c r="U38" s="38"/>
     </row>
     <row r="39" spans="4:21" x14ac:dyDescent="0.3">
@@ -11248,7 +11260,7 @@
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
-      <c r="T39" s="46"/>
+      <c r="T39" s="44"/>
       <c r="U39" s="38"/>
     </row>
     <row r="40" spans="4:21" x14ac:dyDescent="0.3">
@@ -11262,7 +11274,7 @@
       <c r="Q40" s="38"/>
       <c r="R40" s="38"/>
       <c r="S40" s="38"/>
-      <c r="T40" s="46"/>
+      <c r="T40" s="44"/>
       <c r="U40" s="38"/>
     </row>
     <row r="41" spans="4:21" x14ac:dyDescent="0.3">
@@ -11274,7 +11286,7 @@
       <c r="Q41" s="38"/>
       <c r="R41" s="38"/>
       <c r="S41" s="38"/>
-      <c r="T41" s="46"/>
+      <c r="T41" s="44"/>
       <c r="U41" s="38"/>
     </row>
     <row r="42" spans="4:21" x14ac:dyDescent="0.3">
@@ -11285,7 +11297,7 @@
       <c r="Q42" s="38"/>
       <c r="R42" s="38"/>
       <c r="S42" s="38"/>
-      <c r="T42" s="46"/>
+      <c r="T42" s="44"/>
       <c r="U42" s="38"/>
     </row>
     <row r="43" spans="4:21" x14ac:dyDescent="0.3">
@@ -11296,7 +11308,7 @@
       <c r="Q43" s="38"/>
       <c r="R43" s="38"/>
       <c r="S43" s="38"/>
-      <c r="T43" s="46"/>
+      <c r="T43" s="44"/>
       <c r="U43" s="38"/>
     </row>
     <row r="44" spans="4:21" x14ac:dyDescent="0.3">
@@ -11453,6 +11465,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="U35:U43"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="U27:U34"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="T27:T34"/>
+    <mergeCell ref="P35:P43"/>
+    <mergeCell ref="Q35:Q43"/>
+    <mergeCell ref="R35:R43"/>
+    <mergeCell ref="S35:S43"/>
+    <mergeCell ref="T35:T43"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="P27:P34"/>
+    <mergeCell ref="Q27:Q34"/>
+    <mergeCell ref="R27:R34"/>
+    <mergeCell ref="S27:S34"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="P19:P20"/>
     <mergeCell ref="A22:A23"/>
@@ -11469,36 +11511,6 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="P24:P25"/>
     <mergeCell ref="P21:P23"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="P27:P34"/>
-    <mergeCell ref="Q27:Q34"/>
-    <mergeCell ref="R27:R34"/>
-    <mergeCell ref="S27:S34"/>
-    <mergeCell ref="T27:T34"/>
-    <mergeCell ref="P35:P43"/>
-    <mergeCell ref="Q35:Q43"/>
-    <mergeCell ref="R35:R43"/>
-    <mergeCell ref="S35:S43"/>
-    <mergeCell ref="T35:T43"/>
-    <mergeCell ref="U35:U43"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="U27:U34"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="Q19:Q20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11511,7 +11523,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:J16"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11550,7 +11562,7 @@
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -11621,16 +11633,16 @@
         <v>631</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>1621</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>1622</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>1623</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>1624</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>660</v>
@@ -11663,16 +11675,16 @@
         <v>635</v>
       </c>
       <c r="G7" s="35" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>1625</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="I7" s="35" t="s">
         <v>1626</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="J7" s="35" t="s">
         <v>1627</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>1628</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>664</v>
@@ -11707,16 +11719,16 @@
         <v>639</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>1605</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>1606</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>1607</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>1608</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>683</v>
@@ -11749,16 +11761,16 @@
         <v>643</v>
       </c>
       <c r="G9" s="35" t="s">
+        <v>1608</v>
+      </c>
+      <c r="H9" s="35" t="s">
         <v>1609</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="I9" s="35" t="s">
         <v>1610</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="J9" s="35" t="s">
         <v>1611</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>1612</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>687</v>
@@ -11777,7 +11789,7 @@
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="42" t="s">
         <v>1279</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -11793,16 +11805,16 @@
         <v>1291</v>
       </c>
       <c r="G10" s="35" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H10" s="35" t="s">
         <v>1613</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="I10" s="35" t="s">
         <v>1614</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="J10" s="35" t="s">
         <v>1615</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>1616</v>
       </c>
       <c r="K10" s="28" t="s">
         <v>1320</v>
@@ -11821,7 +11833,7 @@
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="28" t="s">
         <v>1292</v>
       </c>
@@ -11835,16 +11847,16 @@
         <v>1295</v>
       </c>
       <c r="G11" s="35" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H11" s="35" t="s">
         <v>1617</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="I11" s="35" t="s">
         <v>1618</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="J11" s="35" t="s">
         <v>1619</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>1620</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>1324</v>
@@ -11879,16 +11891,16 @@
         <v>623</v>
       </c>
       <c r="G12" s="35" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H12" s="35" t="s">
         <v>1579</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="I12" s="35" t="s">
         <v>1580</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="J12" s="35" t="s">
         <v>1581</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>1582</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>699</v>
@@ -11921,16 +11933,16 @@
         <v>627</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>1465</v>
+        <v>1721</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>1466</v>
+        <v>1722</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>1467</v>
+        <v>1723</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>1468</v>
+        <v>1724</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>703</v>
@@ -11965,16 +11977,16 @@
         <v>647</v>
       </c>
       <c r="G14" s="35" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>1571</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="I14" s="35" t="s">
         <v>1572</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="J14" s="35" t="s">
         <v>1573</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>1574</v>
       </c>
       <c r="K14" s="29" t="s">
         <v>1267</v>
@@ -12007,16 +12019,16 @@
         <v>651</v>
       </c>
       <c r="G15" s="35" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>1575</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="I15" s="35" t="s">
         <v>1576</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="J15" s="35" t="s">
         <v>1577</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>1578</v>
       </c>
       <c r="K15" s="29" t="s">
         <v>1263</v>
@@ -12051,16 +12063,16 @@
         <v>509</v>
       </c>
       <c r="G16" s="10" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>1520</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="I16" s="10" t="s">
         <v>1521</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>1522</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>1523</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>916</v>
@@ -12093,16 +12105,16 @@
         <v>755</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>1562</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>1563</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>1564</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>1565</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>1566</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>996</v>
@@ -12137,16 +12149,16 @@
         <v>1131</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>1393</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>1394</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
         <v>1395</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>1396</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>1150</v>
@@ -12179,16 +12191,16 @@
         <v>1127</v>
       </c>
       <c r="G19" s="10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>1397</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I19" s="10" t="s">
         <v>1398</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>1399</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>1400</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>1154</v>
@@ -12223,16 +12235,16 @@
         <v>1186</v>
       </c>
       <c r="G20" s="11" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>1425</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>1426</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>1427</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>1428</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>1227</v>
@@ -12265,16 +12277,16 @@
         <v>1190</v>
       </c>
       <c r="G21" s="11" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>1429</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>1430</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>1431</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>1432</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>1223</v>
@@ -12493,7 +12505,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12532,7 +12544,7 @@
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -12603,16 +12615,16 @@
         <v>801</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>1629</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>1630</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>1631</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>1632</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>668</v>
@@ -12645,16 +12657,16 @@
         <v>805</v>
       </c>
       <c r="G7" s="35" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>1633</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="I7" s="35" t="s">
         <v>1634</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="J7" s="35" t="s">
         <v>1635</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>1636</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>672</v>
@@ -12689,16 +12701,16 @@
         <v>825</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>1645</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>1646</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>1647</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>1648</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>1271</v>
@@ -12731,16 +12743,16 @@
         <v>829</v>
       </c>
       <c r="G9" s="35" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H9" s="35" t="s">
         <v>1649</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="I9" s="35" t="s">
         <v>1650</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="J9" s="35" t="s">
         <v>1651</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>1652</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>1275</v>
@@ -12759,7 +12771,7 @@
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="42" t="s">
         <v>1279</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -12775,16 +12787,16 @@
         <v>1299</v>
       </c>
       <c r="G10" s="35" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H10" s="35" t="s">
         <v>1665</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="I10" s="35" t="s">
         <v>1666</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="J10" s="35" t="s">
         <v>1667</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>1668</v>
       </c>
       <c r="K10" s="28" t="s">
         <v>1328</v>
@@ -12803,7 +12815,7 @@
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="28" t="s">
         <v>1300</v>
       </c>
@@ -12817,16 +12829,16 @@
         <v>1303</v>
       </c>
       <c r="G11" s="35" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H11" s="35" t="s">
         <v>1669</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="I11" s="35" t="s">
         <v>1670</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="J11" s="35" t="s">
         <v>1671</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>1672</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>1332</v>
@@ -12861,16 +12873,16 @@
         <v>841</v>
       </c>
       <c r="G12" s="35" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H12" s="35" t="s">
         <v>1689</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="I12" s="35" t="s">
         <v>1690</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="J12" s="35" t="s">
         <v>1691</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>1692</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>707</v>
@@ -12903,16 +12915,16 @@
         <v>845</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>1693</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>1694</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>1695</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>1696</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>762</v>
@@ -12947,16 +12959,16 @@
         <v>777</v>
       </c>
       <c r="G14" s="29" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H14" s="29" t="s">
         <v>1705</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="I14" s="29" t="s">
         <v>1706</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="J14" s="29" t="s">
         <v>1707</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>1708</v>
       </c>
       <c r="K14" s="29" t="s">
         <v>711</v>
@@ -12989,16 +13001,16 @@
         <v>781</v>
       </c>
       <c r="G15" s="29" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H15" s="29" t="s">
         <v>1709</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="I15" s="29" t="s">
         <v>1710</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="J15" s="29" t="s">
         <v>1711</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>1712</v>
       </c>
       <c r="K15" s="29" t="s">
         <v>715</v>
@@ -13033,16 +13045,16 @@
         <v>546</v>
       </c>
       <c r="G16" s="10" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>1547</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="I16" s="10" t="s">
         <v>1548</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>1549</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>1550</v>
       </c>
       <c r="K16" s="30" t="s">
         <v>944</v>
@@ -13075,16 +13087,16 @@
         <v>759</v>
       </c>
       <c r="G17" s="30" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H17" s="30" t="s">
         <v>1567</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="I17" s="30" t="s">
         <v>1568</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="J17" s="30" t="s">
         <v>1569</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>1570</v>
       </c>
       <c r="K17" s="30" t="s">
         <v>1033</v>
@@ -13119,16 +13131,16 @@
         <v>1119</v>
       </c>
       <c r="G18" s="30" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H18" s="30" t="s">
         <v>1401</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="I18" s="30" t="s">
         <v>1402</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="J18" s="30" t="s">
         <v>1403</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>1404</v>
       </c>
       <c r="K18" s="30" t="s">
         <v>1158</v>
@@ -13161,16 +13173,16 @@
         <v>1123</v>
       </c>
       <c r="G19" s="30" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H19" s="30" t="s">
         <v>1405</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="I19" s="30" t="s">
         <v>1406</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="J19" s="30" t="s">
         <v>1407</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>1408</v>
       </c>
       <c r="K19" s="33" t="s">
         <v>1162</v>
@@ -13205,16 +13217,16 @@
         <v>1194</v>
       </c>
       <c r="G20" s="33" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H20" s="33" t="s">
         <v>1433</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="I20" s="33" t="s">
         <v>1434</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="J20" s="33" t="s">
         <v>1435</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>1436</v>
       </c>
       <c r="K20" s="33" t="s">
         <v>1215</v>
@@ -13247,16 +13259,16 @@
         <v>1198</v>
       </c>
       <c r="G21" s="33" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H21" s="33" t="s">
         <v>1437</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="I21" s="33" t="s">
         <v>1438</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="J21" s="33" t="s">
         <v>1439</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>1440</v>
       </c>
       <c r="K21" s="30" t="s">
         <v>1219</v>
@@ -13475,7 +13487,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="C16:J17"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13514,7 +13526,7 @@
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
@@ -13585,16 +13597,16 @@
         <v>809</v>
       </c>
       <c r="G6" s="30" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>1637</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="I6" s="30" t="s">
         <v>1638</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="J6" s="30" t="s">
         <v>1639</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>1640</v>
       </c>
       <c r="K6" s="30" t="s">
         <v>814</v>
@@ -13627,16 +13639,16 @@
         <v>813</v>
       </c>
       <c r="G7" s="31" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H7" s="31" t="s">
         <v>1641</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="I7" s="31" t="s">
         <v>1642</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="J7" s="31" t="s">
         <v>1643</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>1644</v>
       </c>
       <c r="K7" s="31" t="s">
         <v>818</v>
@@ -13671,16 +13683,16 @@
         <v>833</v>
       </c>
       <c r="G8" s="30" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H8" s="30" t="s">
         <v>1681</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="I8" s="30" t="s">
         <v>1682</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="J8" s="30" t="s">
         <v>1683</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>1684</v>
       </c>
       <c r="K8" s="30" t="s">
         <v>766</v>
@@ -13713,16 +13725,16 @@
         <v>837</v>
       </c>
       <c r="G9" s="31" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>1685</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="I9" s="31" t="s">
         <v>1686</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="J9" s="31" t="s">
         <v>1687</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>1688</v>
       </c>
       <c r="K9" s="31" t="s">
         <v>770</v>
@@ -13741,7 +13753,7 @@
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="42" t="s">
         <v>1279</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -13757,16 +13769,16 @@
         <v>1307</v>
       </c>
       <c r="G10" s="31" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>1673</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="I10" s="31" t="s">
         <v>1674</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="J10" s="31" t="s">
         <v>1675</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>1676</v>
       </c>
       <c r="K10" s="31" t="s">
         <v>1336</v>
@@ -13785,7 +13797,7 @@
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="31" t="s">
         <v>1308</v>
       </c>
@@ -13799,16 +13811,16 @@
         <v>1311</v>
       </c>
       <c r="G11" s="31" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H11" s="31" t="s">
         <v>1677</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="I11" s="31" t="s">
         <v>1678</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="J11" s="31" t="s">
         <v>1679</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>1680</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>1340</v>
@@ -13820,7 +13832,7 @@
         <v>1342</v>
       </c>
       <c r="N11" s="31" t="s">
-        <v>1343</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -13843,16 +13855,16 @@
         <v>849</v>
       </c>
       <c r="G12" s="35" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H12" s="35" t="s">
         <v>1697</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="I12" s="35" t="s">
         <v>1698</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="J12" s="35" t="s">
         <v>1699</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>1700</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>854</v>
@@ -13885,16 +13897,16 @@
         <v>853</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>1701</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>1702</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>1703</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>1704</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>760</v>
@@ -13929,16 +13941,16 @@
         <v>785</v>
       </c>
       <c r="G14" s="35" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>1713</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="I14" s="35" t="s">
         <v>1714</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="J14" s="35" t="s">
         <v>1715</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>1716</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>790</v>
@@ -13971,16 +13983,16 @@
         <v>789</v>
       </c>
       <c r="G15" s="35" t="s">
+        <v>1716</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>1717</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="I15" s="35" t="s">
         <v>1718</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="J15" s="35" t="s">
         <v>1719</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>1720</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>794</v>
@@ -14015,16 +14027,16 @@
         <v>577</v>
       </c>
       <c r="G16" s="10" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>1600</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="I16" s="10" t="s">
         <v>1601</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>1602</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>1603</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>1054</v>
@@ -14057,16 +14069,16 @@
         <v>875</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>1661</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>1662</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>1663</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>1664</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>1079</v>
@@ -14101,16 +14113,16 @@
         <v>1111</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>1409</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>1410</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
         <v>1411</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>1412</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>1166</v>
@@ -14143,16 +14155,16 @@
         <v>1115</v>
       </c>
       <c r="G19" s="11" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>1413</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>1414</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="J19" s="11" t="s">
         <v>1415</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>1416</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>1170</v>
@@ -14187,16 +14199,16 @@
         <v>1206</v>
       </c>
       <c r="G20" s="11" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>1441</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>1442</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>1443</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>1444</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>1211</v>
@@ -14229,16 +14241,16 @@
         <v>1202</v>
       </c>
       <c r="G21" s="10" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>1445</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>1446</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>1447</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>1448</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>1207</v>

--- a/Kochia/results/Summary.xlsx
+++ b/Kochia/results/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w63x712\Documents\Machine_Learning\HSI_selection2\Kochia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018D89DD-6E32-446C-8ED1-8C6B5B265A98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E13C6-77D0-4E8C-B306-AB9241178E27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="662" firstSheet="12" activeTab="16" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="972" windowWidth="11064" windowHeight="5736" tabRatio="662" firstSheet="12" activeTab="13" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="150 bands" sheetId="1" r:id="rId1"/>
@@ -9975,8 +9975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13495555-31D4-4576-9C86-E21C2334E536}">
   <dimension ref="A2:V67"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11522,8 +11522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BDEE5B-F941-4815-9630-CCD6C7441D26}">
   <dimension ref="A2:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12504,8 +12504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6FC1C-B31A-4DF0-890F-5DC8C7FF47B9}">
   <dimension ref="A2:O49"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="F1" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13486,8 +13486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D607B5D-8DF4-412F-9C0A-05333BA42C0E}">
   <dimension ref="A2:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Kochia/results/Summary.xlsx
+++ b/Kochia/results/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w63x712\Documents\Machine_Learning\HSI_selection2\Kochia\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E13C6-77D0-4E8C-B306-AB9241178E27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB7DFF1-A1FC-430C-BCBF-B80AE6C369A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="972" windowWidth="11064" windowHeight="5736" tabRatio="662" firstSheet="12" activeTab="13" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="662" firstSheet="12" activeTab="16" xr2:uid="{D4E1857A-7969-4B6E-A5E0-8AB94818FDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="150 bands" sheetId="1" r:id="rId1"/>
@@ -5493,18 +5493,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5518,6 +5506,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9975,7 +9975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13495555-31D4-4576-9C86-E21C2334E536}">
   <dimension ref="A2:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -10196,7 +10196,7 @@
       <c r="A8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="47" t="s">
         <v>1279</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -10243,7 +10243,7 @@
       <c r="A9" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="10" t="s">
         <v>1284</v>
       </c>
@@ -10805,7 +10805,7 @@
       <c r="U19" s="38" t="s">
         <v>1254</v>
       </c>
-      <c r="V19" s="45"/>
+      <c r="V19" s="41"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -10860,7 +10860,7 @@
         <v>1252</v>
       </c>
       <c r="U20" s="38"/>
-      <c r="V20" s="45"/>
+      <c r="V20" s="41"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -10921,10 +10921,10 @@
       <c r="U21" s="38" t="s">
         <v>1255</v>
       </c>
-      <c r="V21" s="46"/>
+      <c r="V21" s="42"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="49" t="s">
         <v>399</v>
       </c>
       <c r="B22" t="s">
@@ -10946,10 +10946,10 @@
       <c r="S22" s="38"/>
       <c r="T22" s="38"/>
       <c r="U22" s="38"/>
-      <c r="V22" s="46"/>
+      <c r="V22" s="42"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
+      <c r="A23" s="49"/>
       <c r="B23" t="s">
         <v>1137</v>
       </c>
@@ -10969,10 +10969,10 @@
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
       <c r="U23" s="38"/>
-      <c r="V23" s="46"/>
+      <c r="V23" s="42"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="49" t="s">
         <v>400</v>
       </c>
       <c r="B24" t="s">
@@ -11002,7 +11002,7 @@
       <c r="U24" s="38"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
+      <c r="A25" s="49"/>
       <c r="B25" t="s">
         <v>1137</v>
       </c>
@@ -11053,7 +11053,7 @@
       <c r="T27" s="38">
         <v>2.9149999999999999E-2</v>
       </c>
-      <c r="U27" s="47" t="s">
+      <c r="U27" s="43" t="s">
         <v>1256</v>
       </c>
     </row>
@@ -11065,7 +11065,7 @@
       <c r="R28" s="38"/>
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
-      <c r="U28" s="48"/>
+      <c r="U28" s="44"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D29" s="17" t="s">
@@ -11079,7 +11079,7 @@
       <c r="R29" s="38"/>
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
-      <c r="U29" s="48"/>
+      <c r="U29" s="44"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D30" s="17" t="s">
@@ -11093,7 +11093,7 @@
       <c r="R30" s="38"/>
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
-      <c r="U30" s="48"/>
+      <c r="U30" s="44"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D31" s="17" t="s">
@@ -11107,7 +11107,7 @@
       <c r="R31" s="38"/>
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
-      <c r="U31" s="48"/>
+      <c r="U31" s="44"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D32" s="17" t="s">
@@ -11122,7 +11122,7 @@
       <c r="R32" s="38"/>
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
-      <c r="U32" s="48"/>
+      <c r="U32" s="44"/>
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D33" s="17" t="s">
@@ -11137,7 +11137,7 @@
       <c r="R33" s="38"/>
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
-      <c r="U33" s="48"/>
+      <c r="U33" s="44"/>
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D34" s="17" t="s">
@@ -11159,7 +11159,7 @@
       <c r="R34" s="38"/>
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
-      <c r="U34" s="49"/>
+      <c r="U34" s="45"/>
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D35" s="17" t="s">
@@ -11188,7 +11188,7 @@
         <f>0.02922/2</f>
         <v>1.461E-2</v>
       </c>
-      <c r="T35" s="44">
+      <c r="T35" s="46">
         <v>2.9219999999999999E-2</v>
       </c>
       <c r="U35" s="38"/>
@@ -11211,7 +11211,7 @@
       <c r="Q36" s="38"/>
       <c r="R36" s="38"/>
       <c r="S36" s="38"/>
-      <c r="T36" s="44"/>
+      <c r="T36" s="46"/>
       <c r="U36" s="38"/>
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.3">
@@ -11232,7 +11232,7 @@
       <c r="Q37" s="38"/>
       <c r="R37" s="38"/>
       <c r="S37" s="38"/>
-      <c r="T37" s="44"/>
+      <c r="T37" s="46"/>
       <c r="U37" s="38"/>
     </row>
     <row r="38" spans="4:21" x14ac:dyDescent="0.3">
@@ -11246,7 +11246,7 @@
       <c r="Q38" s="38"/>
       <c r="R38" s="38"/>
       <c r="S38" s="38"/>
-      <c r="T38" s="44"/>
+      <c r="T38" s="46"/>
       <c r="U38" s="38"/>
     </row>
     <row r="39" spans="4:21" x14ac:dyDescent="0.3">
@@ -11260,7 +11260,7 @@
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
-      <c r="T39" s="44"/>
+      <c r="T39" s="46"/>
       <c r="U39" s="38"/>
     </row>
     <row r="40" spans="4:21" x14ac:dyDescent="0.3">
@@ -11274,7 +11274,7 @@
       <c r="Q40" s="38"/>
       <c r="R40" s="38"/>
       <c r="S40" s="38"/>
-      <c r="T40" s="44"/>
+      <c r="T40" s="46"/>
       <c r="U40" s="38"/>
     </row>
     <row r="41" spans="4:21" x14ac:dyDescent="0.3">
@@ -11286,7 +11286,7 @@
       <c r="Q41" s="38"/>
       <c r="R41" s="38"/>
       <c r="S41" s="38"/>
-      <c r="T41" s="44"/>
+      <c r="T41" s="46"/>
       <c r="U41" s="38"/>
     </row>
     <row r="42" spans="4:21" x14ac:dyDescent="0.3">
@@ -11297,7 +11297,7 @@
       <c r="Q42" s="38"/>
       <c r="R42" s="38"/>
       <c r="S42" s="38"/>
-      <c r="T42" s="44"/>
+      <c r="T42" s="46"/>
       <c r="U42" s="38"/>
     </row>
     <row r="43" spans="4:21" x14ac:dyDescent="0.3">
@@ -11308,7 +11308,7 @@
       <c r="Q43" s="38"/>
       <c r="R43" s="38"/>
       <c r="S43" s="38"/>
-      <c r="T43" s="44"/>
+      <c r="T43" s="46"/>
       <c r="U43" s="38"/>
     </row>
     <row r="44" spans="4:21" x14ac:dyDescent="0.3">
@@ -11465,6 +11465,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="P27:P34"/>
+    <mergeCell ref="Q27:Q34"/>
+    <mergeCell ref="R27:R34"/>
+    <mergeCell ref="S27:S34"/>
+    <mergeCell ref="T27:T34"/>
+    <mergeCell ref="P35:P43"/>
+    <mergeCell ref="Q35:Q43"/>
+    <mergeCell ref="R35:R43"/>
+    <mergeCell ref="S35:S43"/>
+    <mergeCell ref="T35:T43"/>
     <mergeCell ref="U35:U43"/>
     <mergeCell ref="V19:V20"/>
     <mergeCell ref="V21:V23"/>
@@ -11481,36 +11511,6 @@
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="R19:R20"/>
     <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="T27:T34"/>
-    <mergeCell ref="P35:P43"/>
-    <mergeCell ref="Q35:Q43"/>
-    <mergeCell ref="R35:R43"/>
-    <mergeCell ref="S35:S43"/>
-    <mergeCell ref="T35:T43"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="P27:P34"/>
-    <mergeCell ref="Q27:Q34"/>
-    <mergeCell ref="R27:R34"/>
-    <mergeCell ref="S27:S34"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="P21:P23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11789,7 +11789,7 @@
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="47" t="s">
         <v>1279</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -11833,7 +11833,7 @@
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="28" t="s">
         <v>1292</v>
       </c>
@@ -12771,7 +12771,7 @@
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="47" t="s">
         <v>1279</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -12815,7 +12815,7 @@
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="28" t="s">
         <v>1300</v>
       </c>
@@ -13486,8 +13486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D607B5D-8DF4-412F-9C0A-05333BA42C0E}">
   <dimension ref="A2:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13753,7 +13753,7 @@
       <c r="A10" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="47" t="s">
         <v>1279</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -13797,7 +13797,7 @@
       <c r="A11" t="s">
         <v>400</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="31" t="s">
         <v>1308</v>
       </c>
